--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9779753637425068</v>
+        <v>0.9779753637425069</v>
       </c>
       <c r="D2">
-        <v>1.001090167085913</v>
+        <v>1.001090167085914</v>
       </c>
       <c r="E2">
-        <v>0.9863077696515077</v>
+        <v>0.986307769651508</v>
       </c>
       <c r="F2">
-        <v>0.9889528836059875</v>
+        <v>0.9889528836059881</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,10 +442,10 @@
         <v>1.000835393778654</v>
       </c>
       <c r="K2">
-        <v>1.012534335015012</v>
+        <v>1.012534335015013</v>
       </c>
       <c r="L2">
-        <v>0.997961213371342</v>
+        <v>0.9979612133713421</v>
       </c>
       <c r="M2">
         <v>1.000568298406453</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9890236345127196</v>
+        <v>0.9890236345127186</v>
       </c>
       <c r="D3">
-        <v>1.009716745497126</v>
+        <v>1.009716745497125</v>
       </c>
       <c r="E3">
-        <v>0.9967839866908301</v>
+        <v>0.9967839866908292</v>
       </c>
       <c r="F3">
-        <v>0.9998272420026016</v>
+        <v>0.9998272420026005</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.040900282727137</v>
       </c>
       <c r="J3">
-        <v>1.009818065564824</v>
+        <v>1.009818065564822</v>
       </c>
       <c r="K3">
-        <v>1.020226790247935</v>
+        <v>1.020226790247934</v>
       </c>
       <c r="L3">
         <v>1.007458183069941</v>
       </c>
       <c r="M3">
-        <v>1.010462333776854</v>
+        <v>1.010462333776853</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9958403185684752</v>
+        <v>0.9958403185684777</v>
       </c>
       <c r="D4">
-        <v>1.015042931107134</v>
+        <v>1.015042931107136</v>
       </c>
       <c r="E4">
-        <v>1.003253882993341</v>
+        <v>1.003253882993344</v>
       </c>
       <c r="F4">
-        <v>1.006549177956429</v>
+        <v>1.006549177956431</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043470648546556</v>
+        <v>1.043470648546558</v>
       </c>
       <c r="J4">
-        <v>1.015351031285301</v>
+        <v>1.015351031285303</v>
       </c>
       <c r="K4">
-        <v>1.024963129083627</v>
+        <v>1.024963129083629</v>
       </c>
       <c r="L4">
-        <v>1.013313194514929</v>
+        <v>1.013313194514931</v>
       </c>
       <c r="M4">
-        <v>1.016569197616422</v>
+        <v>1.016569197616424</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9986333471040372</v>
+        <v>0.9986333471040361</v>
       </c>
       <c r="D5">
-        <v>1.017225911752508</v>
+        <v>1.017225911752506</v>
       </c>
       <c r="E5">
-        <v>1.005906178250149</v>
+        <v>1.005906178250148</v>
       </c>
       <c r="F5">
-        <v>1.009306249451193</v>
+        <v>1.009306249451192</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.044519485314615</v>
       </c>
       <c r="J5">
-        <v>1.017615778298724</v>
+        <v>1.017615778298723</v>
       </c>
       <c r="K5">
-        <v>1.026901285262275</v>
+        <v>1.026901285262274</v>
       </c>
       <c r="L5">
-        <v>1.015711014613161</v>
+        <v>1.01571101461316</v>
       </c>
       <c r="M5">
-        <v>1.019071822748426</v>
+        <v>1.019071822748425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990982266969717</v>
+        <v>0.9990982266969689</v>
       </c>
       <c r="D6">
-        <v>1.017589286208156</v>
+        <v>1.017589286208154</v>
       </c>
       <c r="E6">
-        <v>1.006347710450158</v>
+        <v>1.006347710450155</v>
       </c>
       <c r="F6">
-        <v>1.00976530891086</v>
+        <v>1.009765308910857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044693799274985</v>
+        <v>1.044693799274983</v>
       </c>
       <c r="J6">
-        <v>1.017992591894367</v>
+        <v>1.017992591894364</v>
       </c>
       <c r="K6">
-        <v>1.027223727925076</v>
+        <v>1.027223727925074</v>
       </c>
       <c r="L6">
-        <v>1.016110042805986</v>
+        <v>1.016110042805983</v>
       </c>
       <c r="M6">
-        <v>1.019488388967839</v>
+        <v>1.019488388967837</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958779165013968</v>
+        <v>0.9958779165013982</v>
       </c>
       <c r="D7">
-        <v>1.015072314621648</v>
+        <v>1.01507231462165</v>
       </c>
       <c r="E7">
-        <v>1.003289581224861</v>
+        <v>1.003289581224862</v>
       </c>
       <c r="F7">
-        <v>1.006586280664589</v>
+        <v>1.00658628066459</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043484784618164</v>
+        <v>1.043484784618165</v>
       </c>
       <c r="J7">
-        <v>1.015381527057888</v>
+        <v>1.015381527057889</v>
       </c>
       <c r="K7">
-        <v>1.024989229299829</v>
+        <v>1.024989229299831</v>
       </c>
       <c r="L7">
-        <v>1.013345477200685</v>
+        <v>1.013345477200686</v>
       </c>
       <c r="M7">
-        <v>1.016602884758278</v>
+        <v>1.016602884758279</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9817824248911472</v>
+        <v>0.9817824248911469</v>
       </c>
       <c r="D8">
-        <v>1.004061823051262</v>
+        <v>1.004061823051261</v>
       </c>
       <c r="E8">
-        <v>0.9899163123079699</v>
+        <v>0.9899163123079701</v>
       </c>
       <c r="F8">
-        <v>0.9926972371615926</v>
+        <v>0.992697237161593</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9540276974233993</v>
+        <v>0.9540276974233987</v>
       </c>
       <c r="D9">
-        <v>0.98242522522708</v>
+        <v>0.9824252252270794</v>
       </c>
       <c r="E9">
-        <v>0.9636428895645189</v>
+        <v>0.9636428895645184</v>
       </c>
       <c r="F9">
-        <v>0.9654637747947165</v>
+        <v>0.9654637747947161</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.027515646976255</v>
       </c>
       <c r="J9">
-        <v>0.9813152564354825</v>
+        <v>0.9813152564354819</v>
       </c>
       <c r="K9">
-        <v>0.9958100253534229</v>
+        <v>0.9958100253534222</v>
       </c>
       <c r="L9">
-        <v>0.9773547284849617</v>
+        <v>0.9773547284849613</v>
       </c>
       <c r="M9">
-        <v>0.9791431855877875</v>
+        <v>0.979143185587787</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9329047647312713</v>
+        <v>0.9329047647312705</v>
       </c>
       <c r="D10">
-        <v>0.966011364669747</v>
+        <v>0.9660113646697461</v>
       </c>
       <c r="E10">
-        <v>0.9437013362296572</v>
+        <v>0.9437013362296567</v>
       </c>
       <c r="F10">
-        <v>0.9448329780395549</v>
+        <v>0.9448329780395539</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01932731826946</v>
       </c>
       <c r="J10">
-        <v>0.9640587823855118</v>
+        <v>0.964058782385511</v>
       </c>
       <c r="K10">
-        <v>0.9810226633560303</v>
+        <v>0.9810226633560294</v>
       </c>
       <c r="L10">
-        <v>0.9591673438525156</v>
+        <v>0.9591673438525148</v>
       </c>
       <c r="M10">
-        <v>0.9602752375181256</v>
+        <v>0.9602752375181248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.922931310366475</v>
+        <v>0.9229313103664737</v>
       </c>
       <c r="D11">
-        <v>0.9582807518493432</v>
+        <v>0.9582807518493425</v>
       </c>
       <c r="E11">
-        <v>0.9343025216347377</v>
+        <v>0.9343025216347371</v>
       </c>
       <c r="F11">
-        <v>0.93511945438483</v>
+        <v>0.9351194543848294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015441894845906</v>
+        <v>1.015441894845905</v>
       </c>
       <c r="J11">
-        <v>0.9559030444008336</v>
+        <v>0.9559030444008326</v>
       </c>
       <c r="K11">
-        <v>0.974034782706678</v>
+        <v>0.9740347827066771</v>
       </c>
       <c r="L11">
-        <v>0.9505796931122829</v>
+        <v>0.9505796931122822</v>
       </c>
       <c r="M11">
-        <v>0.9513782139321108</v>
+        <v>0.95137821393211</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9190785416923498</v>
+        <v>0.9190785416923488</v>
       </c>
       <c r="D12">
-        <v>0.9552980648394517</v>
+        <v>0.9552980648394513</v>
       </c>
       <c r="E12">
-        <v>0.9306747087989393</v>
+        <v>0.9306747087989384</v>
       </c>
       <c r="F12">
-        <v>0.931371771350109</v>
+        <v>0.9313717713501091</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.013938353041537</v>
       </c>
       <c r="J12">
-        <v>0.9527515662278577</v>
+        <v>0.9527515662278569</v>
       </c>
       <c r="K12">
-        <v>0.9713348963602574</v>
+        <v>0.9713348963602568</v>
       </c>
       <c r="L12">
-        <v>0.9472625630077345</v>
+        <v>0.9472625630077337</v>
       </c>
       <c r="M12">
         <v>0.9479434906784714</v>
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9199121416027664</v>
+        <v>0.9199121416027665</v>
       </c>
       <c r="D13">
-        <v>0.9559432315442904</v>
+        <v>0.9559432315442905</v>
       </c>
       <c r="E13">
-        <v>0.9314594944718391</v>
+        <v>0.9314594944718394</v>
       </c>
       <c r="F13">
         <v>0.9321824143389863</v>
@@ -857,16 +857,16 @@
         <v>1.014263776342622</v>
       </c>
       <c r="J13">
-        <v>0.9534334671249528</v>
+        <v>0.953433467124953</v>
       </c>
       <c r="K13">
-        <v>0.9719190664933763</v>
+        <v>0.9719190664933764</v>
       </c>
       <c r="L13">
-        <v>0.947980250228256</v>
+        <v>0.9479802502282564</v>
       </c>
       <c r="M13">
-        <v>0.9486865322930015</v>
+        <v>0.9486865322930016</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9226160259969112</v>
+        <v>0.9226160259969078</v>
       </c>
       <c r="D14">
-        <v>0.9580365902540409</v>
+        <v>0.958036590254038</v>
       </c>
       <c r="E14">
-        <v>0.9340055833734843</v>
+        <v>0.9340055833734808</v>
       </c>
       <c r="F14">
-        <v>0.9348126718855644</v>
+        <v>0.9348126718855616</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015318905511739</v>
+        <v>1.015318905511738</v>
       </c>
       <c r="J14">
-        <v>0.9556451650222404</v>
+        <v>0.9556451650222372</v>
       </c>
       <c r="K14">
-        <v>0.9738138486486975</v>
+        <v>0.9738138486486947</v>
       </c>
       <c r="L14">
-        <v>0.9503082334768546</v>
+        <v>0.9503082334768511</v>
       </c>
       <c r="M14">
-        <v>0.9510970918602293</v>
+        <v>0.9510970918602265</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,7 +915,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9242615072578262</v>
+        <v>0.9242615072578265</v>
       </c>
       <c r="D15">
         <v>0.9593110316589415</v>
@@ -924,25 +924,25 @@
         <v>0.9355554381839074</v>
       </c>
       <c r="F15">
-        <v>0.9364139733402506</v>
+        <v>0.9364139733402502</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015960688993851</v>
+        <v>1.01596068899385</v>
       </c>
       <c r="J15">
-        <v>0.9569910131594329</v>
+        <v>0.9569910131594334</v>
       </c>
       <c r="K15">
-        <v>0.9749668965980627</v>
+        <v>0.9749668965980626</v>
       </c>
       <c r="L15">
-        <v>0.951725006049106</v>
+        <v>0.9517250060491063</v>
       </c>
       <c r="M15">
-        <v>0.952564371128899</v>
+        <v>0.9525643711288986</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9335473544339353</v>
+        <v>0.9335473544339361</v>
       </c>
       <c r="D16">
-        <v>0.9665099001756671</v>
+        <v>0.9665099001756672</v>
       </c>
       <c r="E16">
-        <v>0.9443072778963449</v>
+        <v>0.9443072778963457</v>
       </c>
       <c r="F16">
-        <v>0.945459421345582</v>
+        <v>0.9454594213455821</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.019577288552372</v>
       </c>
       <c r="J16">
-        <v>0.9645841184722869</v>
+        <v>0.9645841184722874</v>
       </c>
       <c r="K16">
-        <v>0.9814728066477263</v>
+        <v>0.9814728066477266</v>
       </c>
       <c r="L16">
-        <v>0.9597206669831194</v>
+        <v>0.9597206669831202</v>
       </c>
       <c r="M16">
-        <v>0.9608487459167329</v>
+        <v>0.9608487459167331</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9391358137788074</v>
+        <v>0.9391358137788078</v>
       </c>
       <c r="D17">
-        <v>0.9708477585296914</v>
+        <v>0.9708477585296916</v>
       </c>
       <c r="E17">
-        <v>0.9495789127133284</v>
+        <v>0.9495789127133287</v>
       </c>
       <c r="F17">
-        <v>0.9509105446511777</v>
+        <v>0.950910544651178</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.021749135384686</v>
       </c>
       <c r="J17">
-        <v>0.9691520063880474</v>
+        <v>0.9691520063880478</v>
       </c>
       <c r="K17">
-        <v>0.9853869972900292</v>
+        <v>0.9853869972900294</v>
       </c>
       <c r="L17">
-        <v>0.9645327972776263</v>
+        <v>0.9645327972776268</v>
       </c>
       <c r="M17">
-        <v>0.9658377524349283</v>
+        <v>0.9658377524349286</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9423175824451311</v>
+        <v>0.9423175824451322</v>
       </c>
       <c r="D18">
-        <v>0.9733192220682378</v>
+        <v>0.9733192220682384</v>
       </c>
       <c r="E18">
-        <v>0.9525818068031349</v>
+        <v>0.9525818068031358</v>
       </c>
       <c r="F18">
-        <v>0.9540166046323638</v>
+        <v>0.9540166046323649</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022983890289904</v>
       </c>
       <c r="J18">
-        <v>0.9717519744032396</v>
+        <v>0.9717519744032405</v>
       </c>
       <c r="K18">
-        <v>0.9876149614501779</v>
+        <v>0.9876149614501786</v>
       </c>
       <c r="L18">
-        <v>0.9672725180804982</v>
+        <v>0.9672725180804992</v>
       </c>
       <c r="M18">
-        <v>0.9686792629586456</v>
+        <v>0.9686792629586467</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9433898935919783</v>
+        <v>0.9433898935919774</v>
       </c>
       <c r="D19">
-        <v>0.9741524209465046</v>
+        <v>0.9741524209465037</v>
       </c>
       <c r="E19">
-        <v>0.9535940789601197</v>
+        <v>0.9535940789601193</v>
       </c>
       <c r="F19">
-        <v>0.9550638085395621</v>
+        <v>0.9550638085395614</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023399715129256</v>
       </c>
       <c r="J19">
-        <v>0.9726280757002964</v>
+        <v>0.9726280757002956</v>
       </c>
       <c r="K19">
-        <v>0.9883657173240996</v>
+        <v>0.9883657173240986</v>
       </c>
       <c r="L19">
-        <v>0.9681958349742038</v>
+        <v>0.9681958349742035</v>
       </c>
       <c r="M19">
-        <v>0.9696370659098555</v>
+        <v>0.9696370659098549</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9385444325069598</v>
+        <v>0.9385444325069608</v>
       </c>
       <c r="D20">
-        <v>0.97038853401085</v>
+        <v>0.970388534010851</v>
       </c>
       <c r="E20">
-        <v>0.9490208982404449</v>
+        <v>0.9490208982404457</v>
       </c>
       <c r="F20">
-        <v>0.9503334340428805</v>
+        <v>0.9503334340428813</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021519490288508</v>
+        <v>1.021519490288509</v>
       </c>
       <c r="J20">
-        <v>0.9686686996291397</v>
+        <v>0.9686686996291406</v>
       </c>
       <c r="K20">
-        <v>0.9849728467257352</v>
+        <v>0.9849728467257363</v>
       </c>
       <c r="L20">
-        <v>0.9640235715347885</v>
+        <v>0.9640235715347892</v>
       </c>
       <c r="M20">
-        <v>0.965309695208207</v>
+        <v>0.9653096952082079</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9218241177795791</v>
+        <v>0.9218241177795808</v>
       </c>
       <c r="D21">
-        <v>0.9574233845373508</v>
+        <v>0.9574233845373521</v>
       </c>
       <c r="E21">
-        <v>0.9332598047801365</v>
+        <v>0.9332598047801385</v>
       </c>
       <c r="F21">
-        <v>0.9340421948293074</v>
+        <v>0.9340421948293089</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015009949540166</v>
+        <v>1.015009949540167</v>
       </c>
       <c r="J21">
-        <v>0.9549974292230415</v>
+        <v>0.9549974292230432</v>
       </c>
       <c r="K21">
-        <v>0.9732589170597569</v>
+        <v>0.9732589170597582</v>
       </c>
       <c r="L21">
-        <v>0.9496264071153766</v>
+        <v>0.9496264071153784</v>
       </c>
       <c r="M21">
-        <v>0.950391027233518</v>
+        <v>0.9503910272335196</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9104363647001745</v>
+        <v>0.9104363647001767</v>
       </c>
       <c r="D22">
-        <v>0.9486154313055184</v>
+        <v>0.9486154313055206</v>
       </c>
       <c r="E22">
-        <v>0.9225432729329154</v>
+        <v>0.9225432729329175</v>
       </c>
       <c r="F22">
-        <v>0.9229747482711603</v>
+        <v>0.9229747482711622</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010561312621836</v>
+        <v>1.010561312621837</v>
       </c>
       <c r="J22">
-        <v>0.9456811878868567</v>
+        <v>0.9456811878868588</v>
       </c>
       <c r="K22">
-        <v>0.9652785034828729</v>
+        <v>0.9652785034828748</v>
       </c>
       <c r="L22">
-        <v>0.9398229071548798</v>
+        <v>0.9398229071548818</v>
       </c>
       <c r="M22">
-        <v>0.9402437971722661</v>
+        <v>0.9402437971722679</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,19 +1216,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9165661854722569</v>
+        <v>0.9165661854722578</v>
       </c>
       <c r="D23">
-        <v>0.9533542276368565</v>
+        <v>0.9533542276368572</v>
       </c>
       <c r="E23">
-        <v>0.9283099487067783</v>
+        <v>0.928309948706779</v>
       </c>
       <c r="F23">
-        <v>0.9289293388684463</v>
+        <v>0.9289293388684468</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.012957218174248</v>
       </c>
       <c r="J23">
-        <v>0.9506963054396025</v>
+        <v>0.9506963054396033</v>
       </c>
       <c r="K23">
-        <v>0.9695742607035686</v>
+        <v>0.9695742607035693</v>
       </c>
       <c r="L23">
-        <v>0.9450996272833985</v>
+        <v>0.9450996272833991</v>
       </c>
       <c r="M23">
-        <v>0.9457044326474571</v>
+        <v>0.9457044326474578</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9388118912056956</v>
+        <v>0.9388118912056964</v>
       </c>
       <c r="D24">
-        <v>0.9705962180449808</v>
+        <v>0.9705962180449815</v>
       </c>
       <c r="E24">
-        <v>0.9492732617590485</v>
+        <v>0.9492732617590497</v>
       </c>
       <c r="F24">
-        <v>0.9505944309627611</v>
+        <v>0.950594430962762</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021623355385098</v>
+        <v>1.021623355385099</v>
       </c>
       <c r="J24">
-        <v>0.968887282774371</v>
+        <v>0.9688872827743719</v>
       </c>
       <c r="K24">
-        <v>0.9851601526792695</v>
+        <v>0.9851601526792702</v>
       </c>
       <c r="L24">
-        <v>0.9642538746625022</v>
+        <v>0.9642538746625033</v>
       </c>
       <c r="M24">
-        <v>0.9655485117008551</v>
+        <v>0.965548511700856</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9616077164282658</v>
+        <v>0.9616077164282646</v>
       </c>
       <c r="D25">
-        <v>0.9883274057852752</v>
+        <v>0.9883274057852742</v>
       </c>
       <c r="E25">
-        <v>0.9708104719983219</v>
+        <v>0.9708104719983204</v>
       </c>
       <c r="F25">
-        <v>0.9728869487219538</v>
+        <v>0.9728869487219528</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030437012853678</v>
       </c>
       <c r="J25">
-        <v>0.9875000043237636</v>
+        <v>0.9875000043237626</v>
       </c>
       <c r="K25">
-        <v>1.001109667303109</v>
+        <v>1.001109667303108</v>
       </c>
       <c r="L25">
-        <v>0.9838794747964736</v>
+        <v>0.9838794747964722</v>
       </c>
       <c r="M25">
-        <v>0.985921266041255</v>
+        <v>0.9859212660412539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9779753637425069</v>
+        <v>0.9779753637425068</v>
       </c>
       <c r="D2">
-        <v>1.001090167085914</v>
+        <v>1.001090167085913</v>
       </c>
       <c r="E2">
-        <v>0.986307769651508</v>
+        <v>0.9863077696515077</v>
       </c>
       <c r="F2">
-        <v>0.9889528836059881</v>
+        <v>0.9889528836059875</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,10 +442,10 @@
         <v>1.000835393778654</v>
       </c>
       <c r="K2">
-        <v>1.012534335015013</v>
+        <v>1.012534335015012</v>
       </c>
       <c r="L2">
-        <v>0.9979612133713421</v>
+        <v>0.997961213371342</v>
       </c>
       <c r="M2">
         <v>1.000568298406453</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9890236345127186</v>
+        <v>0.9890236345127196</v>
       </c>
       <c r="D3">
-        <v>1.009716745497125</v>
+        <v>1.009716745497126</v>
       </c>
       <c r="E3">
-        <v>0.9967839866908292</v>
+        <v>0.9967839866908301</v>
       </c>
       <c r="F3">
-        <v>0.9998272420026005</v>
+        <v>0.9998272420026016</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.040900282727137</v>
       </c>
       <c r="J3">
-        <v>1.009818065564822</v>
+        <v>1.009818065564824</v>
       </c>
       <c r="K3">
-        <v>1.020226790247934</v>
+        <v>1.020226790247935</v>
       </c>
       <c r="L3">
         <v>1.007458183069941</v>
       </c>
       <c r="M3">
-        <v>1.010462333776853</v>
+        <v>1.010462333776854</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9958403185684777</v>
+        <v>0.9958403185684752</v>
       </c>
       <c r="D4">
-        <v>1.015042931107136</v>
+        <v>1.015042931107134</v>
       </c>
       <c r="E4">
-        <v>1.003253882993344</v>
+        <v>1.003253882993341</v>
       </c>
       <c r="F4">
-        <v>1.006549177956431</v>
+        <v>1.006549177956429</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043470648546558</v>
+        <v>1.043470648546556</v>
       </c>
       <c r="J4">
-        <v>1.015351031285303</v>
+        <v>1.015351031285301</v>
       </c>
       <c r="K4">
-        <v>1.024963129083629</v>
+        <v>1.024963129083627</v>
       </c>
       <c r="L4">
-        <v>1.013313194514931</v>
+        <v>1.013313194514929</v>
       </c>
       <c r="M4">
-        <v>1.016569197616424</v>
+        <v>1.016569197616422</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9986333471040361</v>
+        <v>0.9986333471040372</v>
       </c>
       <c r="D5">
-        <v>1.017225911752506</v>
+        <v>1.017225911752508</v>
       </c>
       <c r="E5">
-        <v>1.005906178250148</v>
+        <v>1.005906178250149</v>
       </c>
       <c r="F5">
-        <v>1.009306249451192</v>
+        <v>1.009306249451193</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.044519485314615</v>
       </c>
       <c r="J5">
-        <v>1.017615778298723</v>
+        <v>1.017615778298724</v>
       </c>
       <c r="K5">
-        <v>1.026901285262274</v>
+        <v>1.026901285262275</v>
       </c>
       <c r="L5">
-        <v>1.01571101461316</v>
+        <v>1.015711014613161</v>
       </c>
       <c r="M5">
-        <v>1.019071822748425</v>
+        <v>1.019071822748426</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990982266969689</v>
+        <v>0.9990982266969717</v>
       </c>
       <c r="D6">
-        <v>1.017589286208154</v>
+        <v>1.017589286208156</v>
       </c>
       <c r="E6">
-        <v>1.006347710450155</v>
+        <v>1.006347710450158</v>
       </c>
       <c r="F6">
-        <v>1.009765308910857</v>
+        <v>1.00976530891086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044693799274983</v>
+        <v>1.044693799274985</v>
       </c>
       <c r="J6">
-        <v>1.017992591894364</v>
+        <v>1.017992591894367</v>
       </c>
       <c r="K6">
-        <v>1.027223727925074</v>
+        <v>1.027223727925076</v>
       </c>
       <c r="L6">
-        <v>1.016110042805983</v>
+        <v>1.016110042805986</v>
       </c>
       <c r="M6">
-        <v>1.019488388967837</v>
+        <v>1.019488388967839</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958779165013982</v>
+        <v>0.9958779165013968</v>
       </c>
       <c r="D7">
-        <v>1.01507231462165</v>
+        <v>1.015072314621648</v>
       </c>
       <c r="E7">
-        <v>1.003289581224862</v>
+        <v>1.003289581224861</v>
       </c>
       <c r="F7">
-        <v>1.00658628066459</v>
+        <v>1.006586280664589</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043484784618165</v>
+        <v>1.043484784618164</v>
       </c>
       <c r="J7">
-        <v>1.015381527057889</v>
+        <v>1.015381527057888</v>
       </c>
       <c r="K7">
-        <v>1.024989229299831</v>
+        <v>1.024989229299829</v>
       </c>
       <c r="L7">
-        <v>1.013345477200686</v>
+        <v>1.013345477200685</v>
       </c>
       <c r="M7">
-        <v>1.016602884758279</v>
+        <v>1.016602884758278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9817824248911469</v>
+        <v>0.9817824248911472</v>
       </c>
       <c r="D8">
-        <v>1.004061823051261</v>
+        <v>1.004061823051262</v>
       </c>
       <c r="E8">
-        <v>0.9899163123079701</v>
+        <v>0.9899163123079699</v>
       </c>
       <c r="F8">
-        <v>0.992697237161593</v>
+        <v>0.9926972371615926</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9540276974233987</v>
+        <v>0.9540276974233993</v>
       </c>
       <c r="D9">
-        <v>0.9824252252270794</v>
+        <v>0.98242522522708</v>
       </c>
       <c r="E9">
-        <v>0.9636428895645184</v>
+        <v>0.9636428895645189</v>
       </c>
       <c r="F9">
-        <v>0.9654637747947161</v>
+        <v>0.9654637747947165</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.027515646976255</v>
       </c>
       <c r="J9">
-        <v>0.9813152564354819</v>
+        <v>0.9813152564354825</v>
       </c>
       <c r="K9">
-        <v>0.9958100253534222</v>
+        <v>0.9958100253534229</v>
       </c>
       <c r="L9">
-        <v>0.9773547284849613</v>
+        <v>0.9773547284849617</v>
       </c>
       <c r="M9">
-        <v>0.979143185587787</v>
+        <v>0.9791431855877875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9329047647312705</v>
+        <v>0.9329047647312713</v>
       </c>
       <c r="D10">
-        <v>0.9660113646697461</v>
+        <v>0.966011364669747</v>
       </c>
       <c r="E10">
-        <v>0.9437013362296567</v>
+        <v>0.9437013362296572</v>
       </c>
       <c r="F10">
-        <v>0.9448329780395539</v>
+        <v>0.9448329780395549</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01932731826946</v>
       </c>
       <c r="J10">
-        <v>0.964058782385511</v>
+        <v>0.9640587823855118</v>
       </c>
       <c r="K10">
-        <v>0.9810226633560294</v>
+        <v>0.9810226633560303</v>
       </c>
       <c r="L10">
-        <v>0.9591673438525148</v>
+        <v>0.9591673438525156</v>
       </c>
       <c r="M10">
-        <v>0.9602752375181248</v>
+        <v>0.9602752375181256</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9229313103664737</v>
+        <v>0.922931310366475</v>
       </c>
       <c r="D11">
-        <v>0.9582807518493425</v>
+        <v>0.9582807518493432</v>
       </c>
       <c r="E11">
-        <v>0.9343025216347371</v>
+        <v>0.9343025216347377</v>
       </c>
       <c r="F11">
-        <v>0.9351194543848294</v>
+        <v>0.93511945438483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015441894845905</v>
+        <v>1.015441894845906</v>
       </c>
       <c r="J11">
-        <v>0.9559030444008326</v>
+        <v>0.9559030444008336</v>
       </c>
       <c r="K11">
-        <v>0.9740347827066771</v>
+        <v>0.974034782706678</v>
       </c>
       <c r="L11">
-        <v>0.9505796931122822</v>
+        <v>0.9505796931122829</v>
       </c>
       <c r="M11">
-        <v>0.95137821393211</v>
+        <v>0.9513782139321108</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9190785416923488</v>
+        <v>0.9190785416923498</v>
       </c>
       <c r="D12">
-        <v>0.9552980648394513</v>
+        <v>0.9552980648394517</v>
       </c>
       <c r="E12">
-        <v>0.9306747087989384</v>
+        <v>0.9306747087989393</v>
       </c>
       <c r="F12">
-        <v>0.9313717713501091</v>
+        <v>0.931371771350109</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.013938353041537</v>
       </c>
       <c r="J12">
-        <v>0.9527515662278569</v>
+        <v>0.9527515662278577</v>
       </c>
       <c r="K12">
-        <v>0.9713348963602568</v>
+        <v>0.9713348963602574</v>
       </c>
       <c r="L12">
-        <v>0.9472625630077337</v>
+        <v>0.9472625630077345</v>
       </c>
       <c r="M12">
         <v>0.9479434906784714</v>
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9199121416027665</v>
+        <v>0.9199121416027664</v>
       </c>
       <c r="D13">
-        <v>0.9559432315442905</v>
+        <v>0.9559432315442904</v>
       </c>
       <c r="E13">
-        <v>0.9314594944718394</v>
+        <v>0.9314594944718391</v>
       </c>
       <c r="F13">
         <v>0.9321824143389863</v>
@@ -857,16 +857,16 @@
         <v>1.014263776342622</v>
       </c>
       <c r="J13">
-        <v>0.953433467124953</v>
+        <v>0.9534334671249528</v>
       </c>
       <c r="K13">
-        <v>0.9719190664933764</v>
+        <v>0.9719190664933763</v>
       </c>
       <c r="L13">
-        <v>0.9479802502282564</v>
+        <v>0.947980250228256</v>
       </c>
       <c r="M13">
-        <v>0.9486865322930016</v>
+        <v>0.9486865322930015</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9226160259969078</v>
+        <v>0.9226160259969112</v>
       </c>
       <c r="D14">
-        <v>0.958036590254038</v>
+        <v>0.9580365902540409</v>
       </c>
       <c r="E14">
-        <v>0.9340055833734808</v>
+        <v>0.9340055833734843</v>
       </c>
       <c r="F14">
-        <v>0.9348126718855616</v>
+        <v>0.9348126718855644</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015318905511738</v>
+        <v>1.015318905511739</v>
       </c>
       <c r="J14">
-        <v>0.9556451650222372</v>
+        <v>0.9556451650222404</v>
       </c>
       <c r="K14">
-        <v>0.9738138486486947</v>
+        <v>0.9738138486486975</v>
       </c>
       <c r="L14">
-        <v>0.9503082334768511</v>
+        <v>0.9503082334768546</v>
       </c>
       <c r="M14">
-        <v>0.9510970918602265</v>
+        <v>0.9510970918602293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,7 +915,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9242615072578265</v>
+        <v>0.9242615072578262</v>
       </c>
       <c r="D15">
         <v>0.9593110316589415</v>
@@ -924,25 +924,25 @@
         <v>0.9355554381839074</v>
       </c>
       <c r="F15">
-        <v>0.9364139733402502</v>
+        <v>0.9364139733402506</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01596068899385</v>
+        <v>1.015960688993851</v>
       </c>
       <c r="J15">
-        <v>0.9569910131594334</v>
+        <v>0.9569910131594329</v>
       </c>
       <c r="K15">
-        <v>0.9749668965980626</v>
+        <v>0.9749668965980627</v>
       </c>
       <c r="L15">
-        <v>0.9517250060491063</v>
+        <v>0.951725006049106</v>
       </c>
       <c r="M15">
-        <v>0.9525643711288986</v>
+        <v>0.952564371128899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9335473544339361</v>
+        <v>0.9335473544339353</v>
       </c>
       <c r="D16">
-        <v>0.9665099001756672</v>
+        <v>0.9665099001756671</v>
       </c>
       <c r="E16">
-        <v>0.9443072778963457</v>
+        <v>0.9443072778963449</v>
       </c>
       <c r="F16">
-        <v>0.9454594213455821</v>
+        <v>0.945459421345582</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.019577288552372</v>
       </c>
       <c r="J16">
-        <v>0.9645841184722874</v>
+        <v>0.9645841184722869</v>
       </c>
       <c r="K16">
-        <v>0.9814728066477266</v>
+        <v>0.9814728066477263</v>
       </c>
       <c r="L16">
-        <v>0.9597206669831202</v>
+        <v>0.9597206669831194</v>
       </c>
       <c r="M16">
-        <v>0.9608487459167331</v>
+        <v>0.9608487459167329</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9391358137788078</v>
+        <v>0.9391358137788074</v>
       </c>
       <c r="D17">
-        <v>0.9708477585296916</v>
+        <v>0.9708477585296914</v>
       </c>
       <c r="E17">
-        <v>0.9495789127133287</v>
+        <v>0.9495789127133284</v>
       </c>
       <c r="F17">
-        <v>0.950910544651178</v>
+        <v>0.9509105446511777</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.021749135384686</v>
       </c>
       <c r="J17">
-        <v>0.9691520063880478</v>
+        <v>0.9691520063880474</v>
       </c>
       <c r="K17">
-        <v>0.9853869972900294</v>
+        <v>0.9853869972900292</v>
       </c>
       <c r="L17">
-        <v>0.9645327972776268</v>
+        <v>0.9645327972776263</v>
       </c>
       <c r="M17">
-        <v>0.9658377524349286</v>
+        <v>0.9658377524349283</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9423175824451322</v>
+        <v>0.9423175824451311</v>
       </c>
       <c r="D18">
-        <v>0.9733192220682384</v>
+        <v>0.9733192220682378</v>
       </c>
       <c r="E18">
-        <v>0.9525818068031358</v>
+        <v>0.9525818068031349</v>
       </c>
       <c r="F18">
-        <v>0.9540166046323649</v>
+        <v>0.9540166046323638</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022983890289904</v>
       </c>
       <c r="J18">
-        <v>0.9717519744032405</v>
+        <v>0.9717519744032396</v>
       </c>
       <c r="K18">
-        <v>0.9876149614501786</v>
+        <v>0.9876149614501779</v>
       </c>
       <c r="L18">
-        <v>0.9672725180804992</v>
+        <v>0.9672725180804982</v>
       </c>
       <c r="M18">
-        <v>0.9686792629586467</v>
+        <v>0.9686792629586456</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9433898935919774</v>
+        <v>0.9433898935919783</v>
       </c>
       <c r="D19">
-        <v>0.9741524209465037</v>
+        <v>0.9741524209465046</v>
       </c>
       <c r="E19">
-        <v>0.9535940789601193</v>
+        <v>0.9535940789601197</v>
       </c>
       <c r="F19">
-        <v>0.9550638085395614</v>
+        <v>0.9550638085395621</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023399715129256</v>
       </c>
       <c r="J19">
-        <v>0.9726280757002956</v>
+        <v>0.9726280757002964</v>
       </c>
       <c r="K19">
-        <v>0.9883657173240986</v>
+        <v>0.9883657173240996</v>
       </c>
       <c r="L19">
-        <v>0.9681958349742035</v>
+        <v>0.9681958349742038</v>
       </c>
       <c r="M19">
-        <v>0.9696370659098549</v>
+        <v>0.9696370659098555</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9385444325069608</v>
+        <v>0.9385444325069598</v>
       </c>
       <c r="D20">
-        <v>0.970388534010851</v>
+        <v>0.97038853401085</v>
       </c>
       <c r="E20">
-        <v>0.9490208982404457</v>
+        <v>0.9490208982404449</v>
       </c>
       <c r="F20">
-        <v>0.9503334340428813</v>
+        <v>0.9503334340428805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021519490288509</v>
+        <v>1.021519490288508</v>
       </c>
       <c r="J20">
-        <v>0.9686686996291406</v>
+        <v>0.9686686996291397</v>
       </c>
       <c r="K20">
-        <v>0.9849728467257363</v>
+        <v>0.9849728467257352</v>
       </c>
       <c r="L20">
-        <v>0.9640235715347892</v>
+        <v>0.9640235715347885</v>
       </c>
       <c r="M20">
-        <v>0.9653096952082079</v>
+        <v>0.965309695208207</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9218241177795808</v>
+        <v>0.9218241177795791</v>
       </c>
       <c r="D21">
-        <v>0.9574233845373521</v>
+        <v>0.9574233845373508</v>
       </c>
       <c r="E21">
-        <v>0.9332598047801385</v>
+        <v>0.9332598047801365</v>
       </c>
       <c r="F21">
-        <v>0.9340421948293089</v>
+        <v>0.9340421948293074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015009949540167</v>
+        <v>1.015009949540166</v>
       </c>
       <c r="J21">
-        <v>0.9549974292230432</v>
+        <v>0.9549974292230415</v>
       </c>
       <c r="K21">
-        <v>0.9732589170597582</v>
+        <v>0.9732589170597569</v>
       </c>
       <c r="L21">
-        <v>0.9496264071153784</v>
+        <v>0.9496264071153766</v>
       </c>
       <c r="M21">
-        <v>0.9503910272335196</v>
+        <v>0.950391027233518</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9104363647001767</v>
+        <v>0.9104363647001745</v>
       </c>
       <c r="D22">
-        <v>0.9486154313055206</v>
+        <v>0.9486154313055184</v>
       </c>
       <c r="E22">
-        <v>0.9225432729329175</v>
+        <v>0.9225432729329154</v>
       </c>
       <c r="F22">
-        <v>0.9229747482711622</v>
+        <v>0.9229747482711603</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010561312621837</v>
+        <v>1.010561312621836</v>
       </c>
       <c r="J22">
-        <v>0.9456811878868588</v>
+        <v>0.9456811878868567</v>
       </c>
       <c r="K22">
-        <v>0.9652785034828748</v>
+        <v>0.9652785034828729</v>
       </c>
       <c r="L22">
-        <v>0.9398229071548818</v>
+        <v>0.9398229071548798</v>
       </c>
       <c r="M22">
-        <v>0.9402437971722679</v>
+        <v>0.9402437971722661</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,19 +1216,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9165661854722578</v>
+        <v>0.9165661854722569</v>
       </c>
       <c r="D23">
-        <v>0.9533542276368572</v>
+        <v>0.9533542276368565</v>
       </c>
       <c r="E23">
-        <v>0.928309948706779</v>
+        <v>0.9283099487067783</v>
       </c>
       <c r="F23">
-        <v>0.9289293388684468</v>
+        <v>0.9289293388684463</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.012957218174248</v>
       </c>
       <c r="J23">
-        <v>0.9506963054396033</v>
+        <v>0.9506963054396025</v>
       </c>
       <c r="K23">
-        <v>0.9695742607035693</v>
+        <v>0.9695742607035686</v>
       </c>
       <c r="L23">
-        <v>0.9450996272833991</v>
+        <v>0.9450996272833985</v>
       </c>
       <c r="M23">
-        <v>0.9457044326474578</v>
+        <v>0.9457044326474571</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9388118912056964</v>
+        <v>0.9388118912056956</v>
       </c>
       <c r="D24">
-        <v>0.9705962180449815</v>
+        <v>0.9705962180449808</v>
       </c>
       <c r="E24">
-        <v>0.9492732617590497</v>
+        <v>0.9492732617590485</v>
       </c>
       <c r="F24">
-        <v>0.950594430962762</v>
+        <v>0.9505944309627611</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021623355385099</v>
+        <v>1.021623355385098</v>
       </c>
       <c r="J24">
-        <v>0.9688872827743719</v>
+        <v>0.968887282774371</v>
       </c>
       <c r="K24">
-        <v>0.9851601526792702</v>
+        <v>0.9851601526792695</v>
       </c>
       <c r="L24">
-        <v>0.9642538746625033</v>
+        <v>0.9642538746625022</v>
       </c>
       <c r="M24">
-        <v>0.965548511700856</v>
+        <v>0.9655485117008551</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9616077164282646</v>
+        <v>0.9616077164282658</v>
       </c>
       <c r="D25">
-        <v>0.9883274057852742</v>
+        <v>0.9883274057852752</v>
       </c>
       <c r="E25">
-        <v>0.9708104719983204</v>
+        <v>0.9708104719983219</v>
       </c>
       <c r="F25">
-        <v>0.9728869487219528</v>
+        <v>0.9728869487219538</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030437012853678</v>
       </c>
       <c r="J25">
-        <v>0.9875000043237626</v>
+        <v>0.9875000043237636</v>
       </c>
       <c r="K25">
-        <v>1.001109667303108</v>
+        <v>1.001109667303109</v>
       </c>
       <c r="L25">
-        <v>0.9838794747964722</v>
+        <v>0.9838794747964736</v>
       </c>
       <c r="M25">
-        <v>0.9859212660412539</v>
+        <v>0.985921266041255</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9779753637425068</v>
+        <v>0.9780602666723242</v>
       </c>
       <c r="D2">
-        <v>1.001090167085913</v>
+        <v>1.001158514625754</v>
       </c>
       <c r="E2">
-        <v>0.9863077696515077</v>
+        <v>0.9863920356504302</v>
       </c>
       <c r="F2">
-        <v>0.9889528836059875</v>
+        <v>0.989024381363004</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036705686841733</v>
+        <v>1.036742303921791</v>
       </c>
       <c r="J2">
-        <v>1.000835393778654</v>
+        <v>1.00091759662065</v>
       </c>
       <c r="K2">
-        <v>1.012534335015012</v>
+        <v>1.012601733061346</v>
       </c>
       <c r="L2">
-        <v>0.997961213371342</v>
+        <v>0.9980442638894467</v>
       </c>
       <c r="M2">
-        <v>1.000568298406453</v>
+        <v>1.000638771811629</v>
+      </c>
+      <c r="N2">
+        <v>0.9953850228213997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9890236345127196</v>
+        <v>0.9890909521217444</v>
       </c>
       <c r="D3">
-        <v>1.009716745497126</v>
+        <v>1.009771033740857</v>
       </c>
       <c r="E3">
-        <v>0.9967839866908301</v>
+        <v>0.9968508971825298</v>
       </c>
       <c r="F3">
-        <v>0.9998272420026016</v>
+        <v>0.9998838039299932</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040900282727137</v>
+        <v>1.04092939362964</v>
       </c>
       <c r="J3">
-        <v>1.009818065564824</v>
+        <v>1.009883492110535</v>
       </c>
       <c r="K3">
-        <v>1.020226790247935</v>
+        <v>1.020280400474211</v>
       </c>
       <c r="L3">
-        <v>1.007458183069941</v>
+        <v>1.007524230577803</v>
       </c>
       <c r="M3">
-        <v>1.010462333776854</v>
+        <v>1.010518171722407</v>
+      </c>
+      <c r="N3">
+        <v>1.002495203752458</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9958403185684752</v>
+        <v>0.995897285489017</v>
       </c>
       <c r="D4">
-        <v>1.015042931107134</v>
+        <v>1.015088920509428</v>
       </c>
       <c r="E4">
-        <v>1.003253882993341</v>
+        <v>1.003310553895541</v>
       </c>
       <c r="F4">
-        <v>1.006549177956429</v>
+        <v>1.006596978427018</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043470648546556</v>
+        <v>1.043495323694156</v>
       </c>
       <c r="J4">
-        <v>1.015351031285301</v>
+        <v>1.015406524569272</v>
       </c>
       <c r="K4">
-        <v>1.024963129083627</v>
+        <v>1.025008583623873</v>
       </c>
       <c r="L4">
-        <v>1.013313194514929</v>
+        <v>1.01336918698921</v>
       </c>
       <c r="M4">
-        <v>1.016569197616422</v>
+        <v>1.016616430477974</v>
+      </c>
+      <c r="N4">
+        <v>1.006854998097995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9986333471040372</v>
+        <v>0.9986861756986773</v>
       </c>
       <c r="D5">
-        <v>1.017225911752508</v>
+        <v>1.017268578269755</v>
       </c>
       <c r="E5">
-        <v>1.005906178250149</v>
+        <v>1.005958750230331</v>
       </c>
       <c r="F5">
-        <v>1.009306249451193</v>
+        <v>1.009350553327395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044519485314615</v>
+        <v>1.04454238320145</v>
       </c>
       <c r="J5">
-        <v>1.017615778298724</v>
+        <v>1.017667287677066</v>
       </c>
       <c r="K5">
-        <v>1.026901285262275</v>
+        <v>1.026943470522528</v>
       </c>
       <c r="L5">
-        <v>1.015711014613161</v>
+        <v>1.015762977010282</v>
       </c>
       <c r="M5">
-        <v>1.019071822748426</v>
+        <v>1.019115617171705</v>
+      </c>
+      <c r="N5">
+        <v>1.008634795632945</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990982266969717</v>
+        <v>0.9991503721033529</v>
       </c>
       <c r="D6">
-        <v>1.017589286208156</v>
+        <v>1.017631403886389</v>
       </c>
       <c r="E6">
-        <v>1.006347710450158</v>
+        <v>1.006399605472044</v>
       </c>
       <c r="F6">
-        <v>1.00976530891086</v>
+        <v>1.009809035893416</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044693799274985</v>
+        <v>1.044716403544889</v>
       </c>
       <c r="J6">
-        <v>1.017992591894367</v>
+        <v>1.018043442885072</v>
       </c>
       <c r="K6">
-        <v>1.027223727925076</v>
+        <v>1.02726537299158</v>
       </c>
       <c r="L6">
-        <v>1.016110042805986</v>
+        <v>1.016161339333705</v>
       </c>
       <c r="M6">
-        <v>1.019488388967839</v>
+        <v>1.019531615855262</v>
+      </c>
+      <c r="N6">
+        <v>1.008930642744004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958779165013968</v>
+        <v>0.9959348273269475</v>
       </c>
       <c r="D7">
-        <v>1.015072314621648</v>
+        <v>1.015118259001031</v>
       </c>
       <c r="E7">
-        <v>1.003289581224861</v>
+        <v>1.003346196585328</v>
       </c>
       <c r="F7">
-        <v>1.006586280664589</v>
+        <v>1.006634033714447</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043484784618164</v>
+        <v>1.043509435689677</v>
       </c>
       <c r="J7">
-        <v>1.015381527057888</v>
+        <v>1.015436966388009</v>
       </c>
       <c r="K7">
-        <v>1.024989229299829</v>
+        <v>1.025034639557875</v>
       </c>
       <c r="L7">
-        <v>1.013345477200685</v>
+        <v>1.013401415085541</v>
       </c>
       <c r="M7">
-        <v>1.016602884758278</v>
+        <v>1.01665007100423</v>
+      </c>
+      <c r="N7">
+        <v>1.00687898268765</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9817824248911472</v>
+        <v>0.9818611497589966</v>
       </c>
       <c r="D8">
-        <v>1.004061823051262</v>
+        <v>1.004125237009226</v>
       </c>
       <c r="E8">
-        <v>0.9899163123079699</v>
+        <v>0.9899944868616235</v>
       </c>
       <c r="F8">
-        <v>0.9926972371615926</v>
+        <v>0.9927634805640316</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03815479101157</v>
+        <v>1.038188775221495</v>
       </c>
       <c r="J8">
-        <v>1.003932609693341</v>
+        <v>1.004008932787422</v>
       </c>
       <c r="K8">
-        <v>1.015187054040756</v>
+        <v>1.015249617794224</v>
       </c>
       <c r="L8">
-        <v>1.001234628522897</v>
+        <v>1.001311716873484</v>
       </c>
       <c r="M8">
-        <v>1.003977046196553</v>
+        <v>1.004042375649528</v>
+      </c>
+      <c r="N8">
+        <v>0.9978408381869005</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9540276974233993</v>
+        <v>0.9541546905413639</v>
       </c>
       <c r="D9">
-        <v>0.98242522522708</v>
+        <v>0.982527022208136</v>
       </c>
       <c r="E9">
-        <v>0.9636428895645189</v>
+        <v>0.9637684886380635</v>
       </c>
       <c r="F9">
-        <v>0.9654637747947165</v>
+        <v>0.9655712630578298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027515646976255</v>
+        <v>1.027570087483135</v>
       </c>
       <c r="J9">
-        <v>0.9813152564354825</v>
+        <v>0.9814371301704337</v>
       </c>
       <c r="K9">
-        <v>0.9958100253534229</v>
+        <v>0.9959100938207198</v>
       </c>
       <c r="L9">
-        <v>0.9773547284849617</v>
+        <v>0.9774780856574186</v>
       </c>
       <c r="M9">
-        <v>0.9791431855877875</v>
+        <v>0.9792487645543037</v>
+      </c>
+      <c r="N9">
+        <v>0.9798182360738575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9329047647312713</v>
+        <v>0.9330744132038233</v>
       </c>
       <c r="D10">
-        <v>0.966011364669747</v>
+        <v>0.9661467808557189</v>
       </c>
       <c r="E10">
-        <v>0.9437013362296572</v>
+        <v>0.9438685369468841</v>
       </c>
       <c r="F10">
-        <v>0.9448329780395549</v>
+        <v>0.9449772525658541</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01932731826946</v>
+        <v>1.019399635035717</v>
       </c>
       <c r="J10">
-        <v>0.9640587823855118</v>
+        <v>0.9642202238976577</v>
       </c>
       <c r="K10">
-        <v>0.9810226633560303</v>
+        <v>0.9811554037867858</v>
       </c>
       <c r="L10">
-        <v>0.9591673438525156</v>
+        <v>0.959331031025521</v>
       </c>
       <c r="M10">
-        <v>0.9602752375181256</v>
+        <v>0.960416489767241</v>
+      </c>
+      <c r="N10">
+        <v>0.9659511134444161</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.922931310366475</v>
+        <v>0.9231233112439569</v>
       </c>
       <c r="D11">
-        <v>0.9582807518493432</v>
+        <v>0.9584336783696734</v>
       </c>
       <c r="E11">
-        <v>0.9343025216347377</v>
+        <v>0.9344914138303627</v>
       </c>
       <c r="F11">
-        <v>0.93511945438483</v>
+        <v>0.9352831169117062</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015441894845906</v>
+        <v>1.01552351095152</v>
       </c>
       <c r="J11">
-        <v>0.9559030444008336</v>
+        <v>0.9560849891938199</v>
       </c>
       <c r="K11">
-        <v>0.974034782706678</v>
+        <v>0.9741844839193191</v>
       </c>
       <c r="L11">
-        <v>0.9505796931122829</v>
+        <v>0.9507643242636961</v>
       </c>
       <c r="M11">
-        <v>0.9513782139321108</v>
+        <v>0.9515381930082598</v>
+      </c>
+      <c r="N11">
+        <v>0.9593697462317345</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9190785416923498</v>
+        <v>0.9192796128413547</v>
       </c>
       <c r="D12">
-        <v>0.9552980648394517</v>
+        <v>0.9554580766431501</v>
       </c>
       <c r="E12">
-        <v>0.9306747087989393</v>
+        <v>0.9308723827082235</v>
       </c>
       <c r="F12">
-        <v>0.931371771350109</v>
+        <v>0.9315433211907949</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013938353041537</v>
+        <v>1.014023730117016</v>
       </c>
       <c r="J12">
-        <v>0.9527515662278577</v>
+        <v>0.9529417887697325</v>
       </c>
       <c r="K12">
-        <v>0.9713348963602574</v>
+        <v>0.9714914506263154</v>
       </c>
       <c r="L12">
-        <v>0.9472625630077345</v>
+        <v>0.9474556580837501</v>
       </c>
       <c r="M12">
-        <v>0.9479434906784714</v>
+        <v>0.9481110746120878</v>
+      </c>
+      <c r="N12">
+        <v>0.9568225504178968</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9199121416027664</v>
+        <v>0.9201112285872503</v>
       </c>
       <c r="D13">
-        <v>0.9559432315442904</v>
+        <v>0.9561016943860513</v>
       </c>
       <c r="E13">
-        <v>0.9314594944718391</v>
+        <v>0.9316552483249824</v>
       </c>
       <c r="F13">
-        <v>0.9321824143389863</v>
+        <v>0.9323522378428007</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014263776342622</v>
+        <v>1.014348331292743</v>
       </c>
       <c r="J13">
-        <v>0.9534334671249528</v>
+        <v>0.9536218808912281</v>
       </c>
       <c r="K13">
-        <v>0.9719190664933763</v>
+        <v>0.972074123032772</v>
       </c>
       <c r="L13">
-        <v>0.947980250228256</v>
+        <v>0.9481714954530964</v>
       </c>
       <c r="M13">
-        <v>0.9486865322930015</v>
+        <v>0.9488524523560319</v>
+      </c>
+      <c r="N13">
+        <v>0.9573738816075185</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9226160259969112</v>
+        <v>0.9228087596203501</v>
       </c>
       <c r="D14">
-        <v>0.9580365902540409</v>
+        <v>0.9581900895883273</v>
       </c>
       <c r="E14">
-        <v>0.9340055833734843</v>
+        <v>0.9341951854336287</v>
       </c>
       <c r="F14">
-        <v>0.9348126718855644</v>
+        <v>0.9349769711767068</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015318905511739</v>
+        <v>1.015400825713055</v>
       </c>
       <c r="J14">
-        <v>0.9556451650222404</v>
+        <v>0.955827779420509</v>
       </c>
       <c r="K14">
-        <v>0.9738138486486975</v>
+        <v>0.973964104104973</v>
       </c>
       <c r="L14">
-        <v>0.9503082334768546</v>
+        <v>0.9504935491210417</v>
       </c>
       <c r="M14">
-        <v>0.9510970918602293</v>
+        <v>0.9512576851786603</v>
+      </c>
+      <c r="N14">
+        <v>0.959161395657805</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9242615072578262</v>
+        <v>0.9244504349080389</v>
       </c>
       <c r="D15">
-        <v>0.9593110316589415</v>
+        <v>0.9594615549048892</v>
       </c>
       <c r="E15">
-        <v>0.9355554381839074</v>
+        <v>0.935741352290148</v>
       </c>
       <c r="F15">
-        <v>0.9364139733402506</v>
+        <v>0.9365749660069509</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015960688993851</v>
+        <v>1.016041029173681</v>
       </c>
       <c r="J15">
-        <v>0.9569910131594329</v>
+        <v>0.9571701478328656</v>
       </c>
       <c r="K15">
-        <v>0.9749668965980627</v>
+        <v>0.9751142720506346</v>
       </c>
       <c r="L15">
-        <v>0.951725006049106</v>
+        <v>0.9519067649381607</v>
       </c>
       <c r="M15">
-        <v>0.952564371128899</v>
+        <v>0.95272177423029</v>
+      </c>
+      <c r="N15">
+        <v>0.9602485939648226</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9335473544339353</v>
+        <v>0.9337156153341611</v>
       </c>
       <c r="D16">
-        <v>0.9665099001756671</v>
+        <v>0.9666442269989559</v>
       </c>
       <c r="E16">
-        <v>0.9443072778963449</v>
+        <v>0.9444731296653878</v>
       </c>
       <c r="F16">
-        <v>0.945459421345582</v>
+        <v>0.9456024947192077</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019577288552372</v>
+        <v>1.01964902654994</v>
       </c>
       <c r="J16">
-        <v>0.9645841184722869</v>
+        <v>0.9647442821671171</v>
       </c>
       <c r="K16">
-        <v>0.9814728066477263</v>
+        <v>0.9816044907054374</v>
       </c>
       <c r="L16">
-        <v>0.9597206669831194</v>
+        <v>0.9598830498675825</v>
       </c>
       <c r="M16">
-        <v>0.9608487459167329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9609888363640532</v>
+      </c>
+      <c r="N16">
+        <v>0.9663744849912798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9391358137788074</v>
+        <v>0.9392922589519698</v>
       </c>
       <c r="D17">
-        <v>0.9708477585296914</v>
+        <v>0.9709727975487462</v>
       </c>
       <c r="E17">
-        <v>0.9495789127133284</v>
+        <v>0.9497332660135585</v>
       </c>
       <c r="F17">
-        <v>0.9509105446511777</v>
+        <v>0.951043401578327</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021749135384686</v>
+        <v>1.021815937652497</v>
       </c>
       <c r="J17">
-        <v>0.9691520063880474</v>
+        <v>0.9693012642920819</v>
       </c>
       <c r="K17">
-        <v>0.9853869972900292</v>
+        <v>0.9855096688192172</v>
       </c>
       <c r="L17">
-        <v>0.9645327972776263</v>
+        <v>0.9646840533515875</v>
       </c>
       <c r="M17">
-        <v>0.9658377524349283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9659679532101019</v>
+      </c>
+      <c r="N17">
+        <v>0.9700527475278009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9423175824451311</v>
+        <v>0.9424674948142493</v>
       </c>
       <c r="D18">
-        <v>0.9733192220682378</v>
+        <v>0.973439117060837</v>
       </c>
       <c r="E18">
-        <v>0.9525818068031349</v>
+        <v>0.9527297936575615</v>
       </c>
       <c r="F18">
-        <v>0.9540166046323638</v>
+        <v>0.954143822295677</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022983890289904</v>
+        <v>1.023047957946299</v>
       </c>
       <c r="J18">
-        <v>0.9717519744032396</v>
+        <v>0.9718951832795721</v>
       </c>
       <c r="K18">
-        <v>0.9876149614501779</v>
+        <v>0.9877326366714272</v>
       </c>
       <c r="L18">
-        <v>0.9672725180804982</v>
+        <v>0.9674176063900684</v>
       </c>
       <c r="M18">
-        <v>0.9686792629586456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9688039986222651</v>
+      </c>
+      <c r="N18">
+        <v>0.9721438351879703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9433898935919783</v>
+        <v>0.9435376348871708</v>
       </c>
       <c r="D19">
-        <v>0.9741524209465046</v>
+        <v>0.9742706049880304</v>
       </c>
       <c r="E19">
-        <v>0.9535940789601197</v>
+        <v>0.9537399485832257</v>
       </c>
       <c r="F19">
-        <v>0.9550638085395621</v>
+        <v>0.9551891535864371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023399715129256</v>
+        <v>1.023462873067501</v>
       </c>
       <c r="J19">
-        <v>0.9726280757002964</v>
+        <v>0.9727692711725044</v>
       </c>
       <c r="K19">
-        <v>0.9883657173240996</v>
+        <v>0.9884817299561581</v>
       </c>
       <c r="L19">
-        <v>0.9681958349742038</v>
+        <v>0.9683388709799539</v>
       </c>
       <c r="M19">
-        <v>0.9696370659098555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9697599857845813</v>
+      </c>
+      <c r="N19">
+        <v>0.9728480324064884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9385444325069598</v>
+        <v>0.9387021071501671</v>
       </c>
       <c r="D20">
-        <v>0.97038853401085</v>
+        <v>0.9705145404214491</v>
       </c>
       <c r="E20">
-        <v>0.9490208982404449</v>
+        <v>0.9491764489771017</v>
       </c>
       <c r="F20">
-        <v>0.9503334340428805</v>
+        <v>0.9504673530269538</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021519490288508</v>
+        <v>1.021586806751285</v>
       </c>
       <c r="J20">
-        <v>0.9686686996291397</v>
+        <v>0.9688190944030955</v>
       </c>
       <c r="K20">
-        <v>0.9849728467257352</v>
+        <v>0.9850964574831713</v>
       </c>
       <c r="L20">
-        <v>0.9640235715347885</v>
+        <v>0.9641759871043413</v>
       </c>
       <c r="M20">
-        <v>0.965309695208207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9654409247403848</v>
+      </c>
+      <c r="N20">
+        <v>0.9696638306577677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9218241177795791</v>
+        <v>0.9220186992472357</v>
       </c>
       <c r="D21">
-        <v>0.9574233845373508</v>
+        <v>0.9575783280642416</v>
       </c>
       <c r="E21">
-        <v>0.9332598047801365</v>
+        <v>0.9334511966449438</v>
       </c>
       <c r="F21">
-        <v>0.9340421948293074</v>
+        <v>0.9342081002445031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015009949540166</v>
+        <v>1.015092636405052</v>
       </c>
       <c r="J21">
-        <v>0.9549974292230415</v>
+        <v>0.9551817315427895</v>
       </c>
       <c r="K21">
-        <v>0.9732589170597569</v>
+        <v>0.9734105697276201</v>
       </c>
       <c r="L21">
-        <v>0.9496264071153766</v>
+        <v>0.9498134483446978</v>
       </c>
       <c r="M21">
-        <v>0.950391027233518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9505531696470113</v>
+      </c>
+      <c r="N21">
+        <v>0.9586380003529074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9104363647001745</v>
+        <v>0.9106587499248157</v>
       </c>
       <c r="D22">
-        <v>0.9486154313055184</v>
+        <v>0.9487920483152191</v>
       </c>
       <c r="E22">
-        <v>0.9225432729329154</v>
+        <v>0.9227615381907256</v>
       </c>
       <c r="F22">
-        <v>0.9229747482711603</v>
+        <v>0.9231648749251256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010561312621836</v>
+        <v>1.010655500230736</v>
       </c>
       <c r="J22">
-        <v>0.9456811878868567</v>
+        <v>0.9458907711937817</v>
       </c>
       <c r="K22">
-        <v>0.9652785034828729</v>
+        <v>0.965451097986866</v>
       </c>
       <c r="L22">
-        <v>0.9398229071548798</v>
+        <v>0.9400358160779777</v>
       </c>
       <c r="M22">
-        <v>0.9402437971722661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9404292637038372</v>
+      </c>
+      <c r="N22">
+        <v>0.9511004027485465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9165661854722569</v>
+        <v>0.9167733109926911</v>
       </c>
       <c r="D23">
-        <v>0.9533542276368565</v>
+        <v>0.9535189625067592</v>
       </c>
       <c r="E23">
-        <v>0.9283099487067783</v>
+        <v>0.9285134779962243</v>
       </c>
       <c r="F23">
-        <v>0.9289293388684463</v>
+        <v>0.9291061595879589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012957218174248</v>
+        <v>1.01304510177232</v>
       </c>
       <c r="J23">
-        <v>0.9506963054396025</v>
+        <v>0.9508920402893495</v>
       </c>
       <c r="K23">
-        <v>0.9695742607035686</v>
+        <v>0.9697353802337544</v>
       </c>
       <c r="L23">
-        <v>0.9450996272833985</v>
+        <v>0.9452983611868462</v>
       </c>
       <c r="M23">
-        <v>0.9457044326474571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9458770945444062</v>
+      </c>
+      <c r="N23">
+        <v>0.9551602383770375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9388118912056956</v>
+        <v>0.9389690092075105</v>
       </c>
       <c r="D24">
-        <v>0.9705962180449808</v>
+        <v>0.9707217864977954</v>
       </c>
       <c r="E24">
-        <v>0.9492732617590485</v>
+        <v>0.9494282703858404</v>
       </c>
       <c r="F24">
-        <v>0.9505944309627611</v>
+        <v>0.9507278690723616</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021623355385098</v>
+        <v>1.021690439064432</v>
       </c>
       <c r="J24">
-        <v>0.968887282774371</v>
+        <v>0.9690371628921071</v>
       </c>
       <c r="K24">
-        <v>0.9851601526792695</v>
+        <v>0.9852833382438954</v>
       </c>
       <c r="L24">
-        <v>0.9642538746625022</v>
+        <v>0.9644057653212185</v>
       </c>
       <c r="M24">
-        <v>0.9655485117008551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9656792754555019</v>
+      </c>
+      <c r="N24">
+        <v>0.9698397323498165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9616077164282658</v>
+        <v>0.9617207405083511</v>
       </c>
       <c r="D25">
-        <v>0.9883274057852752</v>
+        <v>0.9884181324942078</v>
       </c>
       <c r="E25">
-        <v>0.9708104719983219</v>
+        <v>0.9709223852356793</v>
       </c>
       <c r="F25">
-        <v>0.9728869487219538</v>
+        <v>0.9729824562398856</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030437012853678</v>
+        <v>1.030485559369417</v>
       </c>
       <c r="J25">
-        <v>0.9875000043237636</v>
+        <v>0.9876087845979552</v>
       </c>
       <c r="K25">
-        <v>1.001109667303109</v>
+        <v>1.001198942794143</v>
       </c>
       <c r="L25">
-        <v>0.9838794747964736</v>
+        <v>0.9839895137592725</v>
       </c>
       <c r="M25">
-        <v>0.985921266041255</v>
+        <v>0.986015182788316</v>
+      </c>
+      <c r="N25">
+        <v>0.9847657314987863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9780602666723242</v>
+        <v>1.00311809906165</v>
       </c>
       <c r="D2">
-        <v>1.001158514625754</v>
+        <v>1.020897345154532</v>
       </c>
       <c r="E2">
-        <v>0.9863920356504302</v>
+        <v>1.018288790629666</v>
       </c>
       <c r="F2">
-        <v>0.989024381363004</v>
+        <v>1.02014822519415</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036742303921791</v>
+        <v>1.047122073293783</v>
       </c>
       <c r="J2">
-        <v>1.00091759662065</v>
+        <v>1.025205946622673</v>
       </c>
       <c r="K2">
-        <v>1.012601733061346</v>
+        <v>1.032073025671286</v>
       </c>
       <c r="L2">
-        <v>0.9980442638894467</v>
+        <v>1.029499080417247</v>
       </c>
       <c r="M2">
-        <v>1.000638771811629</v>
+        <v>1.031333822007672</v>
       </c>
       <c r="N2">
-        <v>0.9953850228213997</v>
+        <v>1.026661856659643</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9890909521217444</v>
+        <v>1.015076954585474</v>
       </c>
       <c r="D3">
-        <v>1.009771033740857</v>
+        <v>1.030203310848702</v>
       </c>
       <c r="E3">
-        <v>0.9968508971825298</v>
+        <v>1.030115156021557</v>
       </c>
       <c r="F3">
-        <v>0.9998838039299932</v>
+        <v>1.032663586653422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04092939362964</v>
+        <v>1.051354721887839</v>
       </c>
       <c r="J3">
-        <v>1.009883492110535</v>
+        <v>1.035164877807571</v>
       </c>
       <c r="K3">
-        <v>1.020280400474211</v>
+        <v>1.040463786722717</v>
       </c>
       <c r="L3">
-        <v>1.007524230577803</v>
+        <v>1.040376679442058</v>
       </c>
       <c r="M3">
-        <v>1.010518171722407</v>
+        <v>1.042894916355286</v>
       </c>
       <c r="N3">
-        <v>1.002495203752458</v>
+        <v>1.036634930669129</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.995897285489017</v>
+        <v>1.022443915564438</v>
       </c>
       <c r="D4">
-        <v>1.015088920509428</v>
+        <v>1.035938775682267</v>
       </c>
       <c r="E4">
-        <v>1.003310553895541</v>
+        <v>1.037407087495033</v>
       </c>
       <c r="F4">
-        <v>1.006596978427018</v>
+        <v>1.040383543979803</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043495323694156</v>
+        <v>1.053943163581474</v>
       </c>
       <c r="J4">
-        <v>1.015406524569272</v>
+        <v>1.041290421080638</v>
       </c>
       <c r="K4">
-        <v>1.025008583623873</v>
+        <v>1.045621969285573</v>
       </c>
       <c r="L4">
-        <v>1.01336918698921</v>
+        <v>1.047074068598971</v>
       </c>
       <c r="M4">
-        <v>1.016616430477974</v>
+        <v>1.050017832696079</v>
       </c>
       <c r="N4">
-        <v>1.006854998097995</v>
+        <v>1.042769172916253</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9986861756986773</v>
+        <v>1.025460165207404</v>
       </c>
       <c r="D5">
-        <v>1.017268578269755</v>
+        <v>1.038287468941057</v>
       </c>
       <c r="E5">
-        <v>1.005958750230331</v>
+        <v>1.040394102069286</v>
       </c>
       <c r="F5">
-        <v>1.009350553327395</v>
+        <v>1.043546691856603</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04454238320145</v>
+        <v>1.054998298412117</v>
       </c>
       <c r="J5">
-        <v>1.017667287677066</v>
+        <v>1.043796072409178</v>
       </c>
       <c r="K5">
-        <v>1.026943470522528</v>
+        <v>1.04773117442219</v>
       </c>
       <c r="L5">
-        <v>1.015762977010282</v>
+        <v>1.049815267593696</v>
       </c>
       <c r="M5">
-        <v>1.019115617171705</v>
+        <v>1.052934334210228</v>
       </c>
       <c r="N5">
-        <v>1.008634795632945</v>
+        <v>1.045278382557083</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991503721033529</v>
+        <v>1.025962079496032</v>
       </c>
       <c r="D6">
-        <v>1.017631403886389</v>
+        <v>1.038678318336145</v>
       </c>
       <c r="E6">
-        <v>1.006399605472044</v>
+        <v>1.04089123633568</v>
       </c>
       <c r="F6">
-        <v>1.009809035893416</v>
+        <v>1.04407318822219</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044716403544889</v>
+        <v>1.055173600191321</v>
       </c>
       <c r="J6">
-        <v>1.018043442885072</v>
+        <v>1.044212882702278</v>
       </c>
       <c r="K6">
-        <v>1.02726537299158</v>
+        <v>1.048081990636164</v>
       </c>
       <c r="L6">
-        <v>1.016161339333705</v>
+        <v>1.050271357148889</v>
       </c>
       <c r="M6">
-        <v>1.019531615855262</v>
+        <v>1.053419658371725</v>
       </c>
       <c r="N6">
-        <v>1.008930642744004</v>
+        <v>1.045695784768607</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9959348273269475</v>
+        <v>1.022484526655396</v>
       </c>
       <c r="D7">
-        <v>1.015118259001031</v>
+        <v>1.035970397324374</v>
       </c>
       <c r="E7">
-        <v>1.003346196585328</v>
+        <v>1.037447299184586</v>
       </c>
       <c r="F7">
-        <v>1.006634033714447</v>
+        <v>1.040426123589963</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043509435689677</v>
+        <v>1.053957388612778</v>
       </c>
       <c r="J7">
-        <v>1.015436966388009</v>
+        <v>1.041324166745289</v>
       </c>
       <c r="K7">
-        <v>1.025034639557875</v>
+        <v>1.045650378746968</v>
       </c>
       <c r="L7">
-        <v>1.013401415085541</v>
+        <v>1.04711098007592</v>
       </c>
       <c r="M7">
-        <v>1.01665007100423</v>
+        <v>1.050057100170219</v>
       </c>
       <c r="N7">
-        <v>1.00687898268765</v>
+        <v>1.042802966503619</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9818611497589966</v>
+        <v>1.007241763243936</v>
       </c>
       <c r="D8">
-        <v>1.004125237009226</v>
+        <v>1.024105492580957</v>
       </c>
       <c r="E8">
-        <v>0.9899944868616235</v>
+        <v>1.022365296246461</v>
       </c>
       <c r="F8">
-        <v>0.9927634805640316</v>
+        <v>1.024461562017248</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038188775221495</v>
+        <v>1.0485855742589</v>
       </c>
       <c r="J8">
-        <v>1.004008932787422</v>
+        <v>1.028641962758225</v>
       </c>
       <c r="K8">
-        <v>1.015249617794224</v>
+        <v>1.034968546959323</v>
       </c>
       <c r="L8">
-        <v>1.001311716873484</v>
+        <v>1.033250603389529</v>
       </c>
       <c r="M8">
-        <v>1.004042375649528</v>
+        <v>1.035320074796171</v>
       </c>
       <c r="N8">
-        <v>0.9978408381869005</v>
+        <v>1.030102752332224</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9541546905413639</v>
+        <v>0.9770962224493053</v>
       </c>
       <c r="D9">
-        <v>0.982527022208136</v>
+        <v>1.000677402520803</v>
       </c>
       <c r="E9">
-        <v>0.9637684886380635</v>
+        <v>0.9925992991270481</v>
       </c>
       <c r="F9">
-        <v>0.9655712630578298</v>
+        <v>0.9929789748347218</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027570087483135</v>
+        <v>1.037806142020335</v>
       </c>
       <c r="J9">
-        <v>0.9814371301704337</v>
+        <v>1.00348453009335</v>
       </c>
       <c r="K9">
-        <v>0.9959100938207198</v>
+        <v>1.013759498894106</v>
       </c>
       <c r="L9">
-        <v>0.9774780856574186</v>
+        <v>1.005813599680437</v>
       </c>
       <c r="M9">
-        <v>0.9792487645543037</v>
+        <v>1.006186999719707</v>
       </c>
       <c r="N9">
-        <v>0.9798182360738575</v>
+        <v>1.004909593227367</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9330744132038233</v>
+        <v>0.9539908690758404</v>
       </c>
       <c r="D10">
-        <v>0.9661467808557189</v>
+        <v>0.9827713989648932</v>
       </c>
       <c r="E10">
-        <v>0.9438685369468841</v>
+        <v>0.9698382401434748</v>
       </c>
       <c r="F10">
-        <v>0.9449772525658541</v>
+        <v>0.9689193209841621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019399635035717</v>
+        <v>1.029445154194057</v>
       </c>
       <c r="J10">
-        <v>0.9642202238976577</v>
+        <v>0.9841568113019101</v>
       </c>
       <c r="K10">
-        <v>0.9811554037867858</v>
+        <v>0.9974588480614033</v>
       </c>
       <c r="L10">
-        <v>0.959331031025521</v>
+        <v>0.9847742993240703</v>
       </c>
       <c r="M10">
-        <v>0.960416489767241</v>
+        <v>0.983873375706794</v>
       </c>
       <c r="N10">
-        <v>0.9659511134444161</v>
+        <v>0.9855544268583228</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9231233112439569</v>
+        <v>0.9430159946652595</v>
       </c>
       <c r="D11">
-        <v>0.9584336783696734</v>
+        <v>0.9742859555661618</v>
       </c>
       <c r="E11">
-        <v>0.9344914138303627</v>
+        <v>0.9590429115895673</v>
       </c>
       <c r="F11">
-        <v>0.9352831169117062</v>
+        <v>0.9575102698885221</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01552351095152</v>
+        <v>1.025452954386667</v>
       </c>
       <c r="J11">
-        <v>0.9560849891938199</v>
+        <v>0.97496776101959</v>
       </c>
       <c r="K11">
-        <v>0.9741844839193191</v>
+        <v>0.9897096583210314</v>
       </c>
       <c r="L11">
-        <v>0.9507643242636961</v>
+        <v>0.9747808815724078</v>
       </c>
       <c r="M11">
-        <v>0.9515381930082598</v>
+        <v>0.9732805713946264</v>
       </c>
       <c r="N11">
-        <v>0.9593697462317345</v>
+        <v>0.9763523270706033</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9192796128413547</v>
+        <v>0.938763010120223</v>
       </c>
       <c r="D12">
-        <v>0.9554580766431501</v>
+        <v>0.9710015171244618</v>
       </c>
       <c r="E12">
-        <v>0.9308723827082235</v>
+        <v>0.9548622791778155</v>
       </c>
       <c r="F12">
-        <v>0.9315433211907949</v>
+        <v>0.9530921538620238</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014023730117016</v>
+        <v>1.023903100990038</v>
       </c>
       <c r="J12">
-        <v>0.9529417887697325</v>
+        <v>0.9714058197463634</v>
       </c>
       <c r="K12">
-        <v>0.9714914506263154</v>
+        <v>0.9867061991782149</v>
       </c>
       <c r="L12">
-        <v>0.9474556580837501</v>
+        <v>0.9709085349602334</v>
       </c>
       <c r="M12">
-        <v>0.9481110746120878</v>
+        <v>0.9691768078740483</v>
       </c>
       <c r="N12">
-        <v>0.9568225504178968</v>
+        <v>0.972785327432208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9201112285872503</v>
+        <v>0.939683876904763</v>
       </c>
       <c r="D13">
-        <v>0.9561016943860513</v>
+        <v>0.971712482753487</v>
       </c>
       <c r="E13">
-        <v>0.9316552483249824</v>
+        <v>0.9557673483857223</v>
       </c>
       <c r="F13">
-        <v>0.9323522378428007</v>
+        <v>0.9540486303916466</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014348331292743</v>
+        <v>1.024238798530168</v>
       </c>
       <c r="J13">
-        <v>0.9536218808912281</v>
+        <v>0.972177099595624</v>
       </c>
       <c r="K13">
-        <v>0.972074123032772</v>
+        <v>0.987356528505159</v>
       </c>
       <c r="L13">
-        <v>0.9481714954530964</v>
+        <v>0.9717469658568216</v>
       </c>
       <c r="M13">
-        <v>0.9488524523560319</v>
+        <v>0.970065307814014</v>
       </c>
       <c r="N13">
-        <v>0.9573738816075185</v>
+        <v>0.9735577025873218</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9228087596203501</v>
+        <v>0.9426682541461334</v>
       </c>
       <c r="D14">
-        <v>0.9581900895883273</v>
+        <v>0.974017324077218</v>
       </c>
       <c r="E14">
-        <v>0.9341951854336287</v>
+        <v>0.9587010285985363</v>
       </c>
       <c r="F14">
-        <v>0.9349769711767068</v>
+        <v>0.9571489631752061</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015400825713055</v>
+        <v>1.025326286388571</v>
       </c>
       <c r="J14">
-        <v>0.955827779420509</v>
+        <v>0.9746765410633376</v>
       </c>
       <c r="K14">
-        <v>0.973964104104973</v>
+        <v>0.9894640904959199</v>
       </c>
       <c r="L14">
-        <v>0.9504935491210417</v>
+        <v>0.9744642554224149</v>
       </c>
       <c r="M14">
-        <v>0.9512576851786603</v>
+        <v>0.9729450066733953</v>
       </c>
       <c r="N14">
-        <v>0.959161395657805</v>
+        <v>0.9760606935486091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9244504349080389</v>
+        <v>0.9444825621305535</v>
       </c>
       <c r="D15">
-        <v>0.9594615549048892</v>
+        <v>0.9754190473812495</v>
       </c>
       <c r="E15">
-        <v>0.935741352290148</v>
+        <v>0.9604848894593012</v>
       </c>
       <c r="F15">
-        <v>0.9365749660069509</v>
+        <v>0.9590341788575224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016041029173681</v>
+        <v>1.025987056094561</v>
       </c>
       <c r="J15">
-        <v>0.9571701478328656</v>
+        <v>0.9761959192593828</v>
       </c>
       <c r="K15">
-        <v>0.9751142720506346</v>
+        <v>0.9907453041245292</v>
       </c>
       <c r="L15">
-        <v>0.9519067649381607</v>
+        <v>0.9761162408497314</v>
       </c>
       <c r="M15">
-        <v>0.95272177423029</v>
+        <v>0.9746958368480798</v>
       </c>
       <c r="N15">
-        <v>0.9602485939648226</v>
+        <v>0.9775822294359681</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9337156153341611</v>
+        <v>0.9546963914872814</v>
       </c>
       <c r="D16">
-        <v>0.9666442269989559</v>
+        <v>0.9833173549205422</v>
       </c>
       <c r="E16">
-        <v>0.9444731296653878</v>
+        <v>0.9705325729142907</v>
       </c>
       <c r="F16">
-        <v>0.9456024947192077</v>
+        <v>0.9696531608316811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01964902654994</v>
+        <v>1.029701397678728</v>
       </c>
       <c r="J16">
-        <v>0.9647442821671171</v>
+        <v>0.9847473802282377</v>
       </c>
       <c r="K16">
-        <v>0.9816044907054374</v>
+        <v>0.9979569118758008</v>
       </c>
       <c r="L16">
-        <v>0.9598830498675825</v>
+        <v>0.9854167525057247</v>
       </c>
       <c r="M16">
-        <v>0.9609888363640532</v>
+        <v>0.9845544780333861</v>
       </c>
       <c r="N16">
-        <v>0.9663744849912798</v>
+        <v>0.9861458344602653</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9392922589519698</v>
+        <v>0.9608246962959709</v>
       </c>
       <c r="D17">
-        <v>0.9709727975487462</v>
+        <v>0.9880618838336895</v>
       </c>
       <c r="E17">
-        <v>0.9497332660135585</v>
+        <v>0.9765654729064461</v>
       </c>
       <c r="F17">
-        <v>0.951043401578327</v>
+        <v>0.9760295573767236</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021815937652497</v>
+        <v>1.031924924960387</v>
       </c>
       <c r="J17">
-        <v>0.9693012642920819</v>
+        <v>0.989876264786928</v>
       </c>
       <c r="K17">
-        <v>0.9855096688192172</v>
+        <v>1.00228252015396</v>
       </c>
       <c r="L17">
-        <v>0.9646840533515875</v>
+        <v>0.9909972614165995</v>
       </c>
       <c r="M17">
-        <v>0.9659679532101019</v>
+        <v>0.9904713473070181</v>
       </c>
       <c r="N17">
-        <v>0.9700527475278009</v>
+        <v>0.9912820026233202</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9424674948142493</v>
+        <v>0.9643081171783662</v>
       </c>
       <c r="D18">
-        <v>0.973439117060837</v>
+        <v>0.9907604848472124</v>
       </c>
       <c r="E18">
-        <v>0.9527297936575615</v>
+        <v>0.9799960963627727</v>
       </c>
       <c r="F18">
-        <v>0.954143822295677</v>
+        <v>0.9796557209859286</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023047957946299</v>
+        <v>1.033186892535965</v>
       </c>
       <c r="J18">
-        <v>0.9718951832795721</v>
+        <v>0.9927908022960735</v>
       </c>
       <c r="K18">
-        <v>0.9877326366714272</v>
+        <v>1.004740633319778</v>
       </c>
       <c r="L18">
-        <v>0.9674176063900684</v>
+        <v>0.9941692943178756</v>
       </c>
       <c r="M18">
-        <v>0.9688039986222651</v>
+        <v>0.9938351133081245</v>
       </c>
       <c r="N18">
-        <v>0.9721438351879703</v>
+        <v>0.9942006791100308</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9435376348871708</v>
+        <v>0.9654812027206271</v>
       </c>
       <c r="D19">
-        <v>0.9742706049880304</v>
+        <v>0.9916695460395404</v>
       </c>
       <c r="E19">
-        <v>0.9537399485832257</v>
+        <v>0.9811516355553302</v>
       </c>
       <c r="F19">
-        <v>0.9551891535864371</v>
+        <v>0.9808771630967122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023462873067501</v>
+        <v>1.033611542260705</v>
       </c>
       <c r="J19">
-        <v>0.9727692711725044</v>
+        <v>0.9937721670914843</v>
       </c>
       <c r="K19">
-        <v>0.9884817299561581</v>
+        <v>1.005568315265481</v>
       </c>
       <c r="L19">
-        <v>0.9683388709799539</v>
+        <v>0.9952375068909945</v>
       </c>
       <c r="M19">
-        <v>0.9697599857845813</v>
+        <v>0.9949679868371244</v>
       </c>
       <c r="N19">
-        <v>0.9728480324064884</v>
+        <v>0.9951834375560149</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9387021071501671</v>
+        <v>0.9601768033886825</v>
       </c>
       <c r="D20">
-        <v>0.9705145404214491</v>
+        <v>0.9875600986704076</v>
       </c>
       <c r="E20">
-        <v>0.9491764489771017</v>
+        <v>0.9759275144922607</v>
       </c>
       <c r="F20">
-        <v>0.9504673530269538</v>
+        <v>0.9753552542875417</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021586806751285</v>
+        <v>1.031690049002151</v>
       </c>
       <c r="J20">
-        <v>0.9688190944030955</v>
+        <v>0.9893341136329596</v>
       </c>
       <c r="K20">
-        <v>0.9850964574831713</v>
+        <v>1.001825273476681</v>
       </c>
       <c r="L20">
-        <v>0.9641759871043413</v>
+        <v>0.9904072818221437</v>
       </c>
       <c r="M20">
-        <v>0.9654409247403848</v>
+        <v>0.9898457509108297</v>
       </c>
       <c r="N20">
-        <v>0.9696638306577677</v>
+        <v>0.9907390815525273</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9220186992472357</v>
+        <v>0.9417945964935346</v>
       </c>
       <c r="D21">
-        <v>0.9575783280642416</v>
+        <v>0.9733424834132371</v>
       </c>
       <c r="E21">
-        <v>0.9334511966449438</v>
+        <v>0.9578421330631743</v>
       </c>
       <c r="F21">
-        <v>0.9342081002445031</v>
+        <v>0.9562412728508146</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015092636405052</v>
+        <v>1.025008004365147</v>
       </c>
       <c r="J21">
-        <v>0.9551817315427895</v>
+        <v>0.9739448698979619</v>
       </c>
       <c r="K21">
-        <v>0.9734105697276201</v>
+        <v>0.9888471238852601</v>
       </c>
       <c r="L21">
-        <v>0.9498134483446978</v>
+        <v>0.9736687749929961</v>
       </c>
       <c r="M21">
-        <v>0.9505531696470113</v>
+        <v>0.9721019588588656</v>
       </c>
       <c r="N21">
-        <v>0.9586380003529074</v>
+        <v>0.975327983326255</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9106587499248157</v>
+        <v>0.9291926644391605</v>
       </c>
       <c r="D22">
-        <v>0.9487920483152191</v>
+        <v>0.9636190344920975</v>
       </c>
       <c r="E22">
-        <v>0.9227615381907256</v>
+        <v>0.9454604361631748</v>
       </c>
       <c r="F22">
-        <v>0.9231648749251256</v>
+        <v>0.9431563822107213</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010655500230736</v>
+        <v>1.020410759933083</v>
       </c>
       <c r="J22">
-        <v>0.9458907711937817</v>
+        <v>0.9633890430203214</v>
       </c>
       <c r="K22">
-        <v>0.965451097986866</v>
+        <v>0.979947378596273</v>
       </c>
       <c r="L22">
-        <v>0.9400358160779777</v>
+        <v>0.9621957026792316</v>
       </c>
       <c r="M22">
-        <v>0.9404292637038372</v>
+        <v>0.9599447794696093</v>
       </c>
       <c r="N22">
-        <v>0.9511004027485465</v>
+        <v>0.9647571659636783</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9167733109926911</v>
+        <v>0.9359853141794906</v>
       </c>
       <c r="D23">
-        <v>0.9535189625067592</v>
+        <v>0.9688576103994226</v>
       </c>
       <c r="E23">
-        <v>0.9285134779962243</v>
+        <v>0.9521326765109207</v>
       </c>
       <c r="F23">
-        <v>0.9291061595879589</v>
+        <v>0.9502075256740903</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01304510177232</v>
+        <v>1.022890126078197</v>
       </c>
       <c r="J23">
-        <v>0.9508920402893495</v>
+        <v>0.969079217206859</v>
       </c>
       <c r="K23">
-        <v>0.9697353802337544</v>
+        <v>0.9847445239762534</v>
       </c>
       <c r="L23">
-        <v>0.9452983611868462</v>
+        <v>0.9683795701542005</v>
       </c>
       <c r="M23">
-        <v>0.9458770945444062</v>
+        <v>0.9664969378343845</v>
       </c>
       <c r="N23">
-        <v>0.9551602383770375</v>
+        <v>0.9704554208502326</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9389690092075105</v>
+        <v>0.9604698376758697</v>
       </c>
       <c r="D24">
-        <v>0.9707217864977954</v>
+        <v>0.9877870447831251</v>
       </c>
       <c r="E24">
-        <v>0.9494282703858404</v>
+        <v>0.9762160510780066</v>
       </c>
       <c r="F24">
-        <v>0.9507278690723616</v>
+        <v>0.975660228220476</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021690439064432</v>
+        <v>1.031796286632215</v>
       </c>
       <c r="J24">
-        <v>0.9690371628921071</v>
+        <v>0.9895793246890618</v>
       </c>
       <c r="K24">
-        <v>0.9852833382438954</v>
+        <v>1.002032082726777</v>
       </c>
       <c r="L24">
-        <v>0.9644057653212185</v>
+        <v>0.9906741226629443</v>
       </c>
       <c r="M24">
-        <v>0.9656792754555019</v>
+        <v>0.990128699117888</v>
       </c>
       <c r="N24">
-        <v>0.9698397323498165</v>
+        <v>0.9909846408364555</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9617207405083511</v>
+        <v>0.9853498909678604</v>
       </c>
       <c r="D25">
-        <v>0.9884181324942078</v>
+        <v>1.007085519284237</v>
       </c>
       <c r="E25">
-        <v>0.9709223852356793</v>
+        <v>1.000741118357132</v>
       </c>
       <c r="F25">
-        <v>0.9729824562398856</v>
+        <v>1.001587734964166</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030485559369417</v>
+        <v>1.040774473483209</v>
       </c>
       <c r="J25">
-        <v>0.9876087845979552</v>
+        <v>1.010380552413175</v>
       </c>
       <c r="K25">
-        <v>1.001198942794143</v>
+        <v>1.019574828517441</v>
       </c>
       <c r="L25">
-        <v>0.9839895137592725</v>
+        <v>1.013327940301705</v>
       </c>
       <c r="M25">
-        <v>0.986015182788316</v>
+        <v>1.014161453292262</v>
       </c>
       <c r="N25">
-        <v>0.9847657314987863</v>
+        <v>1.011815408689871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00311809906165</v>
+        <v>1.028401637114355</v>
       </c>
       <c r="D2">
-        <v>1.020897345154532</v>
+        <v>1.045042934072619</v>
       </c>
       <c r="E2">
-        <v>1.018288790629666</v>
+        <v>1.036397757641425</v>
       </c>
       <c r="F2">
-        <v>1.02014822519415</v>
+        <v>1.050112229252106</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047122073293783</v>
+        <v>1.061927873715641</v>
       </c>
       <c r="J2">
-        <v>1.025205946622673</v>
+        <v>1.049764819639511</v>
       </c>
       <c r="K2">
-        <v>1.032073025671286</v>
+        <v>1.055908486417333</v>
       </c>
       <c r="L2">
-        <v>1.029499080417247</v>
+        <v>1.047372274894782</v>
       </c>
       <c r="M2">
-        <v>1.031333822007672</v>
+        <v>1.060914926221322</v>
       </c>
       <c r="N2">
-        <v>1.026661856659643</v>
+        <v>1.019412390614287</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015076954585474</v>
+        <v>1.033912720151936</v>
       </c>
       <c r="D3">
-        <v>1.030203310848702</v>
+        <v>1.049340858936227</v>
       </c>
       <c r="E3">
-        <v>1.030115156021557</v>
+        <v>1.041429780352331</v>
       </c>
       <c r="F3">
-        <v>1.032663586653422</v>
+        <v>1.054968312502696</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051354721887839</v>
+        <v>1.064194451258883</v>
       </c>
       <c r="J3">
-        <v>1.035164877807571</v>
+        <v>1.053519725183495</v>
       </c>
       <c r="K3">
-        <v>1.040463786722717</v>
+        <v>1.059379062717704</v>
       </c>
       <c r="L3">
-        <v>1.040376679442058</v>
+        <v>1.051558643090561</v>
       </c>
       <c r="M3">
-        <v>1.042894916355286</v>
+        <v>1.064943046268571</v>
       </c>
       <c r="N3">
-        <v>1.036634930669129</v>
+        <v>1.020752650490745</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022443915564438</v>
+        <v>1.037395823779089</v>
       </c>
       <c r="D4">
-        <v>1.035938775682267</v>
+        <v>1.052059958388183</v>
       </c>
       <c r="E4">
-        <v>1.037407087495033</v>
+        <v>1.04461507011622</v>
       </c>
       <c r="F4">
-        <v>1.040383543979803</v>
+        <v>1.05804266531291</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053943163581474</v>
+        <v>1.065616754244403</v>
       </c>
       <c r="J4">
-        <v>1.041290421080638</v>
+        <v>1.05588901216805</v>
       </c>
       <c r="K4">
-        <v>1.045621969285573</v>
+        <v>1.061568184907359</v>
       </c>
       <c r="L4">
-        <v>1.047074068598971</v>
+        <v>1.054203274617502</v>
       </c>
       <c r="M4">
-        <v>1.050017832696079</v>
+        <v>1.067487618862969</v>
       </c>
       <c r="N4">
-        <v>1.042769172916253</v>
+        <v>1.021597213854652</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025460165207404</v>
+        <v>1.038841096763726</v>
       </c>
       <c r="D5">
-        <v>1.038287468941057</v>
+        <v>1.053188813647009</v>
       </c>
       <c r="E5">
-        <v>1.040394102069286</v>
+        <v>1.045937917860474</v>
       </c>
       <c r="F5">
-        <v>1.043546691856603</v>
+        <v>1.059319529312179</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054998298412117</v>
+        <v>1.066204430628322</v>
       </c>
       <c r="J5">
-        <v>1.043796072409178</v>
+        <v>1.056871149253847</v>
       </c>
       <c r="K5">
-        <v>1.04773117442219</v>
+        <v>1.062475446875926</v>
       </c>
       <c r="L5">
-        <v>1.049815267593696</v>
+        <v>1.05530029784177</v>
       </c>
       <c r="M5">
-        <v>1.052934334210228</v>
+        <v>1.068543103931008</v>
       </c>
       <c r="N5">
-        <v>1.045278382557083</v>
+        <v>1.021947026749819</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025962079496032</v>
+        <v>1.039082672137315</v>
       </c>
       <c r="D6">
-        <v>1.038678318336145</v>
+        <v>1.053377533660203</v>
       </c>
       <c r="E6">
-        <v>1.04089123633568</v>
+        <v>1.046159096429198</v>
       </c>
       <c r="F6">
-        <v>1.04407318822219</v>
+        <v>1.059533024199339</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055173600191321</v>
+        <v>1.066302512273189</v>
       </c>
       <c r="J6">
-        <v>1.044212882702278</v>
+        <v>1.057035253907333</v>
       </c>
       <c r="K6">
-        <v>1.048081990636164</v>
+        <v>1.062627029140951</v>
       </c>
       <c r="L6">
-        <v>1.050271357148889</v>
+        <v>1.055483642864639</v>
       </c>
       <c r="M6">
-        <v>1.053419658371725</v>
+        <v>1.068719504471744</v>
       </c>
       <c r="N6">
-        <v>1.045695784768607</v>
+        <v>1.02200545973273</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022484526655396</v>
+        <v>1.037415209274364</v>
       </c>
       <c r="D7">
-        <v>1.035970397324374</v>
+        <v>1.052075097478689</v>
       </c>
       <c r="E7">
-        <v>1.037447299184586</v>
+        <v>1.044632809028258</v>
       </c>
       <c r="F7">
-        <v>1.040426123589963</v>
+        <v>1.058059787270914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053957388612778</v>
+        <v>1.06562464666865</v>
       </c>
       <c r="J7">
-        <v>1.041324166745289</v>
+        <v>1.055902189494132</v>
       </c>
       <c r="K7">
-        <v>1.045650378746968</v>
+        <v>1.06158035840534</v>
       </c>
       <c r="L7">
-        <v>1.04711098007592</v>
+        <v>1.054217990406165</v>
       </c>
       <c r="M7">
-        <v>1.050057100170219</v>
+        <v>1.067501777589737</v>
       </c>
       <c r="N7">
-        <v>1.042802966503619</v>
+        <v>1.021601908428061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007241763243936</v>
+        <v>1.030281822387384</v>
       </c>
       <c r="D8">
-        <v>1.024105492580957</v>
+        <v>1.046508621551763</v>
       </c>
       <c r="E8">
-        <v>1.022365296246461</v>
+        <v>1.038113436309752</v>
       </c>
       <c r="F8">
-        <v>1.024461562017248</v>
+        <v>1.051767820154113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0485855742589</v>
+        <v>1.062703270257964</v>
       </c>
       <c r="J8">
-        <v>1.028641962758225</v>
+        <v>1.051046650387499</v>
       </c>
       <c r="K8">
-        <v>1.034968546959323</v>
+        <v>1.057093407428675</v>
       </c>
       <c r="L8">
-        <v>1.033250603389529</v>
+        <v>1.048800747181317</v>
       </c>
       <c r="M8">
-        <v>1.035320074796171</v>
+        <v>1.062289413008885</v>
       </c>
       <c r="N8">
-        <v>1.030102752332224</v>
+        <v>1.019870148621439</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9770962224493053</v>
+        <v>1.017036595326646</v>
       </c>
       <c r="D9">
-        <v>1.000677402520803</v>
+        <v>1.036197646092739</v>
       </c>
       <c r="E9">
-        <v>0.9925992991270481</v>
+        <v>1.026050103643245</v>
       </c>
       <c r="F9">
-        <v>0.9929789748347218</v>
+        <v>1.040129515019877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037806142020335</v>
+        <v>1.057199015269049</v>
       </c>
       <c r="J9">
-        <v>1.00348453009335</v>
+        <v>1.042001765876218</v>
       </c>
       <c r="K9">
-        <v>1.013759498894106</v>
+        <v>1.048729525025782</v>
       </c>
       <c r="L9">
-        <v>1.005813599680437</v>
+        <v>1.03873421598622</v>
       </c>
       <c r="M9">
-        <v>1.006186999719707</v>
+        <v>1.052603421790004</v>
       </c>
       <c r="N9">
-        <v>1.004909593227367</v>
+        <v>1.016635908024913</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9539908690758404</v>
+        <v>1.007691679436283</v>
       </c>
       <c r="D10">
-        <v>0.9827713989648932</v>
+        <v>1.028944212691928</v>
       </c>
       <c r="E10">
-        <v>0.9698382401434748</v>
+        <v>1.017570580041746</v>
       </c>
       <c r="F10">
-        <v>0.9689193209841621</v>
+        <v>1.031952810009091</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029445154194057</v>
+        <v>1.053264243326979</v>
       </c>
       <c r="J10">
-        <v>0.9841568113019101</v>
+        <v>1.035603414711055</v>
       </c>
       <c r="K10">
-        <v>0.9974588480614033</v>
+        <v>1.042809822345956</v>
       </c>
       <c r="L10">
-        <v>0.9847742993240703</v>
+        <v>1.031629677206513</v>
       </c>
       <c r="M10">
-        <v>0.983873375706794</v>
+        <v>1.045768156376025</v>
       </c>
       <c r="N10">
-        <v>0.9855544268583228</v>
+        <v>1.014343327777605</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9430159946652595</v>
+        <v>1.003508049586752</v>
       </c>
       <c r="D11">
-        <v>0.9742859555661618</v>
+        <v>1.025703047394337</v>
       </c>
       <c r="E11">
-        <v>0.9590429115895673</v>
+        <v>1.013782638038633</v>
       </c>
       <c r="F11">
-        <v>0.9575102698885221</v>
+        <v>1.028301395310323</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025452954386667</v>
+        <v>1.051491173875936</v>
       </c>
       <c r="J11">
-        <v>0.97496776101959</v>
+        <v>1.032735614313733</v>
       </c>
       <c r="K11">
-        <v>0.9897096583210314</v>
+        <v>1.04015599205597</v>
       </c>
       <c r="L11">
-        <v>0.9747808815724078</v>
+        <v>1.028449231985246</v>
       </c>
       <c r="M11">
-        <v>0.9732805713946264</v>
+        <v>1.042708621822268</v>
       </c>
       <c r="N11">
-        <v>0.9763523270706033</v>
+        <v>1.013314886704871</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.938763010120223</v>
+        <v>1.00193202848457</v>
       </c>
       <c r="D12">
-        <v>0.9710015171244618</v>
+        <v>1.02448308298061</v>
       </c>
       <c r="E12">
-        <v>0.9548622791778155</v>
+        <v>1.012356989734405</v>
       </c>
       <c r="F12">
-        <v>0.9530921538620238</v>
+        <v>1.02692734616745</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023903100990038</v>
+        <v>1.050821570924773</v>
       </c>
       <c r="J12">
-        <v>0.9714058197463634</v>
+        <v>1.031654845874002</v>
       </c>
       <c r="K12">
-        <v>0.9867061991782149</v>
+        <v>1.039155791618743</v>
       </c>
       <c r="L12">
-        <v>0.9709085349602334</v>
+        <v>1.027251217661659</v>
       </c>
       <c r="M12">
-        <v>0.9691768078740483</v>
+        <v>1.041556225731876</v>
       </c>
       <c r="N12">
-        <v>0.972785327432208</v>
+        <v>1.012927192031581</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.939683876904763</v>
+        <v>1.002271111659301</v>
       </c>
       <c r="D13">
-        <v>0.971712482753487</v>
+        <v>1.024745512346049</v>
       </c>
       <c r="E13">
-        <v>0.9557673483857223</v>
+        <v>1.012663659494991</v>
       </c>
       <c r="F13">
-        <v>0.9540486303916466</v>
+        <v>1.027222906317921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024238798530168</v>
+        <v>1.050965711225085</v>
       </c>
       <c r="J13">
-        <v>0.972177099595624</v>
+        <v>1.031887393332445</v>
       </c>
       <c r="K13">
-        <v>0.987356528505159</v>
+        <v>1.039371006250905</v>
       </c>
       <c r="L13">
-        <v>0.9717469658568216</v>
+        <v>1.027508966690316</v>
       </c>
       <c r="M13">
-        <v>0.970065307814014</v>
+        <v>1.041804156514977</v>
       </c>
       <c r="N13">
-        <v>0.9735577025873218</v>
+        <v>1.013010616539044</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9426682541461334</v>
+        <v>1.003378233348648</v>
       </c>
       <c r="D14">
-        <v>0.974017324077218</v>
+        <v>1.025602538105361</v>
       </c>
       <c r="E14">
-        <v>0.9587010285985363</v>
+        <v>1.013665180857398</v>
       </c>
       <c r="F14">
-        <v>0.9571489631752061</v>
+        <v>1.028188184781341</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025326286388571</v>
+        <v>1.051436052439924</v>
       </c>
       <c r="J14">
-        <v>0.9746765410633376</v>
+        <v>1.032646600302992</v>
       </c>
       <c r="K14">
-        <v>0.9894640904959199</v>
+        <v>1.040073615087824</v>
       </c>
       <c r="L14">
-        <v>0.9744642554224149</v>
+        <v>1.028350549669435</v>
       </c>
       <c r="M14">
-        <v>0.9729450066733953</v>
+        <v>1.042613695549826</v>
       </c>
       <c r="N14">
-        <v>0.9760606935486091</v>
+        <v>1.013282957660656</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9444825621305535</v>
+        <v>1.004057403154702</v>
       </c>
       <c r="D15">
-        <v>0.9754190473812495</v>
+        <v>1.02612842256619</v>
       </c>
       <c r="E15">
-        <v>0.9604848894593012</v>
+        <v>1.014279744707737</v>
       </c>
       <c r="F15">
-        <v>0.9590341788575224</v>
+        <v>1.028780538065074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025987056094561</v>
+        <v>1.051724368062113</v>
       </c>
       <c r="J15">
-        <v>0.9761959192593828</v>
+        <v>1.033112284554413</v>
       </c>
       <c r="K15">
-        <v>0.9907453041245292</v>
+        <v>1.040504574360936</v>
       </c>
       <c r="L15">
-        <v>0.9761162408497314</v>
+        <v>1.028866837997774</v>
       </c>
       <c r="M15">
-        <v>0.9746958368480798</v>
+        <v>1.043110336030343</v>
       </c>
       <c r="N15">
-        <v>0.9775822294359681</v>
+        <v>1.013449992645911</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9546963914872814</v>
+        <v>1.007966323837878</v>
       </c>
       <c r="D16">
-        <v>0.9833173549205422</v>
+        <v>1.029157122316419</v>
       </c>
       <c r="E16">
-        <v>0.9705325729142907</v>
+        <v>1.017819426200244</v>
       </c>
       <c r="F16">
-        <v>0.9696531608316811</v>
+        <v>1.032192715393724</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029701397678728</v>
+        <v>1.053380406567235</v>
       </c>
       <c r="J16">
-        <v>0.9847473802282377</v>
+        <v>1.03579161457718</v>
       </c>
       <c r="K16">
-        <v>0.9979569118758008</v>
+        <v>1.042983969929994</v>
       </c>
       <c r="L16">
-        <v>0.9854167525057247</v>
+        <v>1.031838474644908</v>
       </c>
       <c r="M16">
-        <v>0.9845544780333861</v>
+        <v>1.045969025123821</v>
       </c>
       <c r="N16">
-        <v>0.9861458344602653</v>
+        <v>1.014410802652852</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9608246962959709</v>
+        <v>1.010380585987589</v>
       </c>
       <c r="D17">
-        <v>0.9880618838336895</v>
+        <v>1.03102941158282</v>
       </c>
       <c r="E17">
-        <v>0.9765654729064461</v>
+        <v>1.020007854496946</v>
       </c>
       <c r="F17">
-        <v>0.9760295573767236</v>
+        <v>1.034302661277376</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031924924960387</v>
+        <v>1.054400240516465</v>
       </c>
       <c r="J17">
-        <v>0.989876264786928</v>
+        <v>1.037445616359562</v>
       </c>
       <c r="K17">
-        <v>1.00228252015396</v>
+        <v>1.044514410413467</v>
       </c>
       <c r="L17">
-        <v>0.9909972614165995</v>
+        <v>1.033673938079376</v>
       </c>
       <c r="M17">
-        <v>0.9904713473070181</v>
+        <v>1.047734833997712</v>
       </c>
       <c r="N17">
-        <v>0.9912820026233202</v>
+        <v>1.015003710114239</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9643081171783662</v>
+        <v>1.011775646839685</v>
       </c>
       <c r="D18">
-        <v>0.9907604848472124</v>
+        <v>1.032111870738964</v>
       </c>
       <c r="E18">
-        <v>0.9799960963627727</v>
+        <v>1.021273195418779</v>
       </c>
       <c r="F18">
-        <v>0.9796557209859286</v>
+        <v>1.035522740794559</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033186892535965</v>
+        <v>1.054988450121221</v>
       </c>
       <c r="J18">
-        <v>0.9927908022960735</v>
+        <v>1.038401048910226</v>
       </c>
       <c r="K18">
-        <v>1.004740633319778</v>
+        <v>1.045398413483867</v>
       </c>
       <c r="L18">
-        <v>0.9941692943178756</v>
+        <v>1.034734558265441</v>
       </c>
       <c r="M18">
-        <v>0.9938351133081245</v>
+        <v>1.048755237804147</v>
       </c>
       <c r="N18">
-        <v>0.9942006791100308</v>
+        <v>1.015346117523062</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9654812027206271</v>
+        <v>1.012249139265796</v>
       </c>
       <c r="D19">
-        <v>0.9916695460395404</v>
+        <v>1.032479358503488</v>
       </c>
       <c r="E19">
-        <v>0.9811516355553302</v>
+        <v>1.021702789709565</v>
       </c>
       <c r="F19">
-        <v>0.9808771630967122</v>
+        <v>1.035936987495301</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033611542260705</v>
+        <v>1.055187905025997</v>
       </c>
       <c r="J19">
-        <v>0.9937721670914843</v>
+        <v>1.038725272915671</v>
       </c>
       <c r="K19">
-        <v>1.005568315265481</v>
+        <v>1.045698388375828</v>
       </c>
       <c r="L19">
-        <v>0.9952375068909945</v>
+        <v>1.035094539749797</v>
       </c>
       <c r="M19">
-        <v>0.9949679868371244</v>
+        <v>1.04910157472828</v>
       </c>
       <c r="N19">
-        <v>0.9951834375560149</v>
+        <v>1.015462297749528</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9601768033886825</v>
+        <v>1.010122927225472</v>
       </c>
       <c r="D20">
-        <v>0.9875600986704076</v>
+        <v>1.030829533986565</v>
       </c>
       <c r="E20">
-        <v>0.9759275144922607</v>
+        <v>1.019774216464866</v>
       </c>
       <c r="F20">
-        <v>0.9753552542875417</v>
+        <v>1.034077389769906</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031690049002151</v>
+        <v>1.05429151317355</v>
       </c>
       <c r="J20">
-        <v>0.9893341136329596</v>
+        <v>1.037269127932346</v>
       </c>
       <c r="K20">
-        <v>1.001825273476681</v>
+        <v>1.044351112001088</v>
       </c>
       <c r="L20">
-        <v>0.9904072818221437</v>
+        <v>1.033478048965094</v>
       </c>
       <c r="M20">
-        <v>0.9898457509108297</v>
+        <v>1.047546375143759</v>
       </c>
       <c r="N20">
-        <v>0.9907390815525273</v>
+        <v>1.014940453268917</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9417945964935346</v>
+        <v>1.003052833906424</v>
       </c>
       <c r="D21">
-        <v>0.9733424834132371</v>
+        <v>1.025350616689011</v>
       </c>
       <c r="E21">
-        <v>0.9578421330631743</v>
+        <v>1.013370782209174</v>
       </c>
       <c r="F21">
-        <v>0.9562412728508146</v>
+        <v>1.027904433643917</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025008004365147</v>
+        <v>1.051297857546655</v>
       </c>
       <c r="J21">
-        <v>0.9739448698979619</v>
+        <v>1.032423469586735</v>
       </c>
       <c r="K21">
-        <v>0.9888471238852601</v>
+        <v>1.03986712032959</v>
       </c>
       <c r="L21">
-        <v>0.9736687749929961</v>
+        <v>1.028103192788469</v>
       </c>
       <c r="M21">
-        <v>0.9721019588588656</v>
+        <v>1.042375754806234</v>
       </c>
       <c r="N21">
-        <v>0.975327983326255</v>
+        <v>1.013202919627209</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9291926644391605</v>
+        <v>0.9984793011281211</v>
       </c>
       <c r="D22">
-        <v>0.9636190344920975</v>
+        <v>1.021812392337069</v>
       </c>
       <c r="E22">
-        <v>0.9454604361631748</v>
+        <v>1.0092361975242</v>
       </c>
       <c r="F22">
-        <v>0.9431563822107213</v>
+        <v>1.02391993340167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020410759933083</v>
+        <v>1.049351615481413</v>
       </c>
       <c r="J22">
-        <v>0.9633890430203214</v>
+        <v>1.029286384482117</v>
       </c>
       <c r="K22">
-        <v>0.979947378596273</v>
+        <v>1.03696378177934</v>
       </c>
       <c r="L22">
-        <v>0.9621957026792316</v>
+        <v>1.024626877508891</v>
       </c>
       <c r="M22">
-        <v>0.9599447794696093</v>
+        <v>1.039031972366775</v>
       </c>
       <c r="N22">
-        <v>0.9647571659636783</v>
+        <v>1.01207738902226</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9359853141794906</v>
+        <v>1.000916485220317</v>
       </c>
       <c r="D23">
-        <v>0.9688576103994226</v>
+        <v>1.023697272835667</v>
       </c>
       <c r="E23">
-        <v>0.9521326765109207</v>
+        <v>1.011438721799746</v>
       </c>
       <c r="F23">
-        <v>0.9502075256740903</v>
+        <v>1.026042377673623</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022890126078197</v>
+        <v>1.050389635935203</v>
       </c>
       <c r="J23">
-        <v>0.969079217206859</v>
+        <v>1.030958314997588</v>
       </c>
       <c r="K23">
-        <v>0.9847445239762534</v>
+        <v>1.038511167432027</v>
       </c>
       <c r="L23">
-        <v>0.9683795701542005</v>
+        <v>1.02647928702642</v>
       </c>
       <c r="M23">
-        <v>0.9664969378343845</v>
+        <v>1.040813711935207</v>
       </c>
       <c r="N23">
-        <v>0.9704554208502326</v>
+        <v>1.01267730225689</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9604698376758697</v>
+        <v>1.010239392623153</v>
       </c>
       <c r="D24">
-        <v>0.9877870447831251</v>
+        <v>1.030919879712139</v>
       </c>
       <c r="E24">
-        <v>0.9762160510780066</v>
+        <v>1.019879821750562</v>
       </c>
       <c r="F24">
-        <v>0.975660228220476</v>
+        <v>1.034179212994061</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031796286632215</v>
+        <v>1.054340662862314</v>
       </c>
       <c r="J24">
-        <v>0.9895793246890618</v>
+        <v>1.037348904185132</v>
       </c>
       <c r="K24">
-        <v>1.002032082726777</v>
+        <v>1.044424926276805</v>
       </c>
       <c r="L24">
-        <v>0.9906741226629443</v>
+        <v>1.033566593573916</v>
       </c>
       <c r="M24">
-        <v>0.990128699117888</v>
+        <v>1.047631561069084</v>
       </c>
       <c r="N24">
-        <v>0.9909846408364555</v>
+        <v>1.014969046876933</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9853498909678604</v>
+        <v>1.020546783844919</v>
       </c>
       <c r="D25">
-        <v>1.007085519284237</v>
+        <v>1.038926894696222</v>
       </c>
       <c r="E25">
-        <v>1.000741118357132</v>
+        <v>1.029241900756882</v>
       </c>
       <c r="F25">
-        <v>1.001587734964166</v>
+        <v>1.043208247069006</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040774473483209</v>
+        <v>1.058666749555336</v>
       </c>
       <c r="J25">
-        <v>1.010380552413175</v>
+        <v>1.044401914809468</v>
       </c>
       <c r="K25">
-        <v>1.019574828517441</v>
+        <v>1.050949546023788</v>
       </c>
       <c r="L25">
-        <v>1.013327940301705</v>
+        <v>1.041402620820867</v>
       </c>
       <c r="M25">
-        <v>1.014161453292262</v>
+        <v>1.055170895092331</v>
       </c>
       <c r="N25">
-        <v>1.011815408689871</v>
+        <v>1.017495018358877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.028401637114355</v>
+        <v>1.054538976934235</v>
       </c>
       <c r="D2">
-        <v>1.045042934072619</v>
+        <v>1.059391456928356</v>
       </c>
       <c r="E2">
-        <v>1.036397757641425</v>
+        <v>1.058222750956105</v>
       </c>
       <c r="F2">
-        <v>1.050112229252106</v>
+        <v>1.068813477642035</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061927873715641</v>
+        <v>1.052610208696019</v>
       </c>
       <c r="J2">
-        <v>1.049764819639511</v>
+        <v>1.059550545316738</v>
       </c>
       <c r="K2">
-        <v>1.055908486417333</v>
+        <v>1.062121088271499</v>
       </c>
       <c r="L2">
-        <v>1.047372274894782</v>
+        <v>1.060955573782085</v>
       </c>
       <c r="M2">
-        <v>1.060914926221322</v>
+        <v>1.071517655283849</v>
       </c>
       <c r="N2">
-        <v>1.019412390614287</v>
+        <v>1.023510039378259</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033912720151936</v>
+        <v>1.055668169955069</v>
       </c>
       <c r="D3">
-        <v>1.049340858936227</v>
+        <v>1.060286546329833</v>
       </c>
       <c r="E3">
-        <v>1.041429780352331</v>
+        <v>1.059302154456931</v>
       </c>
       <c r="F3">
-        <v>1.054968312502696</v>
+        <v>1.069850032242391</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064194451258883</v>
+        <v>1.053000665611775</v>
       </c>
       <c r="J3">
-        <v>1.053519725183495</v>
+        <v>1.060330189471074</v>
       </c>
       <c r="K3">
-        <v>1.059379062717704</v>
+        <v>1.062830193318865</v>
       </c>
       <c r="L3">
-        <v>1.051558643090561</v>
+        <v>1.061848294857886</v>
       </c>
       <c r="M3">
-        <v>1.064943046268571</v>
+        <v>1.072369712587539</v>
       </c>
       <c r="N3">
-        <v>1.020752650490745</v>
+        <v>1.023781149124378</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037395823779089</v>
+        <v>1.056398781197901</v>
       </c>
       <c r="D4">
-        <v>1.052059958388183</v>
+        <v>1.060865660457973</v>
       </c>
       <c r="E4">
-        <v>1.04461507011622</v>
+        <v>1.060000877362404</v>
       </c>
       <c r="F4">
-        <v>1.05804266531291</v>
+        <v>1.070520996930373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065616754244403</v>
+        <v>1.053252026146662</v>
       </c>
       <c r="J4">
-        <v>1.05588901216805</v>
+        <v>1.060834047281768</v>
       </c>
       <c r="K4">
-        <v>1.061568184907359</v>
+        <v>1.063288327191</v>
       </c>
       <c r="L4">
-        <v>1.054203274617502</v>
+        <v>1.06242562404714</v>
       </c>
       <c r="M4">
-        <v>1.067487618862969</v>
+        <v>1.072920685891417</v>
       </c>
       <c r="N4">
-        <v>1.021597213854652</v>
+        <v>1.023956102967869</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038841096763726</v>
+        <v>1.056705918564615</v>
       </c>
       <c r="D5">
-        <v>1.053188813647009</v>
+        <v>1.06110910366836</v>
       </c>
       <c r="E5">
-        <v>1.045937917860474</v>
+        <v>1.060294687079864</v>
       </c>
       <c r="F5">
-        <v>1.059319529312179</v>
+        <v>1.070803129189773</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066204430628322</v>
+        <v>1.053357389172399</v>
       </c>
       <c r="J5">
-        <v>1.056871149253847</v>
+        <v>1.061045720028916</v>
       </c>
       <c r="K5">
-        <v>1.062475446875926</v>
+        <v>1.063480758210507</v>
       </c>
       <c r="L5">
-        <v>1.05530029784177</v>
+        <v>1.062668256731436</v>
       </c>
       <c r="M5">
-        <v>1.068543103931008</v>
+        <v>1.073152227944392</v>
       </c>
       <c r="N5">
-        <v>1.021947026749819</v>
+        <v>1.02402954047706</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039082672137315</v>
+        <v>1.056757487625551</v>
       </c>
       <c r="D6">
-        <v>1.053377533660203</v>
+        <v>1.061149977896052</v>
       </c>
       <c r="E6">
-        <v>1.046159096429198</v>
+        <v>1.060344022941113</v>
       </c>
       <c r="F6">
-        <v>1.059533024199339</v>
+        <v>1.070850503884692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066302512273189</v>
+        <v>1.053375061976519</v>
       </c>
       <c r="J6">
-        <v>1.057035253907333</v>
+        <v>1.061081252082348</v>
       </c>
       <c r="K6">
-        <v>1.062627029140951</v>
+        <v>1.063513058352693</v>
       </c>
       <c r="L6">
-        <v>1.055483642864639</v>
+        <v>1.062708991350619</v>
       </c>
       <c r="M6">
-        <v>1.068719504471744</v>
+        <v>1.073191099770697</v>
       </c>
       <c r="N6">
-        <v>1.02200545973273</v>
+        <v>1.024041864325997</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.037415209274364</v>
+        <v>1.056402885226887</v>
       </c>
       <c r="D7">
-        <v>1.052075097478689</v>
+        <v>1.060868913422325</v>
       </c>
       <c r="E7">
-        <v>1.044632809028258</v>
+        <v>1.06000480300003</v>
       </c>
       <c r="F7">
-        <v>1.058059787270914</v>
+        <v>1.07052476656456</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06562464666865</v>
+        <v>1.053253435226285</v>
       </c>
       <c r="J7">
-        <v>1.055902189494132</v>
+        <v>1.060836876248725</v>
       </c>
       <c r="K7">
-        <v>1.06158035840534</v>
+        <v>1.063290899125382</v>
       </c>
       <c r="L7">
-        <v>1.054217990406165</v>
+        <v>1.062428866417119</v>
       </c>
       <c r="M7">
-        <v>1.067501777589737</v>
+        <v>1.07292378010975</v>
       </c>
       <c r="N7">
-        <v>1.021601908428061</v>
+        <v>1.023957084687835</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.030281822387384</v>
+        <v>1.054920604331892</v>
       </c>
       <c r="D8">
-        <v>1.046508621551763</v>
+        <v>1.059693970807909</v>
       </c>
       <c r="E8">
-        <v>1.038113436309752</v>
+        <v>1.05858748336328</v>
       </c>
       <c r="F8">
-        <v>1.051767820154113</v>
+        <v>1.069163735582717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062703270257964</v>
+        <v>1.052742432893583</v>
       </c>
       <c r="J8">
-        <v>1.051046650387499</v>
+        <v>1.059814159130742</v>
       </c>
       <c r="K8">
-        <v>1.057093407428675</v>
+        <v>1.062360879636596</v>
       </c>
       <c r="L8">
-        <v>1.048800747181317</v>
+        <v>1.06125733973425</v>
       </c>
       <c r="M8">
-        <v>1.062289413008885</v>
+        <v>1.071805687681002</v>
       </c>
       <c r="N8">
-        <v>1.019870148621439</v>
+        <v>1.023601759965686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017036595326646</v>
+        <v>1.052308196757263</v>
       </c>
       <c r="D9">
-        <v>1.036197646092739</v>
+        <v>1.057623044054562</v>
       </c>
       <c r="E9">
-        <v>1.026050103643245</v>
+        <v>1.05609208678919</v>
       </c>
       <c r="F9">
-        <v>1.040129515019877</v>
+        <v>1.066767290414286</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057199015269049</v>
+        <v>1.051832084516206</v>
       </c>
       <c r="J9">
-        <v>1.042001765876218</v>
+        <v>1.058007205893485</v>
       </c>
       <c r="K9">
-        <v>1.048729525025782</v>
+        <v>1.060716661394969</v>
       </c>
       <c r="L9">
-        <v>1.03873421598622</v>
+        <v>1.059190485140425</v>
       </c>
       <c r="M9">
-        <v>1.052603421790004</v>
+        <v>1.069832663169135</v>
       </c>
       <c r="N9">
-        <v>1.016635908024913</v>
+        <v>1.022972015894957</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007691679436283</v>
+        <v>1.050566238105772</v>
       </c>
       <c r="D10">
-        <v>1.028944212691928</v>
+        <v>1.056242064880391</v>
       </c>
       <c r="E10">
-        <v>1.017570580041746</v>
+        <v>1.054429875225399</v>
       </c>
       <c r="F10">
-        <v>1.031952810009091</v>
+        <v>1.065170900730469</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053264243326979</v>
+        <v>1.051218518819687</v>
       </c>
       <c r="J10">
-        <v>1.035603414711055</v>
+        <v>1.056799322892147</v>
       </c>
       <c r="K10">
-        <v>1.042809822345956</v>
+        <v>1.05961686641723</v>
       </c>
       <c r="L10">
-        <v>1.031629677206513</v>
+        <v>1.057810893026301</v>
       </c>
       <c r="M10">
-        <v>1.045768156376025</v>
+        <v>1.068515413453977</v>
       </c>
       <c r="N10">
-        <v>1.014343327777605</v>
+        <v>1.022549754858937</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003508049586752</v>
+        <v>1.049811853130659</v>
       </c>
       <c r="D11">
-        <v>1.025703047394337</v>
+        <v>1.055643997594738</v>
       </c>
       <c r="E11">
-        <v>1.013782638038633</v>
+        <v>1.053710441146936</v>
       </c>
       <c r="F11">
-        <v>1.028301395310323</v>
+        <v>1.064479936585767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051491173875936</v>
+        <v>1.05095125352985</v>
       </c>
       <c r="J11">
-        <v>1.032735614313733</v>
+        <v>1.056275519949623</v>
       </c>
       <c r="K11">
-        <v>1.04015599205597</v>
+        <v>1.059139773274333</v>
       </c>
       <c r="L11">
-        <v>1.028449231985246</v>
+        <v>1.057213107399825</v>
       </c>
       <c r="M11">
-        <v>1.042708621822268</v>
+        <v>1.06794457481453</v>
       </c>
       <c r="N11">
-        <v>1.013314886704871</v>
+        <v>1.022366334047013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00193202848457</v>
+        <v>1.049531623838671</v>
       </c>
       <c r="D12">
-        <v>1.02448308298061</v>
+        <v>1.055421834317477</v>
       </c>
       <c r="E12">
-        <v>1.012356989734405</v>
+        <v>1.053443257847335</v>
       </c>
       <c r="F12">
-        <v>1.02692734616745</v>
+        <v>1.064223323820082</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050821570924773</v>
+        <v>1.050851740470813</v>
       </c>
       <c r="J12">
-        <v>1.031654845874002</v>
+        <v>1.056080838169789</v>
       </c>
       <c r="K12">
-        <v>1.039155791618743</v>
+        <v>1.058962427777214</v>
       </c>
       <c r="L12">
-        <v>1.027251217661659</v>
+        <v>1.056991000481457</v>
       </c>
       <c r="M12">
-        <v>1.041556225731876</v>
+        <v>1.067732470221105</v>
       </c>
       <c r="N12">
-        <v>1.012927192031581</v>
+        <v>1.022298116327154</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002271111659301</v>
+        <v>1.049591734768633</v>
       </c>
       <c r="D13">
-        <v>1.024745512346049</v>
+        <v>1.055469489753824</v>
       </c>
       <c r="E13">
-        <v>1.012663659494991</v>
+        <v>1.05350056747683</v>
       </c>
       <c r="F13">
-        <v>1.027222906317921</v>
+        <v>1.064278366232362</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050965711225085</v>
+        <v>1.050873097173086</v>
       </c>
       <c r="J13">
-        <v>1.031887393332445</v>
+        <v>1.056122603424038</v>
       </c>
       <c r="K13">
-        <v>1.039371006250905</v>
+        <v>1.059000474962641</v>
       </c>
       <c r="L13">
-        <v>1.027508966690316</v>
+        <v>1.057038646018084</v>
       </c>
       <c r="M13">
-        <v>1.041804156514977</v>
+        <v>1.06777797053835</v>
       </c>
       <c r="N13">
-        <v>1.013010616539044</v>
+        <v>1.022312753200658</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003378233348648</v>
+        <v>1.04978868964673</v>
       </c>
       <c r="D14">
-        <v>1.025602538105361</v>
+        <v>1.055625633805664</v>
       </c>
       <c r="E14">
-        <v>1.013665180857398</v>
+        <v>1.053688354746484</v>
       </c>
       <c r="F14">
-        <v>1.028188184781341</v>
+        <v>1.06445872403865</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051436052439924</v>
+        <v>1.050943032623476</v>
       </c>
       <c r="J14">
-        <v>1.032646600302992</v>
+        <v>1.05625942990459</v>
       </c>
       <c r="K14">
-        <v>1.040073615087824</v>
+        <v>1.059125116532769</v>
       </c>
       <c r="L14">
-        <v>1.028350549669435</v>
+        <v>1.057194749255904</v>
       </c>
       <c r="M14">
-        <v>1.042613695549826</v>
+        <v>1.067927043607391</v>
       </c>
       <c r="N14">
-        <v>1.013282957660656</v>
+        <v>1.022360696925515</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004057403154702</v>
+        <v>1.049910037739897</v>
       </c>
       <c r="D15">
-        <v>1.02612842256619</v>
+        <v>1.055721837384318</v>
       </c>
       <c r="E15">
-        <v>1.014279744707737</v>
+        <v>1.053804062828479</v>
       </c>
       <c r="F15">
-        <v>1.028780538065074</v>
+        <v>1.064569853998489</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051724368062113</v>
+        <v>1.050986090504615</v>
       </c>
       <c r="J15">
-        <v>1.033112284554413</v>
+        <v>1.056343717554712</v>
       </c>
       <c r="K15">
-        <v>1.040504574360936</v>
+        <v>1.059201894831363</v>
       </c>
       <c r="L15">
-        <v>1.028866837997774</v>
+        <v>1.057290921282273</v>
       </c>
       <c r="M15">
-        <v>1.043110336030343</v>
+        <v>1.068018883194373</v>
       </c>
       <c r="N15">
-        <v>1.013449992645911</v>
+        <v>1.022390225097724</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007966323837878</v>
+        <v>1.050616301821552</v>
       </c>
       <c r="D16">
-        <v>1.029157122316419</v>
+        <v>1.056281754625757</v>
       </c>
       <c r="E16">
-        <v>1.017819426200244</v>
+        <v>1.054477628262156</v>
       </c>
       <c r="F16">
-        <v>1.032192715393724</v>
+        <v>1.06521676367152</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053380406567235</v>
+        <v>1.051236222863752</v>
       </c>
       <c r="J16">
-        <v>1.03579161457718</v>
+        <v>1.056834069447887</v>
       </c>
       <c r="K16">
-        <v>1.042983969929994</v>
+        <v>1.059648511051058</v>
       </c>
       <c r="L16">
-        <v>1.031838474644908</v>
+        <v>1.057850557329659</v>
       </c>
       <c r="M16">
-        <v>1.045969025123821</v>
+        <v>1.068553288385127</v>
       </c>
       <c r="N16">
-        <v>1.014410802652852</v>
+        <v>1.022561915688873</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010380585987589</v>
+        <v>1.051059293495322</v>
       </c>
       <c r="D17">
-        <v>1.03102941158282</v>
+        <v>1.056632950484666</v>
       </c>
       <c r="E17">
-        <v>1.020007854496946</v>
+        <v>1.054900221769541</v>
       </c>
       <c r="F17">
-        <v>1.034302661277376</v>
+        <v>1.065622628498845</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054400240516465</v>
+        <v>1.051392699067911</v>
       </c>
       <c r="J17">
-        <v>1.037445616359562</v>
+        <v>1.057141444537579</v>
       </c>
       <c r="K17">
-        <v>1.044514410413467</v>
+        <v>1.059928427114923</v>
       </c>
       <c r="L17">
-        <v>1.033673938079376</v>
+        <v>1.058201491168752</v>
       </c>
       <c r="M17">
-        <v>1.047734833997712</v>
+        <v>1.068888382934089</v>
       </c>
       <c r="N17">
-        <v>1.015003710114239</v>
+        <v>1.022669457593338</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011775646839685</v>
+        <v>1.051317672962292</v>
       </c>
       <c r="D18">
-        <v>1.032111870738964</v>
+        <v>1.056837788020125</v>
       </c>
       <c r="E18">
-        <v>1.021273195418779</v>
+        <v>1.055146743804102</v>
       </c>
       <c r="F18">
-        <v>1.035522740794559</v>
+        <v>1.065859389933651</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054988450121221</v>
+        <v>1.051483815863444</v>
       </c>
       <c r="J18">
-        <v>1.038401048910226</v>
+        <v>1.057320655851974</v>
       </c>
       <c r="K18">
-        <v>1.045398413483867</v>
+        <v>1.060091613057584</v>
       </c>
       <c r="L18">
-        <v>1.034734558265441</v>
+        <v>1.058406145121692</v>
       </c>
       <c r="M18">
-        <v>1.048755237804147</v>
+        <v>1.06908379348443</v>
       </c>
       <c r="N18">
-        <v>1.015346117523062</v>
+        <v>1.022732129107034</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012249139265796</v>
+        <v>1.051405772012679</v>
       </c>
       <c r="D19">
-        <v>1.032479358503488</v>
+        <v>1.056907630797601</v>
       </c>
       <c r="E19">
-        <v>1.021702789709565</v>
+        <v>1.055230806623377</v>
       </c>
       <c r="F19">
-        <v>1.035936987495301</v>
+        <v>1.065940124116874</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055187905025997</v>
+        <v>1.05151485837395</v>
       </c>
       <c r="J19">
-        <v>1.038725272915671</v>
+        <v>1.057381749512692</v>
       </c>
       <c r="K19">
-        <v>1.045698388375828</v>
+        <v>1.060147240951536</v>
       </c>
       <c r="L19">
-        <v>1.035094539749797</v>
+        <v>1.058475920096883</v>
       </c>
       <c r="M19">
-        <v>1.04910157472828</v>
+        <v>1.069150415910401</v>
       </c>
       <c r="N19">
-        <v>1.015462297749528</v>
+        <v>1.022753489001155</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010122927225472</v>
+        <v>1.051011765733056</v>
       </c>
       <c r="D20">
-        <v>1.030829533986565</v>
+        <v>1.056595271432649</v>
       </c>
       <c r="E20">
-        <v>1.019774216464866</v>
+        <v>1.054854878346947</v>
       </c>
       <c r="F20">
-        <v>1.034077389769906</v>
+        <v>1.065579080218361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05429151317355</v>
+        <v>1.05137592649322</v>
       </c>
       <c r="J20">
-        <v>1.037269127932346</v>
+        <v>1.05710847390011</v>
       </c>
       <c r="K20">
-        <v>1.044351112001088</v>
+        <v>1.059898403499436</v>
       </c>
       <c r="L20">
-        <v>1.033478048965094</v>
+        <v>1.058163843412146</v>
       </c>
       <c r="M20">
-        <v>1.047546375143759</v>
+        <v>1.068852435059246</v>
       </c>
       <c r="N20">
-        <v>1.014940453268917</v>
+        <v>1.022657925143091</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003052833906424</v>
+        <v>1.049730691827142</v>
       </c>
       <c r="D21">
-        <v>1.025350616689011</v>
+        <v>1.055579653675783</v>
       </c>
       <c r="E21">
-        <v>1.013370782209174</v>
+        <v>1.053633054796659</v>
       </c>
       <c r="F21">
-        <v>1.027904433643917</v>
+        <v>1.064405612001948</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051297857546655</v>
+        <v>1.050922444972183</v>
       </c>
       <c r="J21">
-        <v>1.032423469586735</v>
+        <v>1.05621914117991</v>
       </c>
       <c r="K21">
-        <v>1.03986712032959</v>
+        <v>1.059088416340633</v>
       </c>
       <c r="L21">
-        <v>1.028103192788469</v>
+        <v>1.057148782479751</v>
       </c>
       <c r="M21">
-        <v>1.042375754806234</v>
+        <v>1.067883147232137</v>
       </c>
       <c r="N21">
-        <v>1.013202919627209</v>
+        <v>1.022346581097497</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9984793011281211</v>
+        <v>1.048925130109521</v>
       </c>
       <c r="D22">
-        <v>1.021812392337069</v>
+        <v>1.054941010677446</v>
       </c>
       <c r="E22">
-        <v>1.0092361975242</v>
+        <v>1.052865114813958</v>
       </c>
       <c r="F22">
-        <v>1.02391993340167</v>
+        <v>1.063668049213178</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049351615481413</v>
+        <v>1.050635941166357</v>
       </c>
       <c r="J22">
-        <v>1.029286384482117</v>
+        <v>1.055659299128173</v>
       </c>
       <c r="K22">
-        <v>1.03696378177934</v>
+        <v>1.058578382132699</v>
       </c>
       <c r="L22">
-        <v>1.024626877508891</v>
+        <v>1.056510210181752</v>
       </c>
       <c r="M22">
-        <v>1.039031972366775</v>
+        <v>1.067273313971952</v>
       </c>
       <c r="N22">
-        <v>1.01207738902226</v>
+        <v>1.022150322978913</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000916485220317</v>
+        <v>1.049352183499447</v>
       </c>
       <c r="D23">
-        <v>1.023697272835667</v>
+        <v>1.055279575461104</v>
       </c>
       <c r="E23">
-        <v>1.011438721799746</v>
+        <v>1.053272189066442</v>
       </c>
       <c r="F23">
-        <v>1.026042377673623</v>
+        <v>1.064059022296533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050389635935203</v>
+        <v>1.050787953368925</v>
       </c>
       <c r="J23">
-        <v>1.030958314997588</v>
+        <v>1.055956146963436</v>
       </c>
       <c r="K23">
-        <v>1.038511167432027</v>
+        <v>1.058848833404094</v>
       </c>
       <c r="L23">
-        <v>1.02647928702642</v>
+        <v>1.056848764083843</v>
       </c>
       <c r="M23">
-        <v>1.040813711935207</v>
+        <v>1.067596636529847</v>
       </c>
       <c r="N23">
-        <v>1.01267730225689</v>
+        <v>1.022254410896793</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010239392623153</v>
+        <v>1.051033241513778</v>
       </c>
       <c r="D24">
-        <v>1.030919879712139</v>
+        <v>1.056612297002211</v>
       </c>
       <c r="E24">
-        <v>1.019879821750562</v>
+        <v>1.054875366993659</v>
       </c>
       <c r="F24">
-        <v>1.034179212994061</v>
+        <v>1.065598757727077</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054340662862314</v>
+        <v>1.051383505770745</v>
       </c>
       <c r="J24">
-        <v>1.037348904185132</v>
+        <v>1.057123372144639</v>
       </c>
       <c r="K24">
-        <v>1.044424926276805</v>
+        <v>1.059911970139387</v>
       </c>
       <c r="L24">
-        <v>1.033566593573916</v>
+        <v>1.058180854935609</v>
       </c>
       <c r="M24">
-        <v>1.047631561069084</v>
+        <v>1.068868678493598</v>
       </c>
       <c r="N24">
-        <v>1.014969046876933</v>
+        <v>1.022663136333487</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.020546783844919</v>
+        <v>1.052983624794947</v>
       </c>
       <c r="D25">
-        <v>1.038926894696222</v>
+        <v>1.058158491465744</v>
       </c>
       <c r="E25">
-        <v>1.029241900756882</v>
+        <v>1.056736960325974</v>
       </c>
       <c r="F25">
-        <v>1.043208247069006</v>
+        <v>1.067386609291185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058666749555336</v>
+        <v>1.052068605537553</v>
       </c>
       <c r="J25">
-        <v>1.044401914809468</v>
+        <v>1.058474917283641</v>
       </c>
       <c r="K25">
-        <v>1.050949546023788</v>
+        <v>1.061142373338211</v>
       </c>
       <c r="L25">
-        <v>1.041402620820867</v>
+        <v>1.059725112465238</v>
       </c>
       <c r="M25">
-        <v>1.055170895092331</v>
+        <v>1.070343071049085</v>
       </c>
       <c r="N25">
-        <v>1.017495018358877</v>
+        <v>1.023135248419324</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054538976934235</v>
+        <v>1.028401637114355</v>
       </c>
       <c r="D2">
-        <v>1.059391456928356</v>
+        <v>1.04504293407262</v>
       </c>
       <c r="E2">
-        <v>1.058222750956105</v>
+        <v>1.036397757641426</v>
       </c>
       <c r="F2">
-        <v>1.068813477642035</v>
+        <v>1.050112229252107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052610208696019</v>
+        <v>1.061927873715642</v>
       </c>
       <c r="J2">
-        <v>1.059550545316738</v>
+        <v>1.049764819639512</v>
       </c>
       <c r="K2">
-        <v>1.062121088271499</v>
+        <v>1.055908486417333</v>
       </c>
       <c r="L2">
-        <v>1.060955573782085</v>
+        <v>1.047372274894783</v>
       </c>
       <c r="M2">
-        <v>1.071517655283849</v>
+        <v>1.060914926221322</v>
       </c>
       <c r="N2">
-        <v>1.023510039378259</v>
+        <v>1.019412390614287</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055668169955069</v>
+        <v>1.033912720151935</v>
       </c>
       <c r="D3">
-        <v>1.060286546329833</v>
+        <v>1.049340858936226</v>
       </c>
       <c r="E3">
-        <v>1.059302154456931</v>
+        <v>1.04142978035233</v>
       </c>
       <c r="F3">
-        <v>1.069850032242391</v>
+        <v>1.054968312502695</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053000665611775</v>
+        <v>1.064194451258883</v>
       </c>
       <c r="J3">
-        <v>1.060330189471074</v>
+        <v>1.053519725183494</v>
       </c>
       <c r="K3">
-        <v>1.062830193318865</v>
+        <v>1.059379062717704</v>
       </c>
       <c r="L3">
-        <v>1.061848294857886</v>
+        <v>1.05155864309056</v>
       </c>
       <c r="M3">
-        <v>1.072369712587539</v>
+        <v>1.064943046268571</v>
       </c>
       <c r="N3">
-        <v>1.023781149124378</v>
+        <v>1.020752650490745</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056398781197901</v>
+        <v>1.037395823779089</v>
       </c>
       <c r="D4">
-        <v>1.060865660457973</v>
+        <v>1.052059958388182</v>
       </c>
       <c r="E4">
-        <v>1.060000877362404</v>
+        <v>1.04461507011622</v>
       </c>
       <c r="F4">
-        <v>1.070520996930373</v>
+        <v>1.05804266531291</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053252026146662</v>
+        <v>1.065616754244403</v>
       </c>
       <c r="J4">
-        <v>1.060834047281768</v>
+        <v>1.05588901216805</v>
       </c>
       <c r="K4">
-        <v>1.063288327191</v>
+        <v>1.061568184907359</v>
       </c>
       <c r="L4">
-        <v>1.06242562404714</v>
+        <v>1.054203274617502</v>
       </c>
       <c r="M4">
-        <v>1.072920685891417</v>
+        <v>1.067487618862969</v>
       </c>
       <c r="N4">
-        <v>1.023956102967869</v>
+        <v>1.021597213854652</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056705918564615</v>
+        <v>1.038841096763725</v>
       </c>
       <c r="D5">
-        <v>1.06110910366836</v>
+        <v>1.053188813647008</v>
       </c>
       <c r="E5">
-        <v>1.060294687079864</v>
+        <v>1.045937917860474</v>
       </c>
       <c r="F5">
-        <v>1.070803129189773</v>
+        <v>1.059319529312178</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053357389172399</v>
+        <v>1.066204430628322</v>
       </c>
       <c r="J5">
-        <v>1.061045720028916</v>
+        <v>1.056871149253846</v>
       </c>
       <c r="K5">
-        <v>1.063480758210507</v>
+        <v>1.062475446875925</v>
       </c>
       <c r="L5">
-        <v>1.062668256731436</v>
+        <v>1.05530029784177</v>
       </c>
       <c r="M5">
-        <v>1.073152227944392</v>
+        <v>1.068543103931008</v>
       </c>
       <c r="N5">
-        <v>1.02402954047706</v>
+        <v>1.021947026749819</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056757487625551</v>
+        <v>1.039082672137316</v>
       </c>
       <c r="D6">
-        <v>1.061149977896052</v>
+        <v>1.053377533660204</v>
       </c>
       <c r="E6">
-        <v>1.060344022941113</v>
+        <v>1.046159096429199</v>
       </c>
       <c r="F6">
-        <v>1.070850503884692</v>
+        <v>1.059533024199339</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053375061976519</v>
+        <v>1.066302512273189</v>
       </c>
       <c r="J6">
-        <v>1.061081252082348</v>
+        <v>1.057035253907333</v>
       </c>
       <c r="K6">
-        <v>1.063513058352693</v>
+        <v>1.062627029140952</v>
       </c>
       <c r="L6">
-        <v>1.062708991350619</v>
+        <v>1.05548364286464</v>
       </c>
       <c r="M6">
-        <v>1.073191099770697</v>
+        <v>1.068719504471745</v>
       </c>
       <c r="N6">
-        <v>1.024041864325997</v>
+        <v>1.02200545973273</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056402885226887</v>
+        <v>1.037415209274363</v>
       </c>
       <c r="D7">
-        <v>1.060868913422325</v>
+        <v>1.052075097478688</v>
       </c>
       <c r="E7">
-        <v>1.06000480300003</v>
+        <v>1.044632809028257</v>
       </c>
       <c r="F7">
-        <v>1.07052476656456</v>
+        <v>1.058059787270914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053253435226285</v>
+        <v>1.065624646668649</v>
       </c>
       <c r="J7">
-        <v>1.060836876248725</v>
+        <v>1.055902189494131</v>
       </c>
       <c r="K7">
-        <v>1.063290899125382</v>
+        <v>1.061580358405339</v>
       </c>
       <c r="L7">
-        <v>1.062428866417119</v>
+        <v>1.054217990406165</v>
       </c>
       <c r="M7">
-        <v>1.07292378010975</v>
+        <v>1.067501777589737</v>
       </c>
       <c r="N7">
-        <v>1.023957084687835</v>
+        <v>1.02160190842806</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054920604331892</v>
+        <v>1.030281822387384</v>
       </c>
       <c r="D8">
-        <v>1.059693970807909</v>
+        <v>1.046508621551763</v>
       </c>
       <c r="E8">
-        <v>1.05858748336328</v>
+        <v>1.038113436309752</v>
       </c>
       <c r="F8">
-        <v>1.069163735582717</v>
+        <v>1.051767820154113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052742432893583</v>
+        <v>1.062703270257964</v>
       </c>
       <c r="J8">
-        <v>1.059814159130742</v>
+        <v>1.051046650387499</v>
       </c>
       <c r="K8">
-        <v>1.062360879636596</v>
+        <v>1.057093407428675</v>
       </c>
       <c r="L8">
-        <v>1.06125733973425</v>
+        <v>1.048800747181317</v>
       </c>
       <c r="M8">
-        <v>1.071805687681002</v>
+        <v>1.062289413008885</v>
       </c>
       <c r="N8">
-        <v>1.023601759965686</v>
+        <v>1.019870148621439</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052308196757263</v>
+        <v>1.017036595326645</v>
       </c>
       <c r="D9">
-        <v>1.057623044054562</v>
+        <v>1.036197646092739</v>
       </c>
       <c r="E9">
-        <v>1.05609208678919</v>
+        <v>1.026050103643244</v>
       </c>
       <c r="F9">
-        <v>1.066767290414286</v>
+        <v>1.040129515019877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051832084516206</v>
+        <v>1.057199015269049</v>
       </c>
       <c r="J9">
-        <v>1.058007205893485</v>
+        <v>1.042001765876217</v>
       </c>
       <c r="K9">
-        <v>1.060716661394969</v>
+        <v>1.048729525025781</v>
       </c>
       <c r="L9">
-        <v>1.059190485140425</v>
+        <v>1.038734215986219</v>
       </c>
       <c r="M9">
-        <v>1.069832663169135</v>
+        <v>1.052603421790003</v>
       </c>
       <c r="N9">
-        <v>1.022972015894957</v>
+        <v>1.016635908024912</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050566238105772</v>
+        <v>1.007691679436285</v>
       </c>
       <c r="D10">
-        <v>1.056242064880391</v>
+        <v>1.028944212691929</v>
       </c>
       <c r="E10">
-        <v>1.054429875225399</v>
+        <v>1.017570580041748</v>
       </c>
       <c r="F10">
-        <v>1.065170900730469</v>
+        <v>1.031952810009092</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051218518819687</v>
+        <v>1.05326424332698</v>
       </c>
       <c r="J10">
-        <v>1.056799322892147</v>
+        <v>1.035603414711056</v>
       </c>
       <c r="K10">
-        <v>1.05961686641723</v>
+        <v>1.042809822345957</v>
       </c>
       <c r="L10">
-        <v>1.057810893026301</v>
+        <v>1.031629677206515</v>
       </c>
       <c r="M10">
-        <v>1.068515413453977</v>
+        <v>1.045768156376026</v>
       </c>
       <c r="N10">
-        <v>1.022549754858937</v>
+        <v>1.014343327777605</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049811853130659</v>
+        <v>1.003508049586752</v>
       </c>
       <c r="D11">
-        <v>1.055643997594738</v>
+        <v>1.025703047394337</v>
       </c>
       <c r="E11">
-        <v>1.053710441146936</v>
+        <v>1.013782638038632</v>
       </c>
       <c r="F11">
-        <v>1.064479936585767</v>
+        <v>1.028301395310323</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05095125352985</v>
+        <v>1.051491173875936</v>
       </c>
       <c r="J11">
-        <v>1.056275519949623</v>
+        <v>1.032735614313733</v>
       </c>
       <c r="K11">
-        <v>1.059139773274333</v>
+        <v>1.04015599205597</v>
       </c>
       <c r="L11">
-        <v>1.057213107399825</v>
+        <v>1.028449231985245</v>
       </c>
       <c r="M11">
-        <v>1.06794457481453</v>
+        <v>1.042708621822268</v>
       </c>
       <c r="N11">
-        <v>1.022366334047013</v>
+        <v>1.01331488670487</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049531623838671</v>
+        <v>1.00193202848457</v>
       </c>
       <c r="D12">
-        <v>1.055421834317477</v>
+        <v>1.02448308298061</v>
       </c>
       <c r="E12">
-        <v>1.053443257847335</v>
+        <v>1.012356989734405</v>
       </c>
       <c r="F12">
-        <v>1.064223323820082</v>
+        <v>1.02692734616745</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050851740470813</v>
+        <v>1.050821570924773</v>
       </c>
       <c r="J12">
-        <v>1.056080838169789</v>
+        <v>1.031654845874002</v>
       </c>
       <c r="K12">
-        <v>1.058962427777214</v>
+        <v>1.039155791618743</v>
       </c>
       <c r="L12">
-        <v>1.056991000481457</v>
+        <v>1.027251217661659</v>
       </c>
       <c r="M12">
-        <v>1.067732470221105</v>
+        <v>1.041556225731876</v>
       </c>
       <c r="N12">
-        <v>1.022298116327154</v>
+        <v>1.012927192031581</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049591734768633</v>
+        <v>1.002271111659301</v>
       </c>
       <c r="D13">
-        <v>1.055469489753824</v>
+        <v>1.024745512346049</v>
       </c>
       <c r="E13">
-        <v>1.05350056747683</v>
+        <v>1.012663659494991</v>
       </c>
       <c r="F13">
-        <v>1.064278366232362</v>
+        <v>1.027222906317921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050873097173086</v>
+        <v>1.050965711225085</v>
       </c>
       <c r="J13">
-        <v>1.056122603424038</v>
+        <v>1.031887393332445</v>
       </c>
       <c r="K13">
-        <v>1.059000474962641</v>
+        <v>1.039371006250905</v>
       </c>
       <c r="L13">
-        <v>1.057038646018084</v>
+        <v>1.027508966690316</v>
       </c>
       <c r="M13">
-        <v>1.06777797053835</v>
+        <v>1.041804156514976</v>
       </c>
       <c r="N13">
-        <v>1.022312753200658</v>
+        <v>1.013010616539044</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04978868964673</v>
+        <v>1.003378233348649</v>
       </c>
       <c r="D14">
-        <v>1.055625633805664</v>
+        <v>1.025602538105361</v>
       </c>
       <c r="E14">
-        <v>1.053688354746484</v>
+        <v>1.013665180857398</v>
       </c>
       <c r="F14">
-        <v>1.06445872403865</v>
+        <v>1.028188184781342</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050943032623476</v>
+        <v>1.051436052439924</v>
       </c>
       <c r="J14">
-        <v>1.05625942990459</v>
+        <v>1.032646600302992</v>
       </c>
       <c r="K14">
-        <v>1.059125116532769</v>
+        <v>1.040073615087825</v>
       </c>
       <c r="L14">
-        <v>1.057194749255904</v>
+        <v>1.028350549669436</v>
       </c>
       <c r="M14">
-        <v>1.067927043607391</v>
+        <v>1.042613695549826</v>
       </c>
       <c r="N14">
-        <v>1.022360696925515</v>
+        <v>1.013282957660656</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049910037739897</v>
+        <v>1.004057403154701</v>
       </c>
       <c r="D15">
-        <v>1.055721837384318</v>
+        <v>1.026128422566188</v>
       </c>
       <c r="E15">
-        <v>1.053804062828479</v>
+        <v>1.014279744707735</v>
       </c>
       <c r="F15">
-        <v>1.064569853998489</v>
+        <v>1.028780538065073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050986090504615</v>
+        <v>1.051724368062113</v>
       </c>
       <c r="J15">
-        <v>1.056343717554712</v>
+        <v>1.033112284554412</v>
       </c>
       <c r="K15">
-        <v>1.059201894831363</v>
+        <v>1.040504574360934</v>
       </c>
       <c r="L15">
-        <v>1.057290921282273</v>
+        <v>1.028866837997773</v>
       </c>
       <c r="M15">
-        <v>1.068018883194373</v>
+        <v>1.043110336030342</v>
       </c>
       <c r="N15">
-        <v>1.022390225097724</v>
+        <v>1.013449992645911</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050616301821552</v>
+        <v>1.007966323837878</v>
       </c>
       <c r="D16">
-        <v>1.056281754625757</v>
+        <v>1.029157122316419</v>
       </c>
       <c r="E16">
-        <v>1.054477628262156</v>
+        <v>1.017819426200244</v>
       </c>
       <c r="F16">
-        <v>1.06521676367152</v>
+        <v>1.032192715393724</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051236222863752</v>
+        <v>1.053380406567235</v>
       </c>
       <c r="J16">
-        <v>1.056834069447887</v>
+        <v>1.03579161457718</v>
       </c>
       <c r="K16">
-        <v>1.059648511051058</v>
+        <v>1.042983969929994</v>
       </c>
       <c r="L16">
-        <v>1.057850557329659</v>
+        <v>1.031838474644908</v>
       </c>
       <c r="M16">
-        <v>1.068553288385127</v>
+        <v>1.045969025123821</v>
       </c>
       <c r="N16">
-        <v>1.022561915688873</v>
+        <v>1.014410802652851</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051059293495322</v>
+        <v>1.010380585987587</v>
       </c>
       <c r="D17">
-        <v>1.056632950484666</v>
+        <v>1.031029411582819</v>
       </c>
       <c r="E17">
-        <v>1.054900221769541</v>
+        <v>1.020007854496944</v>
       </c>
       <c r="F17">
-        <v>1.065622628498845</v>
+        <v>1.034302661277374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051392699067911</v>
+        <v>1.054400240516464</v>
       </c>
       <c r="J17">
-        <v>1.057141444537579</v>
+        <v>1.03744561635956</v>
       </c>
       <c r="K17">
-        <v>1.059928427114923</v>
+        <v>1.044514410413465</v>
       </c>
       <c r="L17">
-        <v>1.058201491168752</v>
+        <v>1.033673938079374</v>
       </c>
       <c r="M17">
-        <v>1.068888382934089</v>
+        <v>1.04773483399771</v>
       </c>
       <c r="N17">
-        <v>1.022669457593338</v>
+        <v>1.015003710114238</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051317672962292</v>
+        <v>1.011775646839686</v>
       </c>
       <c r="D18">
-        <v>1.056837788020125</v>
+        <v>1.032111870738964</v>
       </c>
       <c r="E18">
-        <v>1.055146743804102</v>
+        <v>1.02127319541878</v>
       </c>
       <c r="F18">
-        <v>1.065859389933651</v>
+        <v>1.03552274079456</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051483815863444</v>
+        <v>1.054988450121222</v>
       </c>
       <c r="J18">
-        <v>1.057320655851974</v>
+        <v>1.038401048910228</v>
       </c>
       <c r="K18">
-        <v>1.060091613057584</v>
+        <v>1.045398413483867</v>
       </c>
       <c r="L18">
-        <v>1.058406145121692</v>
+        <v>1.034734558265443</v>
       </c>
       <c r="M18">
-        <v>1.06908379348443</v>
+        <v>1.048755237804148</v>
       </c>
       <c r="N18">
-        <v>1.022732129107034</v>
+        <v>1.015346117523062</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051405772012679</v>
+        <v>1.012249139265795</v>
       </c>
       <c r="D19">
-        <v>1.056907630797601</v>
+        <v>1.032479358503487</v>
       </c>
       <c r="E19">
-        <v>1.055230806623377</v>
+        <v>1.021702789709564</v>
       </c>
       <c r="F19">
-        <v>1.065940124116874</v>
+        <v>1.0359369874953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05151485837395</v>
+        <v>1.055187905025996</v>
       </c>
       <c r="J19">
-        <v>1.057381749512692</v>
+        <v>1.03872527291567</v>
       </c>
       <c r="K19">
-        <v>1.060147240951536</v>
+        <v>1.045698388375827</v>
       </c>
       <c r="L19">
-        <v>1.058475920096883</v>
+        <v>1.035094539749795</v>
       </c>
       <c r="M19">
-        <v>1.069150415910401</v>
+        <v>1.049101574728279</v>
       </c>
       <c r="N19">
-        <v>1.022753489001155</v>
+        <v>1.015462297749528</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051011765733056</v>
+        <v>1.010122927225473</v>
       </c>
       <c r="D20">
-        <v>1.056595271432649</v>
+        <v>1.030829533986565</v>
       </c>
       <c r="E20">
-        <v>1.054854878346947</v>
+        <v>1.019774216464866</v>
       </c>
       <c r="F20">
-        <v>1.065579080218361</v>
+        <v>1.034077389769907</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05137592649322</v>
+        <v>1.05429151317355</v>
       </c>
       <c r="J20">
-        <v>1.05710847390011</v>
+        <v>1.037269127932346</v>
       </c>
       <c r="K20">
-        <v>1.059898403499436</v>
+        <v>1.044351112001088</v>
       </c>
       <c r="L20">
-        <v>1.058163843412146</v>
+        <v>1.033478048965094</v>
       </c>
       <c r="M20">
-        <v>1.068852435059246</v>
+        <v>1.047546375143759</v>
       </c>
       <c r="N20">
-        <v>1.022657925143091</v>
+        <v>1.014940453268917</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049730691827142</v>
+        <v>1.003052833906425</v>
       </c>
       <c r="D21">
-        <v>1.055579653675783</v>
+        <v>1.025350616689012</v>
       </c>
       <c r="E21">
-        <v>1.053633054796659</v>
+        <v>1.013370782209175</v>
       </c>
       <c r="F21">
-        <v>1.064405612001948</v>
+        <v>1.027904433643918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050922444972183</v>
+        <v>1.051297857546656</v>
       </c>
       <c r="J21">
-        <v>1.05621914117991</v>
+        <v>1.032423469586735</v>
       </c>
       <c r="K21">
-        <v>1.059088416340633</v>
+        <v>1.039867120329591</v>
       </c>
       <c r="L21">
-        <v>1.057148782479751</v>
+        <v>1.028103192788469</v>
       </c>
       <c r="M21">
-        <v>1.067883147232137</v>
+        <v>1.042375754806235</v>
       </c>
       <c r="N21">
-        <v>1.022346581097497</v>
+        <v>1.013202919627209</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048925130109521</v>
+        <v>0.9984793011281201</v>
       </c>
       <c r="D22">
-        <v>1.054941010677446</v>
+        <v>1.021812392337068</v>
       </c>
       <c r="E22">
-        <v>1.052865114813958</v>
+        <v>1.009236197524199</v>
       </c>
       <c r="F22">
-        <v>1.063668049213178</v>
+        <v>1.02391993340167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050635941166357</v>
+        <v>1.049351615481413</v>
       </c>
       <c r="J22">
-        <v>1.055659299128173</v>
+        <v>1.029286384482117</v>
       </c>
       <c r="K22">
-        <v>1.058578382132699</v>
+        <v>1.03696378177934</v>
       </c>
       <c r="L22">
-        <v>1.056510210181752</v>
+        <v>1.02462687750889</v>
       </c>
       <c r="M22">
-        <v>1.067273313971952</v>
+        <v>1.039031972366774</v>
       </c>
       <c r="N22">
-        <v>1.022150322978913</v>
+        <v>1.01207738902226</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049352183499447</v>
+        <v>1.000916485220318</v>
       </c>
       <c r="D23">
-        <v>1.055279575461104</v>
+        <v>1.023697272835668</v>
       </c>
       <c r="E23">
-        <v>1.053272189066442</v>
+        <v>1.011438721799747</v>
       </c>
       <c r="F23">
-        <v>1.064059022296533</v>
+        <v>1.026042377673624</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050787953368925</v>
+        <v>1.050389635935203</v>
       </c>
       <c r="J23">
-        <v>1.055956146963436</v>
+        <v>1.030958314997589</v>
       </c>
       <c r="K23">
-        <v>1.058848833404094</v>
+        <v>1.038511167432028</v>
       </c>
       <c r="L23">
-        <v>1.056848764083843</v>
+        <v>1.026479287026421</v>
       </c>
       <c r="M23">
-        <v>1.067596636529847</v>
+        <v>1.040813711935207</v>
       </c>
       <c r="N23">
-        <v>1.022254410896793</v>
+        <v>1.01267730225689</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051033241513778</v>
+        <v>1.010239392623151</v>
       </c>
       <c r="D24">
-        <v>1.056612297002211</v>
+        <v>1.030919879712137</v>
       </c>
       <c r="E24">
-        <v>1.054875366993659</v>
+        <v>1.01987982175056</v>
       </c>
       <c r="F24">
-        <v>1.065598757727077</v>
+        <v>1.034179212994059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051383505770745</v>
+        <v>1.054340662862313</v>
       </c>
       <c r="J24">
-        <v>1.057123372144639</v>
+        <v>1.037348904185131</v>
       </c>
       <c r="K24">
-        <v>1.059911970139387</v>
+        <v>1.044424926276804</v>
       </c>
       <c r="L24">
-        <v>1.058180854935609</v>
+        <v>1.033566593573914</v>
       </c>
       <c r="M24">
-        <v>1.068868678493598</v>
+        <v>1.047631561069082</v>
       </c>
       <c r="N24">
-        <v>1.022663136333487</v>
+        <v>1.014969046876932</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.052983624794947</v>
+        <v>1.020546783844918</v>
       </c>
       <c r="D25">
-        <v>1.058158491465744</v>
+        <v>1.038926894696221</v>
       </c>
       <c r="E25">
-        <v>1.056736960325974</v>
+        <v>1.029241900756881</v>
       </c>
       <c r="F25">
-        <v>1.067386609291185</v>
+        <v>1.043208247069005</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052068605537553</v>
+        <v>1.058666749555335</v>
       </c>
       <c r="J25">
-        <v>1.058474917283641</v>
+        <v>1.044401914809467</v>
       </c>
       <c r="K25">
-        <v>1.061142373338211</v>
+        <v>1.050949546023787</v>
       </c>
       <c r="L25">
-        <v>1.059725112465238</v>
+        <v>1.041402620820866</v>
       </c>
       <c r="M25">
-        <v>1.070343071049085</v>
+        <v>1.055170895092331</v>
       </c>
       <c r="N25">
-        <v>1.023135248419324</v>
+        <v>1.017495018358877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028401637114355</v>
+        <v>1.003345563289495</v>
       </c>
       <c r="D2">
-        <v>1.04504293407262</v>
+        <v>1.022935983953127</v>
       </c>
       <c r="E2">
-        <v>1.036397757641426</v>
+        <v>1.020936848297664</v>
       </c>
       <c r="F2">
-        <v>1.050112229252107</v>
+        <v>1.027878088067279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061927873715642</v>
+        <v>1.048157002158546</v>
       </c>
       <c r="J2">
-        <v>1.049764819639512</v>
+        <v>1.025426667525247</v>
       </c>
       <c r="K2">
-        <v>1.055908486417333</v>
+        <v>1.034084770685102</v>
       </c>
       <c r="L2">
-        <v>1.047372274894783</v>
+        <v>1.03211200640766</v>
       </c>
       <c r="M2">
-        <v>1.060914926221322</v>
+        <v>1.038962232848888</v>
       </c>
       <c r="N2">
-        <v>1.019412390614287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012339376836383</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039408383452423</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035171120005097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033912720151935</v>
+        <v>1.007179981551224</v>
       </c>
       <c r="D3">
-        <v>1.049340858936226</v>
+        <v>1.025473222394205</v>
       </c>
       <c r="E3">
-        <v>1.04142978035233</v>
+        <v>1.024227467080117</v>
       </c>
       <c r="F3">
-        <v>1.054968312502695</v>
+        <v>1.031009656834565</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064194451258883</v>
+        <v>1.048950687183333</v>
       </c>
       <c r="J3">
-        <v>1.053519725183494</v>
+        <v>1.027476808512636</v>
       </c>
       <c r="K3">
-        <v>1.059379062717704</v>
+        <v>1.035790221741341</v>
       </c>
       <c r="L3">
-        <v>1.05155864309056</v>
+        <v>1.034559460723706</v>
       </c>
       <c r="M3">
-        <v>1.064943046268571</v>
+        <v>1.041260561175258</v>
       </c>
       <c r="N3">
-        <v>1.020752650490745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013032462147435</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041227356685321</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036374356757493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037395823779089</v>
+        <v>1.009615015639982</v>
       </c>
       <c r="D4">
-        <v>1.052059958388182</v>
+        <v>1.027084866015028</v>
       </c>
       <c r="E4">
-        <v>1.04461507011622</v>
+        <v>1.026323041502925</v>
       </c>
       <c r="F4">
-        <v>1.05804266531291</v>
+        <v>1.033006668741334</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065616754244403</v>
+        <v>1.049439880440089</v>
       </c>
       <c r="J4">
-        <v>1.05588901216805</v>
+        <v>1.02877592568867</v>
       </c>
       <c r="K4">
-        <v>1.061568184907359</v>
+        <v>1.036867031269054</v>
       </c>
       <c r="L4">
-        <v>1.054203274617502</v>
+        <v>1.036113820985112</v>
       </c>
       <c r="M4">
-        <v>1.067487618862969</v>
+        <v>1.042722407132785</v>
       </c>
       <c r="N4">
-        <v>1.021597213854652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013471635448611</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042384307656091</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037136659478382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038841096763725</v>
+        <v>1.010630369499833</v>
       </c>
       <c r="D5">
-        <v>1.053188813647008</v>
+        <v>1.027758668553416</v>
       </c>
       <c r="E5">
-        <v>1.045937917860474</v>
+        <v>1.02719833789441</v>
       </c>
       <c r="F5">
-        <v>1.059319529312178</v>
+        <v>1.033841075732245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066204430628322</v>
+        <v>1.049641459988722</v>
       </c>
       <c r="J5">
-        <v>1.056871149253846</v>
+        <v>1.029317971864229</v>
       </c>
       <c r="K5">
-        <v>1.062475446875925</v>
+        <v>1.037316728094973</v>
       </c>
       <c r="L5">
-        <v>1.05530029784177</v>
+        <v>1.036762563943591</v>
       </c>
       <c r="M5">
-        <v>1.068543103931008</v>
+        <v>1.043332725296517</v>
       </c>
       <c r="N5">
-        <v>1.021947026749819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013655251977885</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042867332143001</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037461830625899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039082672137316</v>
+        <v>1.010803115553644</v>
       </c>
       <c r="D6">
-        <v>1.053377533660204</v>
+        <v>1.027875420918486</v>
       </c>
       <c r="E6">
-        <v>1.046159096429199</v>
+        <v>1.027347465187675</v>
       </c>
       <c r="F6">
-        <v>1.059533024199339</v>
+        <v>1.033982822710114</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066302512273189</v>
+        <v>1.049677018671124</v>
       </c>
       <c r="J6">
-        <v>1.057035253907333</v>
+        <v>1.029411425160407</v>
       </c>
       <c r="K6">
-        <v>1.062627029140952</v>
+        <v>1.037395852655457</v>
       </c>
       <c r="L6">
-        <v>1.05548364286464</v>
+        <v>1.03687368043416</v>
       </c>
       <c r="M6">
-        <v>1.068719504471745</v>
+        <v>1.04343687716475</v>
       </c>
       <c r="N6">
-        <v>1.02200545973273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013687372186491</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042949761089295</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037526552766119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037415209274363</v>
+        <v>1.009636333658931</v>
       </c>
       <c r="D7">
-        <v>1.052075097478688</v>
+        <v>1.027104633595904</v>
       </c>
       <c r="E7">
-        <v>1.044632809028257</v>
+        <v>1.026341757733277</v>
       </c>
       <c r="F7">
-        <v>1.058059787270914</v>
+        <v>1.033023301302712</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065624646668649</v>
+        <v>1.049448056777386</v>
       </c>
       <c r="J7">
-        <v>1.055902189494131</v>
+        <v>1.028790710600338</v>
       </c>
       <c r="K7">
-        <v>1.061580358405339</v>
+        <v>1.036883680078876</v>
       </c>
       <c r="L7">
-        <v>1.054217990406165</v>
+        <v>1.036129427055323</v>
       </c>
       <c r="M7">
-        <v>1.067501777589737</v>
+        <v>1.042735981115306</v>
       </c>
       <c r="N7">
-        <v>1.02160190842806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01347790614695</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042395050525081</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037168614115979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030281822387384</v>
+        <v>1.004660611065349</v>
       </c>
       <c r="D8">
-        <v>1.046508621551763</v>
+        <v>1.023812804962595</v>
       </c>
       <c r="E8">
-        <v>1.038113436309752</v>
+        <v>1.022064593297094</v>
       </c>
       <c r="F8">
-        <v>1.051767820154113</v>
+        <v>1.028949294387672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062703270257964</v>
+        <v>1.048436931236242</v>
       </c>
       <c r="J8">
-        <v>1.051046650387499</v>
+        <v>1.026134477328953</v>
       </c>
       <c r="K8">
-        <v>1.057093407428675</v>
+        <v>1.034679595472791</v>
       </c>
       <c r="L8">
-        <v>1.048800747181317</v>
+        <v>1.032953755278168</v>
       </c>
       <c r="M8">
-        <v>1.062289413008885</v>
+        <v>1.039750903214912</v>
       </c>
       <c r="N8">
-        <v>1.019870148621439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012580319061839</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04003256384435</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035614719133064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017036595326645</v>
+        <v>0.9955121745164683</v>
       </c>
       <c r="D9">
-        <v>1.036197646092739</v>
+        <v>1.017757112107982</v>
       </c>
       <c r="E9">
-        <v>1.026050103643244</v>
+        <v>1.014248097692643</v>
       </c>
       <c r="F9">
-        <v>1.040129515019877</v>
+        <v>1.021527654744011</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057199015269049</v>
+        <v>1.046456644223766</v>
       </c>
       <c r="J9">
-        <v>1.042001765876217</v>
+        <v>1.021224410923855</v>
       </c>
       <c r="K9">
-        <v>1.048729525025781</v>
+        <v>1.030568515334748</v>
       </c>
       <c r="L9">
-        <v>1.038734215986219</v>
+        <v>1.027114162969479</v>
       </c>
       <c r="M9">
-        <v>1.052603421790003</v>
+        <v>1.034280856130277</v>
       </c>
       <c r="N9">
-        <v>1.016635908024912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010918935279403</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035703372431227</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032704692247934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007691679436285</v>
+        <v>0.9892259319189755</v>
       </c>
       <c r="D10">
-        <v>1.028944212691929</v>
+        <v>1.013607499763464</v>
       </c>
       <c r="E10">
-        <v>1.017570580041748</v>
+        <v>1.008958657135318</v>
       </c>
       <c r="F10">
-        <v>1.031952810009092</v>
+        <v>1.016570754859931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05326424332698</v>
+        <v>1.045033487873253</v>
       </c>
       <c r="J10">
-        <v>1.035603414711056</v>
+        <v>1.01787363516665</v>
       </c>
       <c r="K10">
-        <v>1.042809822345957</v>
+        <v>1.027735337464555</v>
       </c>
       <c r="L10">
-        <v>1.031629677206515</v>
+        <v>1.023168022484575</v>
       </c>
       <c r="M10">
-        <v>1.045768156376026</v>
+        <v>1.030647128821403</v>
       </c>
       <c r="N10">
-        <v>1.014343327777605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009791577834283</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03287928597831</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030718344338742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003508049586752</v>
+        <v>0.9871028889963237</v>
       </c>
       <c r="D11">
-        <v>1.025703047394337</v>
+        <v>1.012236995362522</v>
       </c>
       <c r="E11">
-        <v>1.013782638038632</v>
+        <v>1.007560845909774</v>
       </c>
       <c r="F11">
-        <v>1.028301395310323</v>
+        <v>1.015671745814974</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051491173875936</v>
+        <v>1.044621940730685</v>
       </c>
       <c r="J11">
-        <v>1.032735614313733</v>
+        <v>1.017022222728186</v>
       </c>
       <c r="K11">
-        <v>1.04015599205597</v>
+        <v>1.026931771611258</v>
       </c>
       <c r="L11">
-        <v>1.028449231985245</v>
+        <v>1.022341570581903</v>
       </c>
       <c r="M11">
-        <v>1.042708621822268</v>
+        <v>1.030304046416143</v>
       </c>
       <c r="N11">
-        <v>1.01331488670487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009556406525168</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033046733443543</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030183235941589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00193202848457</v>
+        <v>0.9865546007132706</v>
       </c>
       <c r="D12">
-        <v>1.02448308298061</v>
+        <v>1.01189242316514</v>
       </c>
       <c r="E12">
-        <v>1.012356989734405</v>
+        <v>1.007383431161857</v>
       </c>
       <c r="F12">
-        <v>1.02692734616745</v>
+        <v>1.015804433920388</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050821570924773</v>
+        <v>1.044550520578847</v>
       </c>
       <c r="J12">
-        <v>1.031654845874002</v>
+        <v>1.016939099408588</v>
       </c>
       <c r="K12">
-        <v>1.039155791618743</v>
+        <v>1.02679527552226</v>
       </c>
       <c r="L12">
-        <v>1.027251217661659</v>
+        <v>1.022370530309344</v>
       </c>
       <c r="M12">
-        <v>1.041556225731876</v>
+        <v>1.03063498299502</v>
       </c>
       <c r="N12">
-        <v>1.012927192031581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009568166956786</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033636640325956</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030086727619444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002271111659301</v>
+        <v>0.9871910304453164</v>
       </c>
       <c r="D13">
-        <v>1.024745512346049</v>
+        <v>1.012326431806589</v>
       </c>
       <c r="E13">
-        <v>1.012663659494991</v>
+        <v>1.008143717388098</v>
       </c>
       <c r="F13">
-        <v>1.027222906317921</v>
+        <v>1.016759235939674</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050965711225085</v>
+        <v>1.044747934955949</v>
       </c>
       <c r="J13">
-        <v>1.031887393332445</v>
+        <v>1.017452914418006</v>
       </c>
       <c r="K13">
-        <v>1.039371006250905</v>
+        <v>1.027177972537501</v>
       </c>
       <c r="L13">
-        <v>1.027508966690316</v>
+        <v>1.023073026592556</v>
       </c>
       <c r="M13">
-        <v>1.041804156514976</v>
+        <v>1.031529267550353</v>
       </c>
       <c r="N13">
-        <v>1.013010616539044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009776210997775</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034621614491988</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030354801644568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003378233348649</v>
+        <v>0.9881701083229141</v>
       </c>
       <c r="D14">
-        <v>1.025602538105361</v>
+        <v>1.01298196347168</v>
       </c>
       <c r="E14">
-        <v>1.013665180857398</v>
+        <v>1.009095653497334</v>
       </c>
       <c r="F14">
-        <v>1.028188184781342</v>
+        <v>1.017794914558813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051436052439924</v>
+        <v>1.045007087727045</v>
       </c>
       <c r="J14">
-        <v>1.032646600302992</v>
+        <v>1.018079812939111</v>
       </c>
       <c r="K14">
-        <v>1.040073615087825</v>
+        <v>1.027679795880138</v>
       </c>
       <c r="L14">
-        <v>1.028350549669436</v>
+        <v>1.023864800332382</v>
       </c>
       <c r="M14">
-        <v>1.042613695549826</v>
+        <v>1.032405409775275</v>
       </c>
       <c r="N14">
-        <v>1.013282957660656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010009693757908</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03548810862079</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030711044953112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004057403154701</v>
+        <v>0.9886721630031762</v>
       </c>
       <c r="D15">
-        <v>1.026128422566188</v>
+        <v>1.013316773723313</v>
       </c>
       <c r="E15">
-        <v>1.014279744707735</v>
+        <v>1.009543144589938</v>
       </c>
       <c r="F15">
-        <v>1.028780538065073</v>
+        <v>1.018245043490159</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051724368062113</v>
+        <v>1.045131632007888</v>
       </c>
       <c r="J15">
-        <v>1.033112284554412</v>
+        <v>1.018369913603983</v>
       </c>
       <c r="K15">
-        <v>1.040504574360934</v>
+        <v>1.027921292653221</v>
       </c>
       <c r="L15">
-        <v>1.028866837997773</v>
+        <v>1.024216367164257</v>
       </c>
       <c r="M15">
-        <v>1.043110336030342</v>
+        <v>1.032760832930661</v>
       </c>
       <c r="N15">
-        <v>1.013449992645911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01011237527065</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035806681956664</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03088769959884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007966323837878</v>
+        <v>0.9912083824095261</v>
       </c>
       <c r="D16">
-        <v>1.029157122316419</v>
+        <v>1.014990471638269</v>
       </c>
       <c r="E16">
-        <v>1.017819426200244</v>
+        <v>1.011639861555815</v>
       </c>
       <c r="F16">
-        <v>1.032192715393724</v>
+        <v>1.02019221664892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053380406567235</v>
+        <v>1.045714198469143</v>
       </c>
       <c r="J16">
-        <v>1.03579161457718</v>
+        <v>1.019697289618176</v>
       </c>
       <c r="K16">
-        <v>1.042983969929994</v>
+        <v>1.029058343633175</v>
       </c>
       <c r="L16">
-        <v>1.031838474644908</v>
+        <v>1.025766017588829</v>
       </c>
       <c r="M16">
-        <v>1.045969025123821</v>
+        <v>1.03417058401539</v>
       </c>
       <c r="N16">
-        <v>1.014410802652851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010552514824294</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036882115927223</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031694828199742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010380585987587</v>
+        <v>0.9926435588802288</v>
       </c>
       <c r="D17">
-        <v>1.031029411582819</v>
+        <v>1.015933056580894</v>
       </c>
       <c r="E17">
-        <v>1.020007854496944</v>
+        <v>1.012751594958135</v>
       </c>
       <c r="F17">
-        <v>1.034302661277374</v>
+        <v>1.021139685145355</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054400240516464</v>
+        <v>1.046022433844671</v>
       </c>
       <c r="J17">
-        <v>1.03744561635956</v>
+        <v>1.020387399356163</v>
       </c>
       <c r="K17">
-        <v>1.044514410413465</v>
+        <v>1.029667372223093</v>
       </c>
       <c r="L17">
-        <v>1.033673938079374</v>
+        <v>1.026539676538114</v>
       </c>
       <c r="M17">
-        <v>1.04773483399771</v>
+        <v>1.034786940781619</v>
       </c>
       <c r="N17">
-        <v>1.015003710114238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010767922514198</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03723988844992</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032128040561065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011775646839686</v>
+        <v>0.9932486679705795</v>
       </c>
       <c r="D18">
-        <v>1.032111870738964</v>
+        <v>1.016318303325064</v>
       </c>
       <c r="E18">
-        <v>1.02127319541878</v>
+        <v>1.013080189657182</v>
       </c>
       <c r="F18">
-        <v>1.03552274079456</v>
+        <v>1.021252153934707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054988450121222</v>
+        <v>1.046117860612969</v>
       </c>
       <c r="J18">
-        <v>1.038401048910228</v>
+        <v>1.020569181412242</v>
       </c>
       <c r="K18">
-        <v>1.045398413483867</v>
+        <v>1.029861183549783</v>
       </c>
       <c r="L18">
-        <v>1.034734558265443</v>
+        <v>1.026676898065598</v>
       </c>
       <c r="M18">
-        <v>1.048755237804148</v>
+        <v>1.034713860804038</v>
       </c>
       <c r="N18">
-        <v>1.015346117523062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010799675628835</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036943628498291</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032253372241774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012249139265795</v>
+        <v>0.9931077312481086</v>
       </c>
       <c r="D19">
-        <v>1.032479358503487</v>
+        <v>1.016210521536226</v>
       </c>
       <c r="E19">
-        <v>1.021702789709564</v>
+        <v>1.012697755634572</v>
       </c>
       <c r="F19">
-        <v>1.0359369874953</v>
+        <v>1.020599810331844</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055187905025996</v>
+        <v>1.046029143182199</v>
       </c>
       <c r="J19">
-        <v>1.03872527291567</v>
+        <v>1.020297506487246</v>
       </c>
       <c r="K19">
-        <v>1.045698388375827</v>
+        <v>1.029692111021276</v>
       </c>
       <c r="L19">
-        <v>1.035094539749795</v>
+        <v>1.026237462917898</v>
       </c>
       <c r="M19">
-        <v>1.049101574728279</v>
+        <v>1.034009502598318</v>
       </c>
       <c r="N19">
-        <v>1.015462297749528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010671200468311</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036059846179132</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032140261973434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010122927225473</v>
+        <v>0.9908763491440677</v>
       </c>
       <c r="D20">
-        <v>1.030829533986565</v>
+        <v>1.014708994760049</v>
       </c>
       <c r="E20">
-        <v>1.019774216464866</v>
+        <v>1.010348034399362</v>
       </c>
       <c r="F20">
-        <v>1.034077389769907</v>
+        <v>1.017871789953088</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05429151317355</v>
+        <v>1.045421182495652</v>
       </c>
       <c r="J20">
-        <v>1.037269127932346</v>
+        <v>1.018763559831941</v>
       </c>
       <c r="K20">
-        <v>1.044351112001088</v>
+        <v>1.028498042847828</v>
       </c>
       <c r="L20">
-        <v>1.033478048965094</v>
+        <v>1.024211334277712</v>
       </c>
       <c r="M20">
-        <v>1.047546375143759</v>
+        <v>1.031607500012425</v>
       </c>
       <c r="N20">
-        <v>1.014940453268917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010094991606444</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033628703194023</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031299946719536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003052833906425</v>
+        <v>0.9860249199024462</v>
       </c>
       <c r="D21">
-        <v>1.025350616689012</v>
+        <v>1.011501973384261</v>
       </c>
       <c r="E21">
-        <v>1.013370782209175</v>
+        <v>1.006204916807525</v>
       </c>
       <c r="F21">
-        <v>1.027904433643918</v>
+        <v>1.013914694974467</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051297857546656</v>
+        <v>1.044280243327705</v>
       </c>
       <c r="J21">
-        <v>1.032423469586735</v>
+        <v>1.016118780770096</v>
       </c>
       <c r="K21">
-        <v>1.039867120329591</v>
+        <v>1.026268665395475</v>
       </c>
       <c r="L21">
-        <v>1.028103192788469</v>
+        <v>1.021069681015009</v>
       </c>
       <c r="M21">
-        <v>1.042375754806235</v>
+        <v>1.028637158927002</v>
       </c>
       <c r="N21">
-        <v>1.013202919627209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009195431724338</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031236720346806</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029726927238115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9984793011281201</v>
+        <v>0.9829435320361836</v>
       </c>
       <c r="D22">
-        <v>1.021812392337068</v>
+        <v>1.009464384430139</v>
       </c>
       <c r="E22">
-        <v>1.009236197524199</v>
+        <v>1.00360466315503</v>
       </c>
       <c r="F22">
-        <v>1.02391993340167</v>
+        <v>1.011460950688027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049351615481413</v>
+        <v>1.043542875777754</v>
       </c>
       <c r="J22">
-        <v>1.029286384482117</v>
+        <v>1.014451043967623</v>
       </c>
       <c r="K22">
-        <v>1.03696378177934</v>
+        <v>1.024850653053929</v>
       </c>
       <c r="L22">
-        <v>1.02462687750889</v>
+        <v>1.019105047592558</v>
       </c>
       <c r="M22">
-        <v>1.039031972366774</v>
+        <v>1.02680873241081</v>
       </c>
       <c r="N22">
-        <v>1.01207738902226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008629519813419</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029789622930418</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028710720083831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000916485220318</v>
+        <v>0.9845766961013511</v>
       </c>
       <c r="D23">
-        <v>1.023697272835668</v>
+        <v>1.01053970846908</v>
       </c>
       <c r="E23">
-        <v>1.011438721799747</v>
+        <v>1.004981676539526</v>
       </c>
       <c r="F23">
-        <v>1.026042377673624</v>
+        <v>1.012761017833265</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050389635935203</v>
+        <v>1.043932200938842</v>
       </c>
       <c r="J23">
-        <v>1.030958314997589</v>
+        <v>1.015332397339952</v>
       </c>
       <c r="K23">
-        <v>1.038511167432028</v>
+        <v>1.025597179940815</v>
       </c>
       <c r="L23">
-        <v>1.026479287026421</v>
+        <v>1.020144547392124</v>
       </c>
       <c r="M23">
-        <v>1.040813711935207</v>
+        <v>1.027776788041815</v>
       </c>
       <c r="N23">
-        <v>1.01267730225689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008927178657274</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03055578524347</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029228849112356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,78 +1599,102 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010239392623151</v>
+        <v>0.9908815549744302</v>
       </c>
       <c r="D24">
-        <v>1.030919879712137</v>
+        <v>1.014703003000952</v>
       </c>
       <c r="E24">
-        <v>1.01987982175056</v>
+        <v>1.010314750091576</v>
       </c>
       <c r="F24">
-        <v>1.034179212994059</v>
+        <v>1.017801313479999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054340662862313</v>
+        <v>1.045409910596852</v>
       </c>
       <c r="J24">
-        <v>1.037348904185131</v>
+        <v>1.018735187226005</v>
       </c>
       <c r="K24">
-        <v>1.044424926276804</v>
+        <v>1.028476745205651</v>
       </c>
       <c r="L24">
-        <v>1.033566593573914</v>
+        <v>1.02416311653825</v>
       </c>
       <c r="M24">
-        <v>1.047631561069082</v>
+        <v>1.031522867136982</v>
       </c>
       <c r="N24">
-        <v>1.014969046876932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010078763228701</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033520591034936</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031257313869669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020546783844918</v>
+        <v>0.9979349571062387</v>
       </c>
       <c r="D25">
-        <v>1.038926894696221</v>
+        <v>1.019368010370819</v>
       </c>
       <c r="E25">
-        <v>1.029241900756881</v>
+        <v>1.016312879898649</v>
       </c>
       <c r="F25">
-        <v>1.043208247069005</v>
+        <v>1.023483789740238</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058666749555335</v>
+        <v>1.046999723805029</v>
       </c>
       <c r="J25">
-        <v>1.044401914809467</v>
+        <v>1.022532018600337</v>
       </c>
       <c r="K25">
-        <v>1.050949546023787</v>
+        <v>1.031672922889007</v>
       </c>
       <c r="L25">
-        <v>1.041402620820866</v>
+        <v>1.028663129421785</v>
       </c>
       <c r="M25">
-        <v>1.055170895092331</v>
+        <v>1.035728168725697</v>
       </c>
       <c r="N25">
-        <v>1.017495018358877</v>
+        <v>1.011363589219493</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036848830075735</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033514320416928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003345563289495</v>
+        <v>1.00332702832072</v>
       </c>
       <c r="D2">
-        <v>1.022935983953127</v>
+        <v>1.022520769643876</v>
       </c>
       <c r="E2">
-        <v>1.020936848297664</v>
+        <v>1.020920067210067</v>
       </c>
       <c r="F2">
-        <v>1.027878088067279</v>
+        <v>1.027864975354258</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048157002158546</v>
+        <v>1.047946210212673</v>
       </c>
       <c r="J2">
-        <v>1.025426667525247</v>
+        <v>1.025408681880554</v>
       </c>
       <c r="K2">
-        <v>1.034084770685102</v>
+        <v>1.033675022990967</v>
       </c>
       <c r="L2">
-        <v>1.03211200640766</v>
+        <v>1.032095447234268</v>
       </c>
       <c r="M2">
-        <v>1.038962232848888</v>
+        <v>1.038949290618304</v>
       </c>
       <c r="N2">
-        <v>1.012339376836383</v>
+        <v>1.013901887999334</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039408383452423</v>
+        <v>1.039398140529054</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035171120005097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034890204044726</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021086670254337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007179981551224</v>
+        <v>1.007016082828685</v>
       </c>
       <c r="D3">
-        <v>1.025473222394205</v>
+        <v>1.024869532689916</v>
       </c>
       <c r="E3">
-        <v>1.024227467080117</v>
+        <v>1.024078941497182</v>
       </c>
       <c r="F3">
-        <v>1.031009656834565</v>
+        <v>1.030893668229921</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048950687183333</v>
+        <v>1.048643890251659</v>
       </c>
       <c r="J3">
-        <v>1.027476808512636</v>
+        <v>1.027317292679222</v>
       </c>
       <c r="K3">
-        <v>1.035790221741341</v>
+        <v>1.035193792583387</v>
       </c>
       <c r="L3">
-        <v>1.034559460723706</v>
+        <v>1.034412725862048</v>
       </c>
       <c r="M3">
-        <v>1.041260561175258</v>
+        <v>1.041145948242601</v>
       </c>
       <c r="N3">
-        <v>1.013032462147435</v>
+        <v>1.014414840757476</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041227356685321</v>
+        <v>1.041136648319416</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036374356757493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035961161245692</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021388259030389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009615015639982</v>
+        <v>1.00935992039899</v>
       </c>
       <c r="D4">
-        <v>1.027084866015028</v>
+        <v>1.026362312782486</v>
       </c>
       <c r="E4">
-        <v>1.026323041502925</v>
+        <v>1.026091744914314</v>
       </c>
       <c r="F4">
-        <v>1.033006668741334</v>
+        <v>1.032826109185768</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049439880440089</v>
+        <v>1.049072423434514</v>
       </c>
       <c r="J4">
-        <v>1.02877592568867</v>
+        <v>1.028527191504028</v>
       </c>
       <c r="K4">
-        <v>1.036867031269054</v>
+        <v>1.036152647824664</v>
       </c>
       <c r="L4">
-        <v>1.036113820985112</v>
+        <v>1.035885142871663</v>
       </c>
       <c r="M4">
-        <v>1.042722407132785</v>
+        <v>1.042543859120926</v>
       </c>
       <c r="N4">
-        <v>1.013471635448611</v>
+        <v>1.014740045392872</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042384307656091</v>
+        <v>1.042242999230386</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037136659478382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036640140512785</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021576014007196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010630369499833</v>
+        <v>1.0103375151972</v>
       </c>
       <c r="D5">
-        <v>1.027758668553416</v>
+        <v>1.026986826419295</v>
       </c>
       <c r="E5">
-        <v>1.02719833789441</v>
+        <v>1.026932745135667</v>
       </c>
       <c r="F5">
-        <v>1.033841075732245</v>
+        <v>1.033633775375952</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049641459988722</v>
+        <v>1.049248822062493</v>
       </c>
       <c r="J5">
-        <v>1.029317971864229</v>
+        <v>1.029032202473915</v>
       </c>
       <c r="K5">
-        <v>1.037316728094973</v>
+        <v>1.036553382327936</v>
       </c>
       <c r="L5">
-        <v>1.036762563943591</v>
+        <v>1.036499896954462</v>
       </c>
       <c r="M5">
-        <v>1.043332725296517</v>
+        <v>1.043127672539915</v>
       </c>
       <c r="N5">
-        <v>1.013655251977885</v>
+        <v>1.014876083992338</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042867332143001</v>
+        <v>1.042705047147127</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037461830625899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03693140154088</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021654186008885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010803115553644</v>
+        <v>1.010503868664942</v>
       </c>
       <c r="D6">
-        <v>1.027875420918486</v>
+        <v>1.027095304621588</v>
       </c>
       <c r="E6">
-        <v>1.027347465187675</v>
+        <v>1.027076064781133</v>
       </c>
       <c r="F6">
-        <v>1.033982822710114</v>
+        <v>1.033770994868807</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049677018671124</v>
+        <v>1.049280152054597</v>
       </c>
       <c r="J6">
-        <v>1.029411425160407</v>
+        <v>1.029119380703889</v>
       </c>
       <c r="K6">
-        <v>1.037395852655457</v>
+        <v>1.036624284746676</v>
       </c>
       <c r="L6">
-        <v>1.03687368043416</v>
+        <v>1.036605255934808</v>
       </c>
       <c r="M6">
-        <v>1.04343687716475</v>
+        <v>1.043227335440372</v>
       </c>
       <c r="N6">
-        <v>1.013687372186491</v>
+        <v>1.014899922300554</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042949761089295</v>
+        <v>1.042783923406025</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037526552766119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036991178727339</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021668404407546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009636333658931</v>
+        <v>1.009388307926321</v>
       </c>
       <c r="D7">
-        <v>1.027104633595904</v>
+        <v>1.026386574878057</v>
       </c>
       <c r="E7">
-        <v>1.026341757733277</v>
+        <v>1.026116870373127</v>
       </c>
       <c r="F7">
-        <v>1.033023301302712</v>
+        <v>1.032847745433325</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049448056777386</v>
+        <v>1.049082883913392</v>
       </c>
       <c r="J7">
-        <v>1.028790710600338</v>
+        <v>1.02854886697</v>
       </c>
       <c r="K7">
-        <v>1.036883680078876</v>
+        <v>1.036173737192007</v>
       </c>
       <c r="L7">
-        <v>1.036129427055323</v>
+        <v>1.035907084628616</v>
       </c>
       <c r="M7">
-        <v>1.042735981115306</v>
+        <v>1.042562380304767</v>
       </c>
       <c r="N7">
-        <v>1.01347790614695</v>
+        <v>1.014772838298443</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042395050525081</v>
+        <v>1.042257657470105</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037168614115979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036677233996185</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021581771846565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004660611065349</v>
+        <v>1.004616133151131</v>
       </c>
       <c r="D8">
-        <v>1.023812804962595</v>
+        <v>1.023349354457444</v>
       </c>
       <c r="E8">
-        <v>1.022064593297094</v>
+        <v>1.022024311330943</v>
       </c>
       <c r="F8">
-        <v>1.028949294387672</v>
+        <v>1.028917824529627</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048436931236242</v>
+        <v>1.048201568145964</v>
       </c>
       <c r="J8">
-        <v>1.026134477328953</v>
+        <v>1.026091273368293</v>
       </c>
       <c r="K8">
-        <v>1.034679595472791</v>
+        <v>1.034222066334979</v>
       </c>
       <c r="L8">
-        <v>1.032953755278168</v>
+        <v>1.0329139899189</v>
       </c>
       <c r="M8">
-        <v>1.039750903214912</v>
+        <v>1.039719830234772</v>
       </c>
       <c r="N8">
-        <v>1.012580319061839</v>
+        <v>1.014165654650751</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04003256384435</v>
+        <v>1.04000797164757</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035614719133064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035302283254288</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021198705769369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9955121745164683</v>
+        <v>0.9958252401002743</v>
       </c>
       <c r="D9">
-        <v>1.017757112107982</v>
+        <v>1.017750638810055</v>
       </c>
       <c r="E9">
-        <v>1.014248097692643</v>
+        <v>1.014530967054307</v>
       </c>
       <c r="F9">
-        <v>1.021527654744011</v>
+        <v>1.021748960830008</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046456644223766</v>
+        <v>1.04645336454895</v>
       </c>
       <c r="J9">
-        <v>1.021224410923855</v>
+        <v>1.021526286136363</v>
       </c>
       <c r="K9">
-        <v>1.030568515334748</v>
+        <v>1.030562142431953</v>
       </c>
       <c r="L9">
-        <v>1.027114162969479</v>
+        <v>1.027392607985235</v>
       </c>
       <c r="M9">
-        <v>1.034280856130277</v>
+        <v>1.034498763182001</v>
       </c>
       <c r="N9">
-        <v>1.010918935279403</v>
+        <v>1.012947582091295</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035703372431227</v>
+        <v>1.035875832389188</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032704692247934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032710985684457</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020455999479599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9892259319189755</v>
+        <v>0.9898254244660556</v>
       </c>
       <c r="D10">
-        <v>1.013607499763464</v>
+        <v>1.01394239434358</v>
       </c>
       <c r="E10">
-        <v>1.008958657135318</v>
+        <v>1.009499309984255</v>
       </c>
       <c r="F10">
-        <v>1.016570754859931</v>
+        <v>1.016994114588857</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045033487873253</v>
+        <v>1.045202901532448</v>
       </c>
       <c r="J10">
-        <v>1.01787363516665</v>
+        <v>1.018448621579385</v>
       </c>
       <c r="K10">
-        <v>1.027735337464555</v>
+        <v>1.028064396309679</v>
       </c>
       <c r="L10">
-        <v>1.023168022484575</v>
+        <v>1.023699143777659</v>
       </c>
       <c r="M10">
-        <v>1.030647128821403</v>
+        <v>1.031063167607406</v>
       </c>
       <c r="N10">
-        <v>1.009791577834283</v>
+        <v>1.012242701110428</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03287928597831</v>
+        <v>1.033208535435665</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030718344338742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.0309634965168</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019941815596622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9871028889963237</v>
+        <v>0.9878419730687992</v>
       </c>
       <c r="D11">
-        <v>1.012236995362522</v>
+        <v>1.012713282698833</v>
       </c>
       <c r="E11">
-        <v>1.007560845909774</v>
+        <v>1.008226330377253</v>
       </c>
       <c r="F11">
-        <v>1.015671745814974</v>
+        <v>1.016192525722527</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044621940730685</v>
+        <v>1.044862728688366</v>
       </c>
       <c r="J11">
-        <v>1.017022222728186</v>
+        <v>1.017729435371761</v>
       </c>
       <c r="K11">
-        <v>1.026931771611258</v>
+        <v>1.027399362679687</v>
       </c>
       <c r="L11">
-        <v>1.022341570581903</v>
+        <v>1.022994759912622</v>
       </c>
       <c r="M11">
-        <v>1.030304046416143</v>
+        <v>1.030815401656135</v>
       </c>
       <c r="N11">
-        <v>1.009556406525168</v>
+        <v>1.012316963120193</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033046733443543</v>
+        <v>1.033451209464628</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030183235941589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030529551560454</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019835398949734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9865546007132706</v>
+        <v>0.9873338962104554</v>
       </c>
       <c r="D12">
-        <v>1.01189242316514</v>
+        <v>1.01240639637378</v>
       </c>
       <c r="E12">
-        <v>1.007383431161857</v>
+        <v>1.008084517528249</v>
       </c>
       <c r="F12">
-        <v>1.015804433920388</v>
+        <v>1.016352758112847</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044550520578847</v>
+        <v>1.044810302085839</v>
       </c>
       <c r="J12">
-        <v>1.016939099408588</v>
+        <v>1.017684152966642</v>
       </c>
       <c r="K12">
-        <v>1.02679527552226</v>
+        <v>1.027299707700455</v>
       </c>
       <c r="L12">
-        <v>1.022370530309344</v>
+        <v>1.023058452844777</v>
       </c>
       <c r="M12">
-        <v>1.03063498299502</v>
+        <v>1.031173230782706</v>
       </c>
       <c r="N12">
-        <v>1.009568166956786</v>
+        <v>1.012434988629781</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033636640325956</v>
+        <v>1.034062242409279</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030086727619444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030459092966233</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019835718571403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9871910304453164</v>
+        <v>0.9879255162692137</v>
       </c>
       <c r="D13">
-        <v>1.012326431806589</v>
+        <v>1.012793294518686</v>
       </c>
       <c r="E13">
-        <v>1.008143717388098</v>
+        <v>1.00880425776633</v>
       </c>
       <c r="F13">
-        <v>1.016759235939674</v>
+        <v>1.017275543495828</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044747934955949</v>
+        <v>1.044983920042394</v>
       </c>
       <c r="J13">
-        <v>1.017452914418006</v>
+        <v>1.018155302813563</v>
       </c>
       <c r="K13">
-        <v>1.027177972537501</v>
+        <v>1.027636206895878</v>
       </c>
       <c r="L13">
-        <v>1.023073026592556</v>
+        <v>1.023721229701581</v>
       </c>
       <c r="M13">
-        <v>1.031529267550353</v>
+        <v>1.032036141516728</v>
       </c>
       <c r="N13">
-        <v>1.009776210997775</v>
+        <v>1.012562562901795</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034621614491988</v>
+        <v>1.035022307236907</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030354801644568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030694255858536</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019922089282006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9881701083229141</v>
+        <v>0.9888359729103504</v>
       </c>
       <c r="D14">
-        <v>1.01298196347168</v>
+        <v>1.013378506157312</v>
       </c>
       <c r="E14">
-        <v>1.009095653497334</v>
+        <v>1.009694474850374</v>
       </c>
       <c r="F14">
-        <v>1.017794914558813</v>
+        <v>1.018262786808144</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045007087727045</v>
+        <v>1.045207563402679</v>
       </c>
       <c r="J14">
-        <v>1.018079812939111</v>
+        <v>1.01871700784964</v>
       </c>
       <c r="K14">
-        <v>1.027679795880138</v>
+        <v>1.028069101970346</v>
       </c>
       <c r="L14">
-        <v>1.023864800332382</v>
+        <v>1.024452586596486</v>
       </c>
       <c r="M14">
-        <v>1.032405409775275</v>
+        <v>1.032864849108314</v>
       </c>
       <c r="N14">
-        <v>1.010009693757908</v>
+        <v>1.012656944462487</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03548810862079</v>
+        <v>1.035851254218356</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030711044953112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03100189576466</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020021549890516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9886721630031762</v>
+        <v>0.9893034792494356</v>
       </c>
       <c r="D15">
-        <v>1.013316773723313</v>
+        <v>1.013678089409517</v>
       </c>
       <c r="E15">
-        <v>1.009543144589938</v>
+        <v>1.010110949788393</v>
       </c>
       <c r="F15">
-        <v>1.018245043490159</v>
+        <v>1.018688626550978</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045131632007888</v>
+        <v>1.045314317655817</v>
       </c>
       <c r="J15">
-        <v>1.018369913603983</v>
+        <v>1.018974289128054</v>
       </c>
       <c r="K15">
-        <v>1.027921292653221</v>
+        <v>1.028276065030441</v>
       </c>
       <c r="L15">
-        <v>1.024216367164257</v>
+        <v>1.024773792046586</v>
       </c>
       <c r="M15">
-        <v>1.032760832930661</v>
+        <v>1.033196484326574</v>
       </c>
       <c r="N15">
-        <v>1.01011237527065</v>
+        <v>1.012687414539493</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035806681956664</v>
+        <v>1.036151016251508</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03088769959884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031154700928407</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020066592976977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9912083824095261</v>
+        <v>0.99167553418795</v>
       </c>
       <c r="D16">
-        <v>1.014990471638269</v>
+        <v>1.015181694831398</v>
       </c>
       <c r="E16">
-        <v>1.011639861555815</v>
+        <v>1.012060386859324</v>
       </c>
       <c r="F16">
-        <v>1.02019221664892</v>
+        <v>1.020520638873199</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045714198469143</v>
+        <v>1.045810941959725</v>
       </c>
       <c r="J16">
-        <v>1.019697289618176</v>
+        <v>1.02014551067126</v>
       </c>
       <c r="K16">
-        <v>1.029058343633175</v>
+        <v>1.029246255503868</v>
       </c>
       <c r="L16">
-        <v>1.025766017588829</v>
+        <v>1.026179200406636</v>
       </c>
       <c r="M16">
-        <v>1.03417058401539</v>
+        <v>1.034493394751112</v>
       </c>
       <c r="N16">
-        <v>1.010552514824294</v>
+        <v>1.012788583652447</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036882115927223</v>
+        <v>1.037137269529745</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031694828199742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031844146958514</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020265147834713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9926435588802288</v>
+        <v>0.9930290505604494</v>
       </c>
       <c r="D17">
-        <v>1.015933056580894</v>
+        <v>1.016036115140106</v>
       </c>
       <c r="E17">
-        <v>1.012751594958135</v>
+        <v>1.01309884472165</v>
       </c>
       <c r="F17">
-        <v>1.021139685145355</v>
+        <v>1.021410876057562</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046022433844671</v>
+        <v>1.046074592960456</v>
       </c>
       <c r="J17">
-        <v>1.020387399356163</v>
+        <v>1.02075777313342</v>
       </c>
       <c r="K17">
-        <v>1.029667372223093</v>
+        <v>1.029768696378224</v>
       </c>
       <c r="L17">
-        <v>1.026539676538114</v>
+        <v>1.026881036674047</v>
       </c>
       <c r="M17">
-        <v>1.034786940781619</v>
+        <v>1.035053628425419</v>
       </c>
       <c r="N17">
-        <v>1.010767922514198</v>
+        <v>1.012845810100415</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03723988844992</v>
+        <v>1.03745070278556</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032128040561065</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032216383354162</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020365853927736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9932486679705795</v>
+        <v>0.9936057177471501</v>
       </c>
       <c r="D18">
-        <v>1.016318303325064</v>
+        <v>1.016389135232908</v>
       </c>
       <c r="E18">
-        <v>1.013080189657182</v>
+        <v>1.013402018655582</v>
       </c>
       <c r="F18">
-        <v>1.021252153934707</v>
+        <v>1.021503568968304</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046117860612969</v>
+        <v>1.0461537172159</v>
       </c>
       <c r="J18">
-        <v>1.020569181412242</v>
+        <v>1.020912489021714</v>
       </c>
       <c r="K18">
-        <v>1.029861183549783</v>
+        <v>1.029930842930676</v>
       </c>
       <c r="L18">
-        <v>1.026676898065598</v>
+        <v>1.02699335736563</v>
       </c>
       <c r="M18">
-        <v>1.034713860804038</v>
+        <v>1.034961166460178</v>
       </c>
       <c r="N18">
-        <v>1.010799675628835</v>
+        <v>1.012824845901796</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036943628498291</v>
+        <v>1.037139162535458</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032253372241774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032318192023802</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020384974567281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9931077312481086</v>
+        <v>0.993478913354468</v>
       </c>
       <c r="D19">
-        <v>1.016210521536226</v>
+        <v>1.016296424833761</v>
       </c>
       <c r="E19">
-        <v>1.012697755634572</v>
+        <v>1.013032520032125</v>
       </c>
       <c r="F19">
-        <v>1.020599810331844</v>
+        <v>1.020861497333902</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046029143182199</v>
+        <v>1.046072632066029</v>
       </c>
       <c r="J19">
-        <v>1.020297506487246</v>
+        <v>1.020654480800757</v>
       </c>
       <c r="K19">
-        <v>1.029692111021276</v>
+        <v>1.029776599545114</v>
       </c>
       <c r="L19">
-        <v>1.026237462917898</v>
+        <v>1.02656666635289</v>
       </c>
       <c r="M19">
-        <v>1.034009502598318</v>
+        <v>1.034266928216681</v>
       </c>
       <c r="N19">
-        <v>1.010671200468311</v>
+        <v>1.012717590098777</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036059846179132</v>
+        <v>1.036263448676682</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032140261973434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032216191662513</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020333051461319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9908763491440677</v>
+        <v>0.9913780022709364</v>
       </c>
       <c r="D20">
-        <v>1.014708994760049</v>
+        <v>1.014939551145766</v>
       </c>
       <c r="E20">
-        <v>1.010348034399362</v>
+        <v>1.010800674964556</v>
       </c>
       <c r="F20">
-        <v>1.017871789953088</v>
+        <v>1.018226147665954</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045421182495652</v>
+        <v>1.045537859818114</v>
       </c>
       <c r="J20">
-        <v>1.018763559831941</v>
+        <v>1.019245381612084</v>
       </c>
       <c r="K20">
-        <v>1.028498042847828</v>
+        <v>1.028724696587636</v>
       </c>
       <c r="L20">
-        <v>1.024211334277712</v>
+        <v>1.024656229468546</v>
       </c>
       <c r="M20">
-        <v>1.031607500012425</v>
+        <v>1.031955908376066</v>
       </c>
       <c r="N20">
-        <v>1.010094991606444</v>
+        <v>1.012359538891115</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033628703194023</v>
+        <v>1.033904433826601</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031299946719536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031476787965272</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020080062752701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9860249199024462</v>
+        <v>0.9868605813933882</v>
       </c>
       <c r="D21">
-        <v>1.011501973384261</v>
+        <v>1.012073020771604</v>
       </c>
       <c r="E21">
-        <v>1.006204916807525</v>
+        <v>1.006957929324243</v>
       </c>
       <c r="F21">
-        <v>1.013914694974467</v>
+        <v>1.014504718562135</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044280243327705</v>
+        <v>1.044568910845115</v>
       </c>
       <c r="J21">
-        <v>1.016118780770096</v>
+        <v>1.016918116887622</v>
       </c>
       <c r="K21">
-        <v>1.026268665395475</v>
+        <v>1.026829219992049</v>
       </c>
       <c r="L21">
-        <v>1.021069681015009</v>
+        <v>1.021808669829162</v>
       </c>
       <c r="M21">
-        <v>1.028637158927002</v>
+        <v>1.029216408349298</v>
       </c>
       <c r="N21">
-        <v>1.009195431724338</v>
+        <v>1.012151524862956</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031236720346806</v>
+        <v>1.031695163268832</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029726927238115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030140187452309</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019685083989156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9829435320361836</v>
+        <v>0.9839916965464546</v>
       </c>
       <c r="D22">
-        <v>1.009464384430139</v>
+        <v>1.010251737437471</v>
       </c>
       <c r="E22">
-        <v>1.00360466315503</v>
+        <v>1.004548275195575</v>
       </c>
       <c r="F22">
-        <v>1.011460950688027</v>
+        <v>1.012200685933845</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043542875777754</v>
+        <v>1.04394061185709</v>
       </c>
       <c r="J22">
-        <v>1.014451043967623</v>
+        <v>1.015450952328668</v>
       </c>
       <c r="K22">
-        <v>1.024850653053929</v>
+        <v>1.025622804817905</v>
       </c>
       <c r="L22">
-        <v>1.019105047592558</v>
+        <v>1.020030165145693</v>
       </c>
       <c r="M22">
-        <v>1.02680873241081</v>
+        <v>1.027534258582039</v>
       </c>
       <c r="N22">
-        <v>1.008629519813419</v>
+        <v>1.012016450880513</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029789622930418</v>
+        <v>1.030363836713778</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028710720083831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029272297426223</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019431919338551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9845766961013511</v>
+        <v>0.9854991577036475</v>
       </c>
       <c r="D23">
-        <v>1.01053970846908</v>
+        <v>1.011203281178451</v>
       </c>
       <c r="E23">
-        <v>1.004981676539526</v>
+        <v>1.005812541893779</v>
       </c>
       <c r="F23">
-        <v>1.012761017833265</v>
+        <v>1.013412194228799</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043932200938842</v>
+        <v>1.044267531106607</v>
       </c>
       <c r="J23">
-        <v>1.015332397339952</v>
+        <v>1.016213653925866</v>
       </c>
       <c r="K23">
-        <v>1.025597179940815</v>
+        <v>1.026248270149707</v>
       </c>
       <c r="L23">
-        <v>1.020144547392124</v>
+        <v>1.020959559813046</v>
       </c>
       <c r="M23">
-        <v>1.027776788041815</v>
+        <v>1.028415784946591</v>
       </c>
       <c r="N23">
-        <v>1.008927178657274</v>
+        <v>1.012043025025624</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03055578524347</v>
+        <v>1.031061515371769</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029228849112356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029703885498068</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019561883669774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9908815549744302</v>
+        <v>0.9913836635202466</v>
       </c>
       <c r="D24">
-        <v>1.014703003000952</v>
+        <v>1.014933707374117</v>
       </c>
       <c r="E24">
-        <v>1.010314750091576</v>
+        <v>1.010767843572534</v>
       </c>
       <c r="F24">
-        <v>1.017801313479999</v>
+        <v>1.018156058266536</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045409910596852</v>
+        <v>1.045526664735356</v>
       </c>
       <c r="J24">
-        <v>1.018735187226005</v>
+        <v>1.019217474677235</v>
       </c>
       <c r="K24">
-        <v>1.028476745205651</v>
+        <v>1.028703549382846</v>
       </c>
       <c r="L24">
-        <v>1.02416311653825</v>
+        <v>1.024608466206499</v>
       </c>
       <c r="M24">
-        <v>1.031522867136982</v>
+        <v>1.03187166265605</v>
       </c>
       <c r="N24">
-        <v>1.010078763228701</v>
+        <v>1.012343243869715</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033520591034936</v>
+        <v>1.033796641955346</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031257313869669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031431591251179</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020071409973892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9979349571062387</v>
+        <v>0.9981424938962968</v>
       </c>
       <c r="D25">
-        <v>1.019368010370819</v>
+        <v>1.019233546345947</v>
       </c>
       <c r="E25">
-        <v>1.016312879898649</v>
+        <v>1.016500519739501</v>
       </c>
       <c r="F25">
-        <v>1.023483789740238</v>
+        <v>1.023630535979348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046999723805029</v>
+        <v>1.046931556841927</v>
       </c>
       <c r="J25">
-        <v>1.022532018600337</v>
+        <v>1.022732532643931</v>
       </c>
       <c r="K25">
-        <v>1.031672922889007</v>
+        <v>1.031540446995126</v>
       </c>
       <c r="L25">
-        <v>1.028663129421785</v>
+        <v>1.028847974768712</v>
       </c>
       <c r="M25">
-        <v>1.035728168725697</v>
+        <v>1.035872768074766</v>
       </c>
       <c r="N25">
-        <v>1.011363589219493</v>
+        <v>1.013240451982641</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036848830075735</v>
+        <v>1.036963271339787</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033514320416928</v>
+        <v>1.033434250079617</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020657938596106</v>
       </c>
     </row>
   </sheetData>
